--- a/Ghana.plants.uses.category.new.xlsx
+++ b/Ghana.plants.uses.category.new.xlsx
@@ -5,10 +5,10 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saray\Sarah\MASTERS PROJECT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saray\Sarah\MASTERS PROJECT\GhanaEcoServices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0B15E5F3-C231-4825-9D3B-9121DEB62AB8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{4CFA2501-CE02-43CE-8D85-97048915785B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11521" uniqueCount="1609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11518" uniqueCount="1606">
   <si>
     <t>Species</t>
   </si>
@@ -5803,15 +5803,6 @@
   <si>
     <t>Cochlospermum 
 tinctorium A. Rich.</t>
-  </si>
-  <si>
-    <t>break the health care down</t>
-  </si>
-  <si>
-    <t>count the number of records</t>
-  </si>
-  <si>
-    <t>how many of the species have records in gbif</t>
   </si>
   <si>
     <t>Adiantum veneris</t>
@@ -7469,8 +7460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P1039"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" topLeftCell="C1022" workbookViewId="0">
+      <selection activeCell="D1035" sqref="D1035"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15.5"/>
@@ -7762,7 +7753,7 @@
         <v>174</v>
       </c>
       <c r="J6" s="23" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1">
@@ -7904,10 +7895,10 @@
         <v>265</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>1580</v>
+        <v>1577</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>1581</v>
+        <v>1578</v>
       </c>
       <c r="L9" s="5" t="s">
         <v>266</v>
@@ -7952,10 +7943,10 @@
         <v>265</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>1580</v>
+        <v>1577</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>1581</v>
+        <v>1578</v>
       </c>
       <c r="L10" s="5" t="s">
         <v>266</v>
@@ -7997,10 +7988,10 @@
         <v>147</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>1583</v>
+        <v>1580</v>
       </c>
       <c r="L11" s="5" t="s">
         <v>148</v>
@@ -8300,10 +8291,10 @@
     </row>
     <row r="18" spans="1:16" ht="46.5">
       <c r="A18" s="2" t="s">
-        <v>1505</v>
+        <v>1502</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>1506</v>
+        <v>1503</v>
       </c>
       <c r="C18" s="29" t="s">
         <v>1450</v>
@@ -8327,10 +8318,10 @@
         <v>1090</v>
       </c>
       <c r="J18" s="23" t="s">
-        <v>1584</v>
+        <v>1581</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>1585</v>
+        <v>1582</v>
       </c>
       <c r="L18" s="5" t="s">
         <v>1091</v>
@@ -8345,7 +8336,7 @@
         <v>452</v>
       </c>
       <c r="P18" s="8" t="s">
-        <v>1608</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -8377,10 +8368,10 @@
         <v>147</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>1583</v>
+        <v>1580</v>
       </c>
       <c r="L19" s="5" t="s">
         <v>148</v>
@@ -9230,10 +9221,10 @@
         <v>147</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
       <c r="K37" s="6" t="s">
-        <v>1583</v>
+        <v>1580</v>
       </c>
       <c r="L37" s="5" t="s">
         <v>148</v>
@@ -9272,10 +9263,10 @@
         <v>1086</v>
       </c>
       <c r="J38" s="23" t="s">
-        <v>1586</v>
+        <v>1583</v>
       </c>
       <c r="K38" s="6" t="s">
-        <v>1587</v>
+        <v>1584</v>
       </c>
       <c r="L38" s="5" t="s">
         <v>1087</v>
@@ -9290,7 +9281,7 @@
         <v>452</v>
       </c>
       <c r="P38" s="8" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -9439,7 +9430,7 @@
     </row>
     <row r="42" spans="1:16" ht="21.5" customHeight="1">
       <c r="A42" s="2" t="s">
-        <v>1508</v>
+        <v>1505</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>201</v>
@@ -9466,7 +9457,7 @@
         <v>174</v>
       </c>
       <c r="J42" s="23" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
       <c r="K42" s="1"/>
       <c r="L42" s="1">
@@ -9602,10 +9593,10 @@
         <v>1086</v>
       </c>
       <c r="J45" s="23" t="s">
-        <v>1586</v>
+        <v>1583</v>
       </c>
       <c r="K45" s="6" t="s">
-        <v>1587</v>
+        <v>1584</v>
       </c>
       <c r="L45" s="5" t="s">
         <v>1087</v>
@@ -9653,7 +9644,7 @@
         <v>72</v>
       </c>
       <c r="K46" s="6" t="s">
-        <v>1588</v>
+        <v>1585</v>
       </c>
       <c r="L46" s="5" t="s">
         <v>49</v>
@@ -9701,7 +9692,7 @@
         <v>72</v>
       </c>
       <c r="K47" s="6" t="s">
-        <v>1588</v>
+        <v>1585</v>
       </c>
       <c r="L47" s="5" t="s">
         <v>49</v>
@@ -9749,7 +9740,7 @@
         <v>72</v>
       </c>
       <c r="K48" s="6" t="s">
-        <v>1588</v>
+        <v>1585</v>
       </c>
       <c r="L48" s="5" t="s">
         <v>49</v>
@@ -9881,10 +9872,10 @@
         <v>1086</v>
       </c>
       <c r="J51" s="23" t="s">
-        <v>1586</v>
+        <v>1583</v>
       </c>
       <c r="K51" s="6" t="s">
-        <v>1587</v>
+        <v>1584</v>
       </c>
       <c r="L51" s="5" t="s">
         <v>1087</v>
@@ -9923,10 +9914,10 @@
         <v>1086</v>
       </c>
       <c r="J52" s="23" t="s">
-        <v>1586</v>
+        <v>1583</v>
       </c>
       <c r="K52" s="6" t="s">
-        <v>1587</v>
+        <v>1584</v>
       </c>
       <c r="L52" s="5" t="s">
         <v>1087</v>
@@ -10307,7 +10298,7 @@
         <v>153</v>
       </c>
       <c r="J60" s="6" t="s">
-        <v>1589</v>
+        <v>1586</v>
       </c>
       <c r="K60" s="6" t="s">
         <v>154</v>
@@ -10403,10 +10394,10 @@
         <v>691</v>
       </c>
       <c r="J62" s="23" t="s">
-        <v>1590</v>
+        <v>1587</v>
       </c>
       <c r="K62" s="6" t="s">
-        <v>1591</v>
+        <v>1588</v>
       </c>
       <c r="L62" s="5" t="s">
         <v>692</v>
@@ -10499,7 +10490,7 @@
         <v>153</v>
       </c>
       <c r="J64" s="6" t="s">
-        <v>1589</v>
+        <v>1586</v>
       </c>
       <c r="K64" s="6" t="s">
         <v>154</v>
@@ -10547,10 +10538,10 @@
         <v>265</v>
       </c>
       <c r="J65" s="6" t="s">
-        <v>1580</v>
+        <v>1577</v>
       </c>
       <c r="K65" s="6" t="s">
-        <v>1581</v>
+        <v>1578</v>
       </c>
       <c r="L65" s="5" t="s">
         <v>266</v>
@@ -10595,10 +10586,10 @@
         <v>691</v>
       </c>
       <c r="J66" s="23" t="s">
-        <v>1590</v>
+        <v>1587</v>
       </c>
       <c r="K66" s="6" t="s">
-        <v>1591</v>
+        <v>1588</v>
       </c>
       <c r="L66" s="5" t="s">
         <v>692</v>
@@ -10787,7 +10778,7 @@
         <v>153</v>
       </c>
       <c r="J70" s="6" t="s">
-        <v>1589</v>
+        <v>1586</v>
       </c>
       <c r="K70" s="6" t="s">
         <v>154</v>
@@ -10835,7 +10826,7 @@
         <v>174</v>
       </c>
       <c r="J71" s="23" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
       <c r="K71" s="1"/>
       <c r="L71" s="1">
@@ -10881,7 +10872,7 @@
         <v>174</v>
       </c>
       <c r="J72" s="23" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
       <c r="K72" s="1"/>
       <c r="L72" s="1">
@@ -10927,7 +10918,7 @@
         <v>174</v>
       </c>
       <c r="J73" s="23" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
       <c r="K73" s="1"/>
       <c r="L73" s="1">
@@ -11021,10 +11012,10 @@
         <v>691</v>
       </c>
       <c r="J75" s="23" t="s">
-        <v>1590</v>
+        <v>1587</v>
       </c>
       <c r="K75" s="6" t="s">
-        <v>1591</v>
+        <v>1588</v>
       </c>
       <c r="L75" s="5" t="s">
         <v>692</v>
@@ -11165,10 +11156,10 @@
         <v>1382</v>
       </c>
       <c r="J78" s="6" t="s">
-        <v>1592</v>
+        <v>1589</v>
       </c>
       <c r="K78" s="6" t="s">
-        <v>1593</v>
+        <v>1590</v>
       </c>
       <c r="L78" s="5" t="s">
         <v>1414</v>
@@ -11216,7 +11207,7 @@
         <v>72</v>
       </c>
       <c r="K79" s="6" t="s">
-        <v>1588</v>
+        <v>1585</v>
       </c>
       <c r="L79" s="5" t="s">
         <v>49</v>
@@ -11405,7 +11396,7 @@
         <v>174</v>
       </c>
       <c r="J83" s="23" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
       <c r="K83" s="1"/>
       <c r="L83" s="1">
@@ -11493,10 +11484,10 @@
         <v>1086</v>
       </c>
       <c r="J85" s="23" t="s">
-        <v>1586</v>
+        <v>1583</v>
       </c>
       <c r="K85" s="6" t="s">
-        <v>1587</v>
+        <v>1584</v>
       </c>
       <c r="L85" s="5" t="s">
         <v>1087</v>
@@ -11589,7 +11580,7 @@
         <v>174</v>
       </c>
       <c r="J87" s="23" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
       <c r="K87" s="1"/>
       <c r="L87" s="1">
@@ -11779,10 +11770,10 @@
         <v>1382</v>
       </c>
       <c r="J91" s="6" t="s">
-        <v>1592</v>
+        <v>1589</v>
       </c>
       <c r="K91" s="6" t="s">
-        <v>1593</v>
+        <v>1590</v>
       </c>
       <c r="L91" s="5" t="s">
         <v>1410</v>
@@ -12067,10 +12058,10 @@
         <v>1382</v>
       </c>
       <c r="J97" s="6" t="s">
-        <v>1592</v>
+        <v>1589</v>
       </c>
       <c r="K97" s="6" t="s">
-        <v>1593</v>
+        <v>1590</v>
       </c>
       <c r="L97" s="5" t="s">
         <v>1419</v>
@@ -12259,7 +12250,7 @@
         <v>174</v>
       </c>
       <c r="J101" s="23" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
       <c r="K101" s="1"/>
       <c r="L101" s="1">
@@ -12305,10 +12296,10 @@
         <v>1382</v>
       </c>
       <c r="J102" s="6" t="s">
-        <v>1592</v>
+        <v>1589</v>
       </c>
       <c r="K102" s="6" t="s">
-        <v>1593</v>
+        <v>1590</v>
       </c>
       <c r="L102" s="5" t="s">
         <v>1412</v>
@@ -12353,7 +12344,7 @@
         <v>153</v>
       </c>
       <c r="J103" s="6" t="s">
-        <v>1589</v>
+        <v>1586</v>
       </c>
       <c r="K103" s="6" t="s">
         <v>154</v>
@@ -12689,10 +12680,10 @@
         <v>265</v>
       </c>
       <c r="J110" s="6" t="s">
-        <v>1580</v>
+        <v>1577</v>
       </c>
       <c r="K110" s="6" t="s">
-        <v>1581</v>
+        <v>1578</v>
       </c>
       <c r="L110" s="5" t="s">
         <v>266</v>
@@ -12785,10 +12776,10 @@
         <v>147</v>
       </c>
       <c r="J112" s="6" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
       <c r="K112" s="6" t="s">
-        <v>1583</v>
+        <v>1580</v>
       </c>
       <c r="L112" s="5" t="s">
         <v>148</v>
@@ -12833,10 +12824,10 @@
         <v>1090</v>
       </c>
       <c r="J113" s="23" t="s">
-        <v>1584</v>
+        <v>1581</v>
       </c>
       <c r="K113" s="6" t="s">
-        <v>1585</v>
+        <v>1582</v>
       </c>
       <c r="L113" s="5" t="s">
         <v>1091</v>
@@ -13019,10 +13010,10 @@
         <v>1086</v>
       </c>
       <c r="J117" s="23" t="s">
-        <v>1586</v>
+        <v>1583</v>
       </c>
       <c r="K117" s="6" t="s">
-        <v>1587</v>
+        <v>1584</v>
       </c>
       <c r="L117" s="5" t="s">
         <v>1087</v>
@@ -13461,7 +13452,7 @@
     </row>
     <row r="127" spans="1:16">
       <c r="A127" s="12" t="s">
-        <v>1509</v>
+        <v>1506</v>
       </c>
       <c r="B127" s="12" t="s">
         <v>270</v>
@@ -13488,10 +13479,10 @@
         <v>265</v>
       </c>
       <c r="J127" s="6" t="s">
-        <v>1580</v>
+        <v>1577</v>
       </c>
       <c r="K127" s="6" t="s">
-        <v>1581</v>
+        <v>1578</v>
       </c>
       <c r="L127" s="5" t="s">
         <v>266</v>
@@ -13509,7 +13500,7 @@
     </row>
     <row r="128" spans="1:16">
       <c r="A128" s="12" t="s">
-        <v>1509</v>
+        <v>1506</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>270</v>
@@ -13536,10 +13527,10 @@
         <v>265</v>
       </c>
       <c r="J128" s="6" t="s">
-        <v>1580</v>
+        <v>1577</v>
       </c>
       <c r="K128" s="6" t="s">
-        <v>1581</v>
+        <v>1578</v>
       </c>
       <c r="L128" s="5" t="s">
         <v>266</v>
@@ -13872,7 +13863,7 @@
         <v>153</v>
       </c>
       <c r="J135" s="6" t="s">
-        <v>1589</v>
+        <v>1586</v>
       </c>
       <c r="K135" s="6" t="s">
         <v>154</v>
@@ -13920,7 +13911,7 @@
         <v>174</v>
       </c>
       <c r="J136" s="23" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
       <c r="K136" s="1"/>
       <c r="L136" s="1">
@@ -13966,10 +13957,10 @@
         <v>1090</v>
       </c>
       <c r="J137" s="23" t="s">
-        <v>1584</v>
+        <v>1581</v>
       </c>
       <c r="K137" s="6" t="s">
-        <v>1585</v>
+        <v>1582</v>
       </c>
       <c r="L137" s="5" t="s">
         <v>1091</v>
@@ -14014,10 +14005,10 @@
         <v>147</v>
       </c>
       <c r="J138" s="6" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
       <c r="K138" s="6" t="s">
-        <v>1583</v>
+        <v>1580</v>
       </c>
       <c r="L138" s="5" t="s">
         <v>148</v>
@@ -14158,10 +14149,10 @@
         <v>1382</v>
       </c>
       <c r="J141" s="6" t="s">
-        <v>1592</v>
+        <v>1589</v>
       </c>
       <c r="K141" s="6" t="s">
-        <v>1593</v>
+        <v>1590</v>
       </c>
       <c r="L141" s="5" t="s">
         <v>1432</v>
@@ -14299,10 +14290,10 @@
         <v>688</v>
       </c>
       <c r="J144" s="6" t="s">
-        <v>1594</v>
+        <v>1591</v>
       </c>
       <c r="K144" s="6" t="s">
-        <v>1595</v>
+        <v>1592</v>
       </c>
       <c r="L144" s="5" t="s">
         <v>689</v>
@@ -14347,10 +14338,10 @@
         <v>691</v>
       </c>
       <c r="J145" s="23" t="s">
-        <v>1590</v>
+        <v>1587</v>
       </c>
       <c r="K145" s="6" t="s">
-        <v>1591</v>
+        <v>1588</v>
       </c>
       <c r="L145" s="5" t="s">
         <v>692</v>
@@ -14672,7 +14663,7 @@
         <v>72</v>
       </c>
       <c r="K152" s="6" t="s">
-        <v>1588</v>
+        <v>1585</v>
       </c>
       <c r="L152" s="5" t="s">
         <v>49</v>
@@ -14765,10 +14756,10 @@
         <v>1382</v>
       </c>
       <c r="J154" s="6" t="s">
-        <v>1592</v>
+        <v>1589</v>
       </c>
       <c r="K154" s="6" t="s">
-        <v>1593</v>
+        <v>1590</v>
       </c>
       <c r="L154" s="5" t="s">
         <v>1434</v>
@@ -14957,7 +14948,7 @@
         <v>174</v>
       </c>
       <c r="J158" s="23" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
       <c r="K158" s="1"/>
       <c r="L158" s="1">
@@ -15192,7 +15183,7 @@
         <v>174</v>
       </c>
       <c r="J163" s="23" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
       <c r="K163" s="1"/>
       <c r="L163" s="1">
@@ -15235,7 +15226,7 @@
         <v>174</v>
       </c>
       <c r="J164" s="23" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
       <c r="K164" s="1"/>
       <c r="L164" s="1">
@@ -15278,7 +15269,7 @@
         <v>174</v>
       </c>
       <c r="J165" s="23" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
       <c r="K165" s="1"/>
       <c r="L165" s="1">
@@ -15420,10 +15411,10 @@
         <v>691</v>
       </c>
       <c r="J168" s="23" t="s">
-        <v>1590</v>
+        <v>1587</v>
       </c>
       <c r="K168" s="6" t="s">
-        <v>1591</v>
+        <v>1588</v>
       </c>
       <c r="L168" s="5" t="s">
         <v>692</v>
@@ -15489,7 +15480,7 @@
     </row>
     <row r="170" spans="1:16">
       <c r="A170" s="2" t="s">
-        <v>1510</v>
+        <v>1507</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>273</v>
@@ -15516,10 +15507,10 @@
         <v>265</v>
       </c>
       <c r="J170" s="6" t="s">
-        <v>1580</v>
+        <v>1577</v>
       </c>
       <c r="K170" s="6" t="s">
-        <v>1581</v>
+        <v>1578</v>
       </c>
       <c r="L170" s="5" t="s">
         <v>266</v>
@@ -15804,7 +15795,7 @@
         <v>153</v>
       </c>
       <c r="J176" s="6" t="s">
-        <v>1589</v>
+        <v>1586</v>
       </c>
       <c r="K176" s="6" t="s">
         <v>154</v>
@@ -15852,7 +15843,7 @@
         <v>174</v>
       </c>
       <c r="J177" s="23" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
       <c r="K177" s="1"/>
       <c r="L177" s="1">
@@ -15898,7 +15889,7 @@
         <v>174</v>
       </c>
       <c r="J178" s="23" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
       <c r="K178" s="1"/>
       <c r="L178" s="1">
@@ -16130,10 +16121,10 @@
         <v>1086</v>
       </c>
       <c r="J183" s="23" t="s">
-        <v>1586</v>
+        <v>1583</v>
       </c>
       <c r="K183" s="6" t="s">
-        <v>1587</v>
+        <v>1584</v>
       </c>
       <c r="L183" s="5" t="s">
         <v>1087</v>
@@ -16151,7 +16142,7 @@
     </row>
     <row r="184" spans="1:16">
       <c r="A184" s="2" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="B184" s="2" t="s">
         <v>274</v>
@@ -16178,10 +16169,10 @@
         <v>265</v>
       </c>
       <c r="J184" s="6" t="s">
-        <v>1580</v>
+        <v>1577</v>
       </c>
       <c r="K184" s="6" t="s">
-        <v>1581</v>
+        <v>1578</v>
       </c>
       <c r="L184" s="5" t="s">
         <v>266</v>
@@ -16199,7 +16190,7 @@
     </row>
     <row r="185" spans="1:16" ht="31">
       <c r="A185" s="2" t="s">
-        <v>1512</v>
+        <v>1509</v>
       </c>
       <c r="B185" s="30" t="s">
         <v>1035</v>
@@ -16274,7 +16265,7 @@
         <v>174</v>
       </c>
       <c r="J186" s="23" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
       <c r="K186" s="1"/>
       <c r="L186" s="1">
@@ -16368,10 +16359,10 @@
         <v>1090</v>
       </c>
       <c r="J188" s="23" t="s">
-        <v>1584</v>
+        <v>1581</v>
       </c>
       <c r="K188" s="6" t="s">
-        <v>1585</v>
+        <v>1582</v>
       </c>
       <c r="L188" s="5" t="s">
         <v>1091</v>
@@ -16416,7 +16407,7 @@
         <v>153</v>
       </c>
       <c r="J189" s="6" t="s">
-        <v>1589</v>
+        <v>1586</v>
       </c>
       <c r="K189" s="6" t="s">
         <v>154</v>
@@ -16629,7 +16620,7 @@
     </row>
     <row r="194" spans="1:16" ht="31">
       <c r="A194" s="11" t="s">
-        <v>1513</v>
+        <v>1510</v>
       </c>
       <c r="B194" s="11" t="s">
         <v>935</v>
@@ -16906,7 +16897,7 @@
     </row>
     <row r="200" spans="1:16" ht="31">
       <c r="A200" s="2" t="s">
-        <v>1514</v>
+        <v>1511</v>
       </c>
       <c r="B200" s="2" t="s">
         <v>179</v>
@@ -16933,7 +16924,7 @@
         <v>174</v>
       </c>
       <c r="J200" s="23" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
       <c r="K200" s="1"/>
       <c r="L200" s="1">
@@ -16952,7 +16943,7 @@
     </row>
     <row r="201" spans="1:16">
       <c r="A201" s="10" t="s">
-        <v>1515</v>
+        <v>1512</v>
       </c>
       <c r="B201" s="10" t="s">
         <v>1475</v>
@@ -16979,10 +16970,10 @@
         <v>265</v>
       </c>
       <c r="J201" s="6" t="s">
-        <v>1580</v>
+        <v>1577</v>
       </c>
       <c r="K201" s="6" t="s">
-        <v>1581</v>
+        <v>1578</v>
       </c>
       <c r="L201" s="5" t="s">
         <v>266</v>
@@ -17000,7 +16991,7 @@
     </row>
     <row r="202" spans="1:16" ht="31">
       <c r="A202" s="2" t="s">
-        <v>1515</v>
+        <v>1512</v>
       </c>
       <c r="B202" s="24" t="s">
         <v>1474</v>
@@ -17072,10 +17063,10 @@
         <v>688</v>
       </c>
       <c r="J203" s="6" t="s">
-        <v>1594</v>
+        <v>1591</v>
       </c>
       <c r="K203" s="6" t="s">
-        <v>1595</v>
+        <v>1592</v>
       </c>
       <c r="L203" s="5" t="s">
         <v>689</v>
@@ -17637,10 +17628,10 @@
         <v>147</v>
       </c>
       <c r="J215" s="6" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
       <c r="K215" s="6" t="s">
-        <v>1583</v>
+        <v>1580</v>
       </c>
       <c r="L215" s="5" t="s">
         <v>148</v>
@@ -17685,7 +17676,7 @@
         <v>153</v>
       </c>
       <c r="J216" s="6" t="s">
-        <v>1589</v>
+        <v>1586</v>
       </c>
       <c r="K216" s="6" t="s">
         <v>154</v>
@@ -17829,10 +17820,10 @@
         <v>1382</v>
       </c>
       <c r="J219" s="6" t="s">
-        <v>1592</v>
+        <v>1589</v>
       </c>
       <c r="K219" s="6" t="s">
-        <v>1593</v>
+        <v>1590</v>
       </c>
       <c r="L219" s="5" t="s">
         <v>1420</v>
@@ -18099,7 +18090,7 @@
         <v>1450</v>
       </c>
       <c r="D225" s="7" t="s">
-        <v>1596</v>
+        <v>1593</v>
       </c>
       <c r="E225" s="1" t="s">
         <v>1134</v>
@@ -18120,7 +18111,7 @@
         <v>72</v>
       </c>
       <c r="K225" s="6" t="s">
-        <v>1588</v>
+        <v>1585</v>
       </c>
       <c r="L225" s="5" t="s">
         <v>49</v>
@@ -18165,7 +18156,7 @@
         <v>174</v>
       </c>
       <c r="J226" s="23" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
       <c r="K226" s="1"/>
       <c r="L226" s="1">
@@ -18211,7 +18202,7 @@
         <v>174</v>
       </c>
       <c r="J227" s="23" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
       <c r="K227" s="1"/>
       <c r="L227" s="1">
@@ -18251,10 +18242,10 @@
         <v>1086</v>
       </c>
       <c r="J228" s="23" t="s">
-        <v>1586</v>
+        <v>1583</v>
       </c>
       <c r="K228" s="6" t="s">
-        <v>1587</v>
+        <v>1584</v>
       </c>
       <c r="L228" s="5" t="s">
         <v>1087</v>
@@ -18320,7 +18311,7 @@
     </row>
     <row r="230" spans="1:16">
       <c r="A230" s="2" t="s">
-        <v>1516</v>
+        <v>1513</v>
       </c>
       <c r="B230" s="2" t="s">
         <v>276</v>
@@ -18347,10 +18338,10 @@
         <v>265</v>
       </c>
       <c r="J230" s="6" t="s">
-        <v>1580</v>
+        <v>1577</v>
       </c>
       <c r="K230" s="6" t="s">
-        <v>1581</v>
+        <v>1578</v>
       </c>
       <c r="L230" s="5" t="s">
         <v>266</v>
@@ -18398,7 +18389,7 @@
         <v>72</v>
       </c>
       <c r="K231" s="6" t="s">
-        <v>1588</v>
+        <v>1585</v>
       </c>
       <c r="L231" s="5" t="s">
         <v>49</v>
@@ -18446,7 +18437,7 @@
         <v>72</v>
       </c>
       <c r="K232" s="6" t="s">
-        <v>1588</v>
+        <v>1585</v>
       </c>
       <c r="L232" s="5" t="s">
         <v>49</v>
@@ -18539,7 +18530,7 @@
         <v>72</v>
       </c>
       <c r="K234" s="6" t="s">
-        <v>1588</v>
+        <v>1585</v>
       </c>
       <c r="L234" s="5" t="s">
         <v>49</v>
@@ -18587,7 +18578,7 @@
         <v>72</v>
       </c>
       <c r="K235" s="6" t="s">
-        <v>1588</v>
+        <v>1585</v>
       </c>
       <c r="L235" s="5" t="s">
         <v>49</v>
@@ -18632,10 +18623,10 @@
         <v>147</v>
       </c>
       <c r="J236" s="6" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
       <c r="K236" s="6" t="s">
-        <v>1583</v>
+        <v>1580</v>
       </c>
       <c r="L236" s="5" t="s">
         <v>148</v>
@@ -18866,10 +18857,10 @@
         <v>688</v>
       </c>
       <c r="J241" s="6" t="s">
-        <v>1594</v>
+        <v>1591</v>
       </c>
       <c r="K241" s="6" t="s">
-        <v>1595</v>
+        <v>1592</v>
       </c>
       <c r="L241" s="5" t="s">
         <v>689</v>
@@ -18914,10 +18905,10 @@
         <v>265</v>
       </c>
       <c r="J242" s="6" t="s">
-        <v>1580</v>
+        <v>1577</v>
       </c>
       <c r="K242" s="6" t="s">
-        <v>1581</v>
+        <v>1578</v>
       </c>
       <c r="L242" s="5" t="s">
         <v>266</v>
@@ -18983,7 +18974,7 @@
     </row>
     <row r="244" spans="1:16">
       <c r="A244" s="2" t="s">
-        <v>1517</v>
+        <v>1514</v>
       </c>
       <c r="C244" s="29" t="s">
         <v>1449</v>
@@ -19047,10 +19038,10 @@
         <v>265</v>
       </c>
       <c r="J245" s="6" t="s">
-        <v>1580</v>
+        <v>1577</v>
       </c>
       <c r="K245" s="6" t="s">
-        <v>1581</v>
+        <v>1578</v>
       </c>
       <c r="L245" s="5" t="s">
         <v>266</v>
@@ -19377,10 +19368,10 @@
         <v>688</v>
       </c>
       <c r="J252" s="6" t="s">
-        <v>1594</v>
+        <v>1591</v>
       </c>
       <c r="K252" s="6" t="s">
-        <v>1595</v>
+        <v>1592</v>
       </c>
       <c r="L252" s="5" t="s">
         <v>689</v>
@@ -19428,7 +19419,7 @@
         <v>72</v>
       </c>
       <c r="K253" s="6" t="s">
-        <v>1588</v>
+        <v>1585</v>
       </c>
       <c r="L253" s="5" t="s">
         <v>49</v>
@@ -19476,7 +19467,7 @@
         <v>72</v>
       </c>
       <c r="K254" s="6" t="s">
-        <v>1588</v>
+        <v>1585</v>
       </c>
       <c r="L254" s="5" t="s">
         <v>49</v>
@@ -19521,10 +19512,10 @@
         <v>691</v>
       </c>
       <c r="J255" s="23" t="s">
-        <v>1590</v>
+        <v>1587</v>
       </c>
       <c r="K255" s="6" t="s">
-        <v>1591</v>
+        <v>1588</v>
       </c>
       <c r="L255" s="5" t="s">
         <v>692</v>
@@ -19617,10 +19608,10 @@
         <v>1382</v>
       </c>
       <c r="J257" s="6" t="s">
-        <v>1592</v>
+        <v>1589</v>
       </c>
       <c r="K257" s="6" t="s">
-        <v>1593</v>
+        <v>1590</v>
       </c>
       <c r="L257" s="5" t="s">
         <v>1416</v>
@@ -19840,10 +19831,10 @@
         <v>1086</v>
       </c>
       <c r="J262" s="23" t="s">
-        <v>1586</v>
+        <v>1583</v>
       </c>
       <c r="K262" s="6" t="s">
-        <v>1587</v>
+        <v>1584</v>
       </c>
       <c r="L262" s="5" t="s">
         <v>1087</v>
@@ -19882,10 +19873,10 @@
         <v>1086</v>
       </c>
       <c r="J263" s="23" t="s">
-        <v>1586</v>
+        <v>1583</v>
       </c>
       <c r="K263" s="6" t="s">
-        <v>1587</v>
+        <v>1584</v>
       </c>
       <c r="L263" s="5" t="s">
         <v>1087</v>
@@ -19924,10 +19915,10 @@
         <v>1181</v>
       </c>
       <c r="J264" s="23" t="s">
-        <v>1597</v>
+        <v>1594</v>
       </c>
       <c r="K264" s="6" t="s">
-        <v>1598</v>
+        <v>1595</v>
       </c>
       <c r="L264" s="5" t="s">
         <v>1182</v>
@@ -19972,7 +19963,7 @@
         <v>174</v>
       </c>
       <c r="J265" s="23" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
       <c r="K265" s="1"/>
       <c r="L265" s="1">
@@ -20018,7 +20009,7 @@
         <v>174</v>
       </c>
       <c r="J266" s="23" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
       <c r="K266" s="1"/>
       <c r="L266" s="1">
@@ -20626,10 +20617,10 @@
         <v>688</v>
       </c>
       <c r="J279" s="6" t="s">
-        <v>1594</v>
+        <v>1591</v>
       </c>
       <c r="K279" s="6" t="s">
-        <v>1595</v>
+        <v>1592</v>
       </c>
       <c r="L279" s="5" t="s">
         <v>689</v>
@@ -20674,7 +20665,7 @@
         <v>174</v>
       </c>
       <c r="J280" s="23" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
       <c r="K280" s="1"/>
       <c r="L280" s="1">
@@ -20778,7 +20769,7 @@
     </row>
     <row r="283" spans="1:16">
       <c r="A283" s="2" t="s">
-        <v>1518</v>
+        <v>1515</v>
       </c>
       <c r="C283" s="29" t="s">
         <v>1449</v>
@@ -20815,7 +20806,7 @@
     </row>
     <row r="284" spans="1:16">
       <c r="A284" s="2" t="s">
-        <v>1518</v>
+        <v>1515</v>
       </c>
       <c r="B284" s="11" t="s">
         <v>258</v>
@@ -20863,7 +20854,7 @@
     </row>
     <row r="285" spans="1:16">
       <c r="A285" s="2" t="s">
-        <v>1518</v>
+        <v>1515</v>
       </c>
       <c r="B285" s="11" t="s">
         <v>258</v>
@@ -20911,7 +20902,7 @@
     </row>
     <row r="286" spans="1:16">
       <c r="A286" s="2" t="s">
-        <v>1518</v>
+        <v>1515</v>
       </c>
       <c r="B286" s="18" t="s">
         <v>662</v>
@@ -20959,7 +20950,7 @@
     </row>
     <row r="287" spans="1:16">
       <c r="A287" s="2" t="s">
-        <v>1518</v>
+        <v>1515</v>
       </c>
       <c r="B287" s="24" t="s">
         <v>1386</v>
@@ -20986,10 +20977,10 @@
         <v>1382</v>
       </c>
       <c r="J287" s="6" t="s">
-        <v>1592</v>
+        <v>1589</v>
       </c>
       <c r="K287" s="6" t="s">
-        <v>1593</v>
+        <v>1590</v>
       </c>
       <c r="L287" s="5" t="s">
         <v>1413</v>
@@ -21007,7 +20998,7 @@
     </row>
     <row r="288" spans="1:16">
       <c r="A288" s="2" t="s">
-        <v>1518</v>
+        <v>1515</v>
       </c>
       <c r="B288" s="19" t="s">
         <v>721</v>
@@ -21172,10 +21163,10 @@
         <v>1086</v>
       </c>
       <c r="J291" s="23" t="s">
-        <v>1586</v>
+        <v>1583</v>
       </c>
       <c r="K291" s="6" t="s">
-        <v>1587</v>
+        <v>1584</v>
       </c>
       <c r="L291" s="5" t="s">
         <v>1087</v>
@@ -21316,10 +21307,10 @@
         <v>147</v>
       </c>
       <c r="J294" s="6" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
       <c r="K294" s="6" t="s">
-        <v>1583</v>
+        <v>1580</v>
       </c>
       <c r="L294" s="5" t="s">
         <v>148</v>
@@ -21337,7 +21328,7 @@
     </row>
     <row r="295" spans="1:16">
       <c r="A295" s="30" t="s">
-        <v>1519</v>
+        <v>1516</v>
       </c>
       <c r="B295" s="30" t="s">
         <v>1501</v>
@@ -21385,7 +21376,7 @@
     </row>
     <row r="296" spans="1:16">
       <c r="A296" s="30" t="s">
-        <v>1519</v>
+        <v>1516</v>
       </c>
       <c r="B296" s="30" t="s">
         <v>1501</v>
@@ -21460,10 +21451,10 @@
         <v>265</v>
       </c>
       <c r="J297" s="6" t="s">
-        <v>1580</v>
+        <v>1577</v>
       </c>
       <c r="K297" s="6" t="s">
-        <v>1581</v>
+        <v>1578</v>
       </c>
       <c r="L297" s="5" t="s">
         <v>266</v>
@@ -21556,10 +21547,10 @@
         <v>691</v>
       </c>
       <c r="J299" s="23" t="s">
-        <v>1590</v>
+        <v>1587</v>
       </c>
       <c r="K299" s="6" t="s">
-        <v>1591</v>
+        <v>1588</v>
       </c>
       <c r="L299" s="5" t="s">
         <v>692</v>
@@ -21662,7 +21653,7 @@
     </row>
     <row r="302" spans="1:16">
       <c r="A302" s="11" t="s">
-        <v>1520</v>
+        <v>1517</v>
       </c>
       <c r="B302" s="11" t="s">
         <v>701</v>
@@ -21689,10 +21680,10 @@
         <v>691</v>
       </c>
       <c r="J302" s="23" t="s">
-        <v>1590</v>
+        <v>1587</v>
       </c>
       <c r="K302" s="6" t="s">
-        <v>1591</v>
+        <v>1588</v>
       </c>
       <c r="L302" s="5" t="s">
         <v>692</v>
@@ -22025,10 +22016,10 @@
         <v>1090</v>
       </c>
       <c r="J309" s="23" t="s">
-        <v>1584</v>
+        <v>1581</v>
       </c>
       <c r="K309" s="6" t="s">
-        <v>1585</v>
+        <v>1582</v>
       </c>
       <c r="L309" s="5" t="s">
         <v>1091</v>
@@ -22313,10 +22304,10 @@
         <v>147</v>
       </c>
       <c r="J315" s="6" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
       <c r="K315" s="6" t="s">
-        <v>1583</v>
+        <v>1580</v>
       </c>
       <c r="L315" s="5" t="s">
         <v>148</v>
@@ -22364,7 +22355,7 @@
         <v>72</v>
       </c>
       <c r="K316" s="6" t="s">
-        <v>1588</v>
+        <v>1585</v>
       </c>
       <c r="L316" s="5" t="s">
         <v>49</v>
@@ -22412,7 +22403,7 @@
         <v>72</v>
       </c>
       <c r="K317" s="6" t="s">
-        <v>1588</v>
+        <v>1585</v>
       </c>
       <c r="L317" s="5" t="s">
         <v>49</v>
@@ -22505,10 +22496,10 @@
         <v>265</v>
       </c>
       <c r="J319" s="6" t="s">
-        <v>1580</v>
+        <v>1577</v>
       </c>
       <c r="K319" s="6" t="s">
-        <v>1581</v>
+        <v>1578</v>
       </c>
       <c r="L319" s="5" t="s">
         <v>266</v>
@@ -22526,7 +22517,7 @@
     </row>
     <row r="320" spans="1:16">
       <c r="A320" s="19" t="s">
-        <v>1521</v>
+        <v>1518</v>
       </c>
       <c r="B320" s="19" t="s">
         <v>738</v>
@@ -22574,7 +22565,7 @@
     </row>
     <row r="321" spans="1:16" ht="31">
       <c r="A321" s="11" t="s">
-        <v>1522</v>
+        <v>1519</v>
       </c>
       <c r="B321" s="11" t="s">
         <v>893</v>
@@ -22622,7 +22613,7 @@
     </row>
     <row r="322" spans="1:16" ht="31">
       <c r="A322" s="11" t="s">
-        <v>1523</v>
+        <v>1520</v>
       </c>
       <c r="B322" s="11" t="s">
         <v>894</v>
@@ -22715,7 +22706,7 @@
     </row>
     <row r="324" spans="1:16" ht="31">
       <c r="A324" s="11" t="s">
-        <v>1524</v>
+        <v>1521</v>
       </c>
       <c r="B324" s="11" t="s">
         <v>886</v>
@@ -22790,7 +22781,7 @@
         <v>174</v>
       </c>
       <c r="J325" s="23" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
       <c r="K325" s="1"/>
       <c r="L325" s="1">
@@ -22836,7 +22827,7 @@
         <v>174</v>
       </c>
       <c r="J326" s="23" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
       <c r="K326" s="1"/>
       <c r="L326" s="1">
@@ -22882,7 +22873,7 @@
         <v>131</v>
       </c>
       <c r="J327" s="23" t="s">
-        <v>1599</v>
+        <v>1596</v>
       </c>
       <c r="K327" s="1" t="s">
         <v>130</v>
@@ -22930,7 +22921,7 @@
         <v>131</v>
       </c>
       <c r="J328" s="23" t="s">
-        <v>1599</v>
+        <v>1596</v>
       </c>
       <c r="K328" s="1" t="s">
         <v>130</v>
@@ -22978,7 +22969,7 @@
         <v>131</v>
       </c>
       <c r="J329" s="23" t="s">
-        <v>1599</v>
+        <v>1596</v>
       </c>
       <c r="K329" s="1" t="s">
         <v>130</v>
@@ -23026,7 +23017,7 @@
         <v>131</v>
       </c>
       <c r="J330" s="23" t="s">
-        <v>1599</v>
+        <v>1596</v>
       </c>
       <c r="K330" s="1" t="s">
         <v>130</v>
@@ -23074,10 +23065,10 @@
         <v>1090</v>
       </c>
       <c r="J331" s="23" t="s">
-        <v>1584</v>
+        <v>1581</v>
       </c>
       <c r="K331" s="6" t="s">
-        <v>1585</v>
+        <v>1582</v>
       </c>
       <c r="L331" s="5" t="s">
         <v>1091</v>
@@ -23317,7 +23308,7 @@
         <v>72</v>
       </c>
       <c r="K336" s="6" t="s">
-        <v>1588</v>
+        <v>1585</v>
       </c>
       <c r="L336" s="5" t="s">
         <v>49</v>
@@ -23365,7 +23356,7 @@
         <v>72</v>
       </c>
       <c r="K337" s="6" t="s">
-        <v>1588</v>
+        <v>1585</v>
       </c>
       <c r="L337" s="5" t="s">
         <v>49</v>
@@ -23383,7 +23374,7 @@
     </row>
     <row r="338" spans="1:16">
       <c r="A338" s="2" t="s">
-        <v>1525</v>
+        <v>1522</v>
       </c>
       <c r="B338" s="2" t="s">
         <v>1111</v>
@@ -23410,10 +23401,10 @@
         <v>1090</v>
       </c>
       <c r="J338" s="23" t="s">
-        <v>1584</v>
+        <v>1581</v>
       </c>
       <c r="K338" s="6" t="s">
-        <v>1585</v>
+        <v>1582</v>
       </c>
       <c r="L338" s="5" t="s">
         <v>1091</v>
@@ -23465,7 +23456,7 @@
         <v>452</v>
       </c>
       <c r="P339" s="8" t="s">
-        <v>1526</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="340" spans="1:16">
@@ -23689,10 +23680,10 @@
         <v>265</v>
       </c>
       <c r="J344" s="6" t="s">
-        <v>1580</v>
+        <v>1577</v>
       </c>
       <c r="K344" s="6" t="s">
-        <v>1581</v>
+        <v>1578</v>
       </c>
       <c r="L344" s="5" t="s">
         <v>266</v>
@@ -23788,7 +23779,7 @@
         <v>72</v>
       </c>
       <c r="K346" s="6" t="s">
-        <v>1588</v>
+        <v>1585</v>
       </c>
       <c r="L346" s="5" t="s">
         <v>49</v>
@@ -23899,7 +23890,7 @@
     </row>
     <row r="349" spans="1:16" ht="31">
       <c r="A349" s="11" t="s">
-        <v>1527</v>
+        <v>1524</v>
       </c>
       <c r="B349" s="11" t="s">
         <v>900</v>
@@ -23995,7 +23986,7 @@
     </row>
     <row r="351" spans="1:16">
       <c r="A351" s="12" t="s">
-        <v>1528</v>
+        <v>1525</v>
       </c>
       <c r="B351" s="12" t="s">
         <v>281</v>
@@ -24022,10 +24013,10 @@
         <v>265</v>
       </c>
       <c r="J351" s="6" t="s">
-        <v>1580</v>
+        <v>1577</v>
       </c>
       <c r="K351" s="6" t="s">
-        <v>1581</v>
+        <v>1578</v>
       </c>
       <c r="L351" s="5" t="s">
         <v>266</v>
@@ -24043,7 +24034,7 @@
     </row>
     <row r="352" spans="1:16">
       <c r="A352" s="19" t="s">
-        <v>1529</v>
+        <v>1526</v>
       </c>
       <c r="B352" s="19" t="s">
         <v>719</v>
@@ -24166,10 +24157,10 @@
         <v>1382</v>
       </c>
       <c r="J354" s="6" t="s">
-        <v>1592</v>
+        <v>1589</v>
       </c>
       <c r="K354" s="6" t="s">
-        <v>1593</v>
+        <v>1590</v>
       </c>
       <c r="L354" s="5" t="s">
         <v>1435</v>
@@ -24331,7 +24322,7 @@
     </row>
     <row r="358" spans="1:16">
       <c r="A358" s="11" t="s">
-        <v>1530</v>
+        <v>1527</v>
       </c>
       <c r="B358" s="11" t="s">
         <v>705</v>
@@ -24358,10 +24349,10 @@
         <v>691</v>
       </c>
       <c r="J358" s="23" t="s">
-        <v>1590</v>
+        <v>1587</v>
       </c>
       <c r="K358" s="6" t="s">
-        <v>1591</v>
+        <v>1588</v>
       </c>
       <c r="L358" s="5" t="s">
         <v>692</v>
@@ -24403,10 +24394,10 @@
         <v>688</v>
       </c>
       <c r="J359" s="6" t="s">
-        <v>1594</v>
+        <v>1591</v>
       </c>
       <c r="K359" s="6" t="s">
-        <v>1595</v>
+        <v>1592</v>
       </c>
       <c r="L359" s="5" t="s">
         <v>689</v>
@@ -24424,7 +24415,7 @@
     </row>
     <row r="360" spans="1:16">
       <c r="A360" s="11" t="s">
-        <v>1531</v>
+        <v>1528</v>
       </c>
       <c r="B360" s="11" t="s">
         <v>706</v>
@@ -24451,10 +24442,10 @@
         <v>691</v>
       </c>
       <c r="J360" s="23" t="s">
-        <v>1590</v>
+        <v>1587</v>
       </c>
       <c r="K360" s="6" t="s">
-        <v>1591</v>
+        <v>1588</v>
       </c>
       <c r="L360" s="5" t="s">
         <v>692</v>
@@ -24499,7 +24490,7 @@
         <v>174</v>
       </c>
       <c r="J361" s="23" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
       <c r="K361" s="1"/>
       <c r="L361" s="1">
@@ -24518,7 +24509,7 @@
     </row>
     <row r="362" spans="1:16" ht="31">
       <c r="A362" s="11" t="s">
-        <v>1532</v>
+        <v>1529</v>
       </c>
       <c r="B362" s="11" t="s">
         <v>902</v>
@@ -24756,7 +24747,7 @@
     </row>
     <row r="367" spans="1:16">
       <c r="A367" s="2" t="s">
-        <v>1533</v>
+        <v>1530</v>
       </c>
       <c r="C367" s="29" t="s">
         <v>1449</v>
@@ -25315,7 +25306,7 @@
     </row>
     <row r="379" spans="1:16" ht="31">
       <c r="A379" s="11" t="s">
-        <v>1534</v>
+        <v>1531</v>
       </c>
       <c r="B379" s="11" t="s">
         <v>904</v>
@@ -25363,7 +25354,7 @@
     </row>
     <row r="380" spans="1:16" ht="31">
       <c r="A380" s="11" t="s">
-        <v>1535</v>
+        <v>1532</v>
       </c>
       <c r="B380" s="11" t="s">
         <v>905</v>
@@ -25408,7 +25399,7 @@
         <v>452</v>
       </c>
       <c r="P380" s="8" t="s">
-        <v>1536</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="381" spans="1:16" ht="31">
@@ -25458,7 +25449,7 @@
         <v>1989</v>
       </c>
       <c r="P381" s="8" t="s">
-        <v>1536</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="382" spans="1:16">
@@ -25586,10 +25577,10 @@
         <v>265</v>
       </c>
       <c r="J384" s="6" t="s">
-        <v>1580</v>
+        <v>1577</v>
       </c>
       <c r="K384" s="6" t="s">
-        <v>1581</v>
+        <v>1578</v>
       </c>
       <c r="L384" s="5" t="s">
         <v>266</v>
@@ -25970,7 +25961,7 @@
         <v>174</v>
       </c>
       <c r="J392" s="23" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
       <c r="K392" s="1"/>
       <c r="L392" s="1">
@@ -26016,7 +26007,7 @@
         <v>174</v>
       </c>
       <c r="J393" s="23" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
       <c r="K393" s="1"/>
       <c r="L393" s="1">
@@ -26062,10 +26053,10 @@
         <v>691</v>
       </c>
       <c r="J394" s="23" t="s">
-        <v>1590</v>
+        <v>1587</v>
       </c>
       <c r="K394" s="6" t="s">
-        <v>1591</v>
+        <v>1588</v>
       </c>
       <c r="L394" s="5" t="s">
         <v>692</v>
@@ -26158,7 +26149,7 @@
         <v>174</v>
       </c>
       <c r="J396" s="23" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
       <c r="K396" s="1"/>
       <c r="L396" s="1">
@@ -26177,7 +26168,7 @@
     </row>
     <row r="397" spans="1:16" ht="31">
       <c r="A397" s="2" t="s">
-        <v>1537</v>
+        <v>1534</v>
       </c>
       <c r="B397" s="2" t="s">
         <v>195</v>
@@ -26204,7 +26195,7 @@
         <v>174</v>
       </c>
       <c r="J397" s="23" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
       <c r="K397" s="1"/>
       <c r="L397" s="1">
@@ -26394,10 +26385,10 @@
         <v>1090</v>
       </c>
       <c r="J401" s="23" t="s">
-        <v>1584</v>
+        <v>1581</v>
       </c>
       <c r="K401" s="6" t="s">
-        <v>1585</v>
+        <v>1582</v>
       </c>
       <c r="L401" s="1" t="s">
         <v>1091</v>
@@ -26674,7 +26665,7 @@
         <v>72</v>
       </c>
       <c r="K407" s="6" t="s">
-        <v>1588</v>
+        <v>1585</v>
       </c>
       <c r="L407" s="5" t="s">
         <v>49</v>
@@ -27148,7 +27139,7 @@
         <v>174</v>
       </c>
       <c r="J417" s="23" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
       <c r="K417" s="1"/>
       <c r="L417" s="1">
@@ -27215,7 +27206,7 @@
     </row>
     <row r="419" spans="1:16" ht="31">
       <c r="A419" s="11" t="s">
-        <v>1538</v>
+        <v>1535</v>
       </c>
       <c r="B419" s="11" t="s">
         <v>928</v>
@@ -27290,7 +27281,7 @@
         <v>153</v>
       </c>
       <c r="J420" s="6" t="s">
-        <v>1589</v>
+        <v>1586</v>
       </c>
       <c r="K420" s="6" t="s">
         <v>154</v>
@@ -27530,10 +27521,10 @@
         <v>1174</v>
       </c>
       <c r="J425" s="6" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
       <c r="K425" s="6" t="s">
-        <v>1600</v>
+        <v>1597</v>
       </c>
       <c r="L425" s="5" t="s">
         <v>1175</v>
@@ -27764,10 +27755,10 @@
         <v>1086</v>
       </c>
       <c r="J430" s="23" t="s">
-        <v>1586</v>
+        <v>1583</v>
       </c>
       <c r="K430" s="6" t="s">
-        <v>1587</v>
+        <v>1584</v>
       </c>
       <c r="L430" s="5" t="s">
         <v>1087</v>
@@ -27956,10 +27947,10 @@
         <v>147</v>
       </c>
       <c r="J434" s="6" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
       <c r="K434" s="6" t="s">
-        <v>1583</v>
+        <v>1580</v>
       </c>
       <c r="L434" s="5" t="s">
         <v>148</v>
@@ -28052,10 +28043,10 @@
         <v>147</v>
       </c>
       <c r="J436" s="6" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
       <c r="K436" s="6" t="s">
-        <v>1583</v>
+        <v>1580</v>
       </c>
       <c r="L436" s="5" t="s">
         <v>148</v>
@@ -28196,10 +28187,10 @@
         <v>1382</v>
       </c>
       <c r="J439" s="6" t="s">
-        <v>1592</v>
+        <v>1589</v>
       </c>
       <c r="K439" s="6" t="s">
-        <v>1593</v>
+        <v>1590</v>
       </c>
       <c r="L439" s="5" t="s">
         <v>1415</v>
@@ -28343,7 +28334,7 @@
         <v>72</v>
       </c>
       <c r="K442" s="6" t="s">
-        <v>1588</v>
+        <v>1585</v>
       </c>
       <c r="L442" s="5" t="s">
         <v>49</v>
@@ -28391,7 +28382,7 @@
         <v>72</v>
       </c>
       <c r="K443" s="6" t="s">
-        <v>1588</v>
+        <v>1585</v>
       </c>
       <c r="L443" s="5" t="s">
         <v>49</v>
@@ -28439,7 +28430,7 @@
         <v>72</v>
       </c>
       <c r="K444" s="6" t="s">
-        <v>1588</v>
+        <v>1585</v>
       </c>
       <c r="L444" s="5" t="s">
         <v>49</v>
@@ -28484,7 +28475,7 @@
         <v>72</v>
       </c>
       <c r="K445" s="6" t="s">
-        <v>1588</v>
+        <v>1585</v>
       </c>
       <c r="L445" s="5" t="s">
         <v>54</v>
@@ -28529,10 +28520,10 @@
         <v>147</v>
       </c>
       <c r="J446" s="6" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
       <c r="K446" s="6" t="s">
-        <v>1583</v>
+        <v>1580</v>
       </c>
       <c r="L446" s="5" t="s">
         <v>148</v>
@@ -28553,7 +28544,7 @@
         <v>40</v>
       </c>
       <c r="B447" s="30" t="s">
-        <v>1539</v>
+        <v>1536</v>
       </c>
       <c r="C447" s="22" t="s">
         <v>1450</v>
@@ -28601,7 +28592,7 @@
         <v>40</v>
       </c>
       <c r="B448" s="30" t="s">
-        <v>1539</v>
+        <v>1536</v>
       </c>
       <c r="C448" s="22" t="s">
         <v>1451</v>
@@ -28913,10 +28904,10 @@
         <v>1174</v>
       </c>
       <c r="J454" s="6" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
       <c r="K454" s="6" t="s">
-        <v>1600</v>
+        <v>1597</v>
       </c>
       <c r="L454" s="5" t="s">
         <v>1175</v>
@@ -28955,10 +28946,10 @@
         <v>1086</v>
       </c>
       <c r="J455" s="23" t="s">
-        <v>1586</v>
+        <v>1583</v>
       </c>
       <c r="K455" s="6" t="s">
-        <v>1587</v>
+        <v>1584</v>
       </c>
       <c r="L455" s="5" t="s">
         <v>1087</v>
@@ -29003,7 +28994,7 @@
         <v>174</v>
       </c>
       <c r="J456" s="23" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
       <c r="K456" s="1"/>
       <c r="L456" s="1">
@@ -29049,7 +29040,7 @@
         <v>174</v>
       </c>
       <c r="J457" s="23" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
       <c r="K457" s="1"/>
       <c r="L457" s="1">
@@ -29095,10 +29086,10 @@
         <v>265</v>
       </c>
       <c r="J458" s="6" t="s">
-        <v>1580</v>
+        <v>1577</v>
       </c>
       <c r="K458" s="6" t="s">
-        <v>1581</v>
+        <v>1578</v>
       </c>
       <c r="L458" s="5" t="s">
         <v>266</v>
@@ -29489,7 +29480,7 @@
     </row>
     <row r="467" spans="1:16">
       <c r="A467" s="19" t="s">
-        <v>1540</v>
+        <v>1537</v>
       </c>
       <c r="B467" s="19" t="s">
         <v>733</v>
@@ -29660,10 +29651,10 @@
         <v>147</v>
       </c>
       <c r="J470" s="6" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
       <c r="K470" s="6" t="s">
-        <v>1583</v>
+        <v>1580</v>
       </c>
       <c r="L470" s="5" t="s">
         <v>148</v>
@@ -29708,10 +29699,10 @@
         <v>265</v>
       </c>
       <c r="J471" s="6" t="s">
-        <v>1580</v>
+        <v>1577</v>
       </c>
       <c r="K471" s="6" t="s">
-        <v>1581</v>
+        <v>1578</v>
       </c>
       <c r="L471" s="5" t="s">
         <v>266</v>
@@ -29759,7 +29750,7 @@
         <v>72</v>
       </c>
       <c r="K472" s="6" t="s">
-        <v>1588</v>
+        <v>1585</v>
       </c>
       <c r="L472" s="5" t="s">
         <v>49</v>
@@ -29852,10 +29843,10 @@
         <v>1090</v>
       </c>
       <c r="J474" s="23" t="s">
-        <v>1584</v>
+        <v>1581</v>
       </c>
       <c r="K474" s="6" t="s">
-        <v>1585</v>
+        <v>1582</v>
       </c>
       <c r="L474" s="5" t="s">
         <v>1091</v>
@@ -29900,7 +29891,7 @@
         <v>174</v>
       </c>
       <c r="J475" s="23" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
       <c r="K475" s="1"/>
       <c r="L475" s="1">
@@ -30285,7 +30276,7 @@
         <v>72</v>
       </c>
       <c r="K483" s="6" t="s">
-        <v>1588</v>
+        <v>1585</v>
       </c>
       <c r="L483" s="5" t="s">
         <v>49</v>
@@ -30330,10 +30321,10 @@
         <v>691</v>
       </c>
       <c r="J484" s="23" t="s">
-        <v>1590</v>
+        <v>1587</v>
       </c>
       <c r="K484" s="6" t="s">
-        <v>1591</v>
+        <v>1588</v>
       </c>
       <c r="L484" s="5" t="s">
         <v>692</v>
@@ -30474,10 +30465,10 @@
         <v>147</v>
       </c>
       <c r="J487" s="6" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
       <c r="K487" s="6" t="s">
-        <v>1583</v>
+        <v>1580</v>
       </c>
       <c r="L487" s="5" t="s">
         <v>148</v>
@@ -30570,10 +30561,10 @@
         <v>147</v>
       </c>
       <c r="J489" s="6" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
       <c r="K489" s="6" t="s">
-        <v>1583</v>
+        <v>1580</v>
       </c>
       <c r="L489" s="5" t="s">
         <v>148</v>
@@ -30618,10 +30609,10 @@
         <v>265</v>
       </c>
       <c r="J490" s="6" t="s">
-        <v>1580</v>
+        <v>1577</v>
       </c>
       <c r="K490" s="6" t="s">
-        <v>1581</v>
+        <v>1578</v>
       </c>
       <c r="L490" s="5" t="s">
         <v>266</v>
@@ -30666,10 +30657,10 @@
         <v>265</v>
       </c>
       <c r="J491" s="6" t="s">
-        <v>1580</v>
+        <v>1577</v>
       </c>
       <c r="K491" s="6" t="s">
-        <v>1581</v>
+        <v>1578</v>
       </c>
       <c r="L491" s="5" t="s">
         <v>266</v>
@@ -30810,10 +30801,10 @@
         <v>147</v>
       </c>
       <c r="J494" s="6" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
       <c r="K494" s="6" t="s">
-        <v>1583</v>
+        <v>1580</v>
       </c>
       <c r="L494" s="5" t="s">
         <v>148</v>
@@ -30858,7 +30849,7 @@
         <v>174</v>
       </c>
       <c r="J495" s="23" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
       <c r="K495" s="1"/>
       <c r="L495" s="1">
@@ -31024,7 +31015,7 @@
         <v>483</v>
       </c>
       <c r="B499" s="2" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="C499" s="29" t="s">
         <v>1450</v>
@@ -31048,7 +31039,7 @@
         <v>174</v>
       </c>
       <c r="J499" s="23" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
       <c r="K499" s="1"/>
       <c r="L499" s="1">
@@ -31064,7 +31055,7 @@
         <v>452</v>
       </c>
       <c r="P499" s="8" t="s">
-        <v>1541</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="500" spans="1:16">
@@ -31144,10 +31135,10 @@
         <v>147</v>
       </c>
       <c r="J501" s="6" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
       <c r="K501" s="6" t="s">
-        <v>1583</v>
+        <v>1580</v>
       </c>
       <c r="L501" s="5" t="s">
         <v>148</v>
@@ -31213,7 +31204,7 @@
     </row>
     <row r="503" spans="1:16">
       <c r="A503" s="19" t="s">
-        <v>1543</v>
+        <v>1540</v>
       </c>
       <c r="B503" s="19" t="s">
         <v>717</v>
@@ -31336,10 +31327,10 @@
         <v>1090</v>
       </c>
       <c r="J505" s="23" t="s">
-        <v>1584</v>
+        <v>1581</v>
       </c>
       <c r="K505" s="6" t="s">
-        <v>1585</v>
+        <v>1582</v>
       </c>
       <c r="L505" s="5" t="s">
         <v>1091</v>
@@ -31384,10 +31375,10 @@
         <v>1382</v>
       </c>
       <c r="J506" s="6" t="s">
-        <v>1592</v>
+        <v>1589</v>
       </c>
       <c r="K506" s="6" t="s">
-        <v>1593</v>
+        <v>1590</v>
       </c>
       <c r="L506" s="5" t="s">
         <v>1383</v>
@@ -31405,7 +31396,7 @@
     </row>
     <row r="507" spans="1:16" ht="31">
       <c r="A507" s="11" t="s">
-        <v>1544</v>
+        <v>1541</v>
       </c>
       <c r="B507" s="11" t="s">
         <v>899</v>
@@ -31768,10 +31759,10 @@
         <v>265</v>
       </c>
       <c r="J514" s="6" t="s">
-        <v>1580</v>
+        <v>1577</v>
       </c>
       <c r="K514" s="6" t="s">
-        <v>1581</v>
+        <v>1578</v>
       </c>
       <c r="L514" s="5" t="s">
         <v>266</v>
@@ -31960,7 +31951,7 @@
         <v>174</v>
       </c>
       <c r="J518" s="23" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
       <c r="K518" s="1"/>
       <c r="L518" s="1">
@@ -32006,10 +31997,10 @@
         <v>147</v>
       </c>
       <c r="J519" s="6" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
       <c r="K519" s="6" t="s">
-        <v>1583</v>
+        <v>1580</v>
       </c>
       <c r="L519" s="5" t="s">
         <v>148</v>
@@ -32234,10 +32225,10 @@
         <v>688</v>
       </c>
       <c r="J524" s="6" t="s">
-        <v>1594</v>
+        <v>1591</v>
       </c>
       <c r="K524" s="6" t="s">
-        <v>1595</v>
+        <v>1592</v>
       </c>
       <c r="L524" s="5" t="s">
         <v>689</v>
@@ -32463,7 +32454,7 @@
         <v>174</v>
       </c>
       <c r="J529" s="23" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
       <c r="K529" s="1"/>
       <c r="L529" s="1">
@@ -32749,10 +32740,10 @@
         <v>147</v>
       </c>
       <c r="J535" s="6" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
       <c r="K535" s="6" t="s">
-        <v>1583</v>
+        <v>1580</v>
       </c>
       <c r="L535" s="5" t="s">
         <v>148</v>
@@ -32989,10 +32980,10 @@
         <v>1382</v>
       </c>
       <c r="J540" s="6" t="s">
-        <v>1592</v>
+        <v>1589</v>
       </c>
       <c r="K540" s="6" t="s">
-        <v>1593</v>
+        <v>1590</v>
       </c>
       <c r="L540" s="5" t="s">
         <v>1438</v>
@@ -33037,7 +33028,7 @@
         <v>174</v>
       </c>
       <c r="J541" s="23" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
       <c r="K541" s="1"/>
       <c r="L541" s="1">
@@ -33083,7 +33074,7 @@
         <v>153</v>
       </c>
       <c r="J542" s="6" t="s">
-        <v>1589</v>
+        <v>1586</v>
       </c>
       <c r="K542" s="6" t="s">
         <v>154</v>
@@ -33179,7 +33170,7 @@
         <v>174</v>
       </c>
       <c r="J544" s="23" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
       <c r="K544" s="1"/>
       <c r="L544" s="1">
@@ -33225,7 +33216,7 @@
         <v>174</v>
       </c>
       <c r="J545" s="23" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
       <c r="K545" s="1"/>
       <c r="L545" s="1">
@@ -33271,10 +33262,10 @@
         <v>147</v>
       </c>
       <c r="J546" s="6" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
       <c r="K546" s="6" t="s">
-        <v>1583</v>
+        <v>1580</v>
       </c>
       <c r="L546" s="5" t="s">
         <v>148</v>
@@ -33364,10 +33355,10 @@
         <v>688</v>
       </c>
       <c r="J548" s="6" t="s">
-        <v>1594</v>
+        <v>1591</v>
       </c>
       <c r="K548" s="6" t="s">
-        <v>1595</v>
+        <v>1592</v>
       </c>
       <c r="L548" s="5" t="s">
         <v>689</v>
@@ -33385,7 +33376,7 @@
     </row>
     <row r="549" spans="1:16">
       <c r="A549" s="17" t="s">
-        <v>1545</v>
+        <v>1542</v>
       </c>
       <c r="C549" s="7" t="s">
         <v>1450</v>
@@ -33409,10 +33400,10 @@
         <v>265</v>
       </c>
       <c r="J549" s="6" t="s">
-        <v>1580</v>
+        <v>1577</v>
       </c>
       <c r="K549" s="6" t="s">
-        <v>1581</v>
+        <v>1578</v>
       </c>
       <c r="L549" s="5" t="s">
         <v>266</v>
@@ -33505,7 +33496,7 @@
         <v>174</v>
       </c>
       <c r="J551" s="23" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
       <c r="K551" s="1"/>
       <c r="L551" s="1">
@@ -33551,7 +33542,7 @@
         <v>174</v>
       </c>
       <c r="J552" s="23" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
       <c r="K552" s="1"/>
       <c r="L552" s="1">
@@ -33645,10 +33636,10 @@
         <v>1090</v>
       </c>
       <c r="J554" s="23" t="s">
-        <v>1584</v>
+        <v>1581</v>
       </c>
       <c r="K554" s="6" t="s">
-        <v>1585</v>
+        <v>1582</v>
       </c>
       <c r="L554" s="5" t="s">
         <v>1091</v>
@@ -33693,10 +33684,10 @@
         <v>1090</v>
       </c>
       <c r="J555" s="23" t="s">
-        <v>1584</v>
+        <v>1581</v>
       </c>
       <c r="K555" s="6" t="s">
-        <v>1585</v>
+        <v>1582</v>
       </c>
       <c r="L555" s="5" t="s">
         <v>1091</v>
@@ -33714,7 +33705,7 @@
     </row>
     <row r="556" spans="1:16" ht="16" customHeight="1">
       <c r="A556" s="11" t="s">
-        <v>1546</v>
+        <v>1543</v>
       </c>
       <c r="B556" s="11" t="s">
         <v>887</v>
@@ -33885,10 +33876,10 @@
         <v>147</v>
       </c>
       <c r="J559" s="6" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
       <c r="K559" s="6" t="s">
-        <v>1583</v>
+        <v>1580</v>
       </c>
       <c r="L559" s="5" t="s">
         <v>148</v>
@@ -34125,7 +34116,7 @@
         <v>153</v>
       </c>
       <c r="J564" s="6" t="s">
-        <v>1589</v>
+        <v>1586</v>
       </c>
       <c r="K564" s="6" t="s">
         <v>154</v>
@@ -34221,10 +34212,10 @@
         <v>1382</v>
       </c>
       <c r="J566" s="6" t="s">
-        <v>1592</v>
+        <v>1589</v>
       </c>
       <c r="K566" s="6" t="s">
-        <v>1593</v>
+        <v>1590</v>
       </c>
       <c r="L566" s="5" t="s">
         <v>1411</v>
@@ -34317,10 +34308,10 @@
         <v>1090</v>
       </c>
       <c r="J568" s="23" t="s">
-        <v>1584</v>
+        <v>1581</v>
       </c>
       <c r="K568" s="6" t="s">
-        <v>1585</v>
+        <v>1582</v>
       </c>
       <c r="L568" s="5" t="s">
         <v>1091</v>
@@ -34386,7 +34377,7 @@
     </row>
     <row r="570" spans="1:16" ht="31">
       <c r="A570" s="24" t="s">
-        <v>1547</v>
+        <v>1544</v>
       </c>
       <c r="C570" s="29" t="s">
         <v>1450</v>
@@ -34407,10 +34398,10 @@
         <v>1086</v>
       </c>
       <c r="J570" s="23" t="s">
-        <v>1586</v>
+        <v>1583</v>
       </c>
       <c r="K570" s="6" t="s">
-        <v>1587</v>
+        <v>1584</v>
       </c>
       <c r="L570" s="5" t="s">
         <v>1087</v>
@@ -34425,12 +34416,12 @@
         <v>452</v>
       </c>
       <c r="P570" s="8" t="s">
-        <v>1548</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="571" spans="1:16" ht="31">
       <c r="A571" s="24" t="s">
-        <v>1547</v>
+        <v>1544</v>
       </c>
       <c r="C571" s="29" t="s">
         <v>1450</v>
@@ -34451,10 +34442,10 @@
         <v>1086</v>
       </c>
       <c r="J571" s="23" t="s">
-        <v>1586</v>
+        <v>1583</v>
       </c>
       <c r="K571" s="6" t="s">
-        <v>1587</v>
+        <v>1584</v>
       </c>
       <c r="L571" s="5" t="s">
         <v>1087</v>
@@ -34469,7 +34460,7 @@
         <v>452</v>
       </c>
       <c r="P571" s="8" t="s">
-        <v>1548</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="572" spans="1:16" ht="31">
@@ -34597,7 +34588,7 @@
         <v>174</v>
       </c>
       <c r="J574" s="23" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
       <c r="K574" s="1"/>
       <c r="L574" s="1">
@@ -34739,10 +34730,10 @@
         <v>1382</v>
       </c>
       <c r="J577" s="6" t="s">
-        <v>1592</v>
+        <v>1589</v>
       </c>
       <c r="K577" s="6" t="s">
-        <v>1593</v>
+        <v>1590</v>
       </c>
       <c r="L577" s="5" t="s">
         <v>1423</v>
@@ -35075,10 +35066,10 @@
         <v>1090</v>
       </c>
       <c r="J584" s="23" t="s">
-        <v>1584</v>
+        <v>1581</v>
       </c>
       <c r="K584" s="6" t="s">
-        <v>1585</v>
+        <v>1582</v>
       </c>
       <c r="L584" s="5" t="s">
         <v>1091</v>
@@ -35270,7 +35261,7 @@
         <v>72</v>
       </c>
       <c r="K588" s="6" t="s">
-        <v>1588</v>
+        <v>1585</v>
       </c>
       <c r="L588" s="5" t="s">
         <v>49</v>
@@ -35318,7 +35309,7 @@
         <v>72</v>
       </c>
       <c r="K589" s="6" t="s">
-        <v>1588</v>
+        <v>1585</v>
       </c>
       <c r="L589" s="5" t="s">
         <v>49</v>
@@ -35366,7 +35357,7 @@
         <v>72</v>
       </c>
       <c r="K590" s="6" t="s">
-        <v>1588</v>
+        <v>1585</v>
       </c>
       <c r="L590" s="5" t="s">
         <v>55</v>
@@ -35411,10 +35402,10 @@
         <v>147</v>
       </c>
       <c r="J591" s="6" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
       <c r="K591" s="6" t="s">
-        <v>1583</v>
+        <v>1580</v>
       </c>
       <c r="L591" s="5" t="s">
         <v>148</v>
@@ -35651,7 +35642,7 @@
         <v>153</v>
       </c>
       <c r="J596" s="6" t="s">
-        <v>1589</v>
+        <v>1586</v>
       </c>
       <c r="K596" s="6" t="s">
         <v>154</v>
@@ -35741,10 +35732,10 @@
         <v>688</v>
       </c>
       <c r="J598" s="6" t="s">
-        <v>1594</v>
+        <v>1591</v>
       </c>
       <c r="K598" s="6" t="s">
-        <v>1595</v>
+        <v>1592</v>
       </c>
       <c r="L598" s="5" t="s">
         <v>689</v>
@@ -35762,7 +35753,7 @@
     </row>
     <row r="599" spans="1:16" ht="31">
       <c r="A599" s="11" t="s">
-        <v>1549</v>
+        <v>1546</v>
       </c>
       <c r="B599" s="11" t="s">
         <v>901</v>
@@ -35933,10 +35924,10 @@
         <v>1382</v>
       </c>
       <c r="J602" s="6" t="s">
-        <v>1592</v>
+        <v>1589</v>
       </c>
       <c r="K602" s="6" t="s">
-        <v>1593</v>
+        <v>1590</v>
       </c>
       <c r="L602" s="5" t="s">
         <v>1422</v>
@@ -35984,7 +35975,7 @@
         <v>72</v>
       </c>
       <c r="K603" s="6" t="s">
-        <v>1588</v>
+        <v>1585</v>
       </c>
       <c r="L603" s="5" t="s">
         <v>49</v>
@@ -36029,7 +36020,7 @@
         <v>153</v>
       </c>
       <c r="J604" s="6" t="s">
-        <v>1589</v>
+        <v>1586</v>
       </c>
       <c r="K604" s="6" t="s">
         <v>154</v>
@@ -36077,7 +36068,7 @@
         <v>174</v>
       </c>
       <c r="J605" s="23" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
       <c r="K605" s="1"/>
       <c r="L605" s="1">
@@ -36123,7 +36114,7 @@
         <v>174</v>
       </c>
       <c r="J606" s="23" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
       <c r="K606" s="1"/>
       <c r="L606" s="1">
@@ -36679,7 +36670,7 @@
         <v>153</v>
       </c>
       <c r="J618" s="6" t="s">
-        <v>1589</v>
+        <v>1586</v>
       </c>
       <c r="K618" s="6" t="s">
         <v>154</v>
@@ -37015,10 +37006,10 @@
         <v>1382</v>
       </c>
       <c r="J625" s="6" t="s">
-        <v>1592</v>
+        <v>1589</v>
       </c>
       <c r="K625" s="6" t="s">
-        <v>1593</v>
+        <v>1590</v>
       </c>
       <c r="L625" s="5" t="s">
         <v>1436</v>
@@ -37237,10 +37228,10 @@
         <v>1086</v>
       </c>
       <c r="J630" s="23" t="s">
-        <v>1586</v>
+        <v>1583</v>
       </c>
       <c r="K630" s="6" t="s">
-        <v>1587</v>
+        <v>1584</v>
       </c>
       <c r="L630" s="5" t="s">
         <v>1087</v>
@@ -37285,7 +37276,7 @@
         <v>174</v>
       </c>
       <c r="J631" s="23" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
       <c r="K631" s="1"/>
       <c r="L631" s="1">
@@ -37331,7 +37322,7 @@
         <v>174</v>
       </c>
       <c r="J632" s="23" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
       <c r="K632" s="1"/>
       <c r="L632" s="1">
@@ -37377,7 +37368,7 @@
         <v>174</v>
       </c>
       <c r="J633" s="23" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
       <c r="K633" s="1"/>
       <c r="L633" s="1">
@@ -37526,7 +37517,7 @@
         <v>452</v>
       </c>
       <c r="P636" s="8" t="s">
-        <v>1550</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="637" spans="1:16">
@@ -37558,10 +37549,10 @@
         <v>1090</v>
       </c>
       <c r="J637" s="23" t="s">
-        <v>1584</v>
+        <v>1581</v>
       </c>
       <c r="K637" s="6" t="s">
-        <v>1585</v>
+        <v>1582</v>
       </c>
       <c r="L637" s="5" t="s">
         <v>1091</v>
@@ -37651,10 +37642,10 @@
         <v>1090</v>
       </c>
       <c r="J639" s="23" t="s">
-        <v>1584</v>
+        <v>1581</v>
       </c>
       <c r="K639" s="6" t="s">
-        <v>1585</v>
+        <v>1582</v>
       </c>
       <c r="L639" s="5" t="s">
         <v>1091</v>
@@ -37891,10 +37882,10 @@
         <v>1382</v>
       </c>
       <c r="J644" s="6" t="s">
-        <v>1592</v>
+        <v>1589</v>
       </c>
       <c r="K644" s="6" t="s">
-        <v>1593</v>
+        <v>1590</v>
       </c>
       <c r="L644" s="5" t="s">
         <v>1433</v>
@@ -38269,10 +38260,10 @@
         <v>1086</v>
       </c>
       <c r="J652" s="23" t="s">
-        <v>1586</v>
+        <v>1583</v>
       </c>
       <c r="K652" s="6" t="s">
-        <v>1587</v>
+        <v>1584</v>
       </c>
       <c r="L652" s="5" t="s">
         <v>1087</v>
@@ -38557,10 +38548,10 @@
         <v>147</v>
       </c>
       <c r="J658" s="6" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
       <c r="K658" s="6" t="s">
-        <v>1583</v>
+        <v>1580</v>
       </c>
       <c r="L658" s="5" t="s">
         <v>148</v>
@@ -38845,10 +38836,10 @@
         <v>265</v>
       </c>
       <c r="J664" s="6" t="s">
-        <v>1580</v>
+        <v>1577</v>
       </c>
       <c r="K664" s="6" t="s">
-        <v>1581</v>
+        <v>1578</v>
       </c>
       <c r="L664" s="5" t="s">
         <v>266</v>
@@ -38930,10 +38921,10 @@
         <v>265</v>
       </c>
       <c r="J666" s="6" t="s">
-        <v>1580</v>
+        <v>1577</v>
       </c>
       <c r="K666" s="6" t="s">
-        <v>1581</v>
+        <v>1578</v>
       </c>
       <c r="L666" s="5" t="s">
         <v>266</v>
@@ -39065,10 +39056,10 @@
         <v>688</v>
       </c>
       <c r="J669" s="6" t="s">
-        <v>1594</v>
+        <v>1591</v>
       </c>
       <c r="K669" s="6" t="s">
-        <v>1595</v>
+        <v>1592</v>
       </c>
       <c r="L669" s="5" t="s">
         <v>689</v>
@@ -39113,10 +39104,10 @@
         <v>1382</v>
       </c>
       <c r="J670" s="6" t="s">
-        <v>1592</v>
+        <v>1589</v>
       </c>
       <c r="K670" s="6" t="s">
-        <v>1593</v>
+        <v>1590</v>
       </c>
       <c r="L670" s="5" t="s">
         <v>1429</v>
@@ -39161,10 +39152,10 @@
         <v>147</v>
       </c>
       <c r="J671" s="6" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
       <c r="K671" s="6" t="s">
-        <v>1583</v>
+        <v>1580</v>
       </c>
       <c r="L671" s="5" t="s">
         <v>148</v>
@@ -39545,10 +39536,10 @@
         <v>1382</v>
       </c>
       <c r="J679" s="6" t="s">
-        <v>1592</v>
+        <v>1589</v>
       </c>
       <c r="K679" s="6" t="s">
-        <v>1593</v>
+        <v>1590</v>
       </c>
       <c r="L679" s="5" t="s">
         <v>1430</v>
@@ -39737,7 +39728,7 @@
         <v>174</v>
       </c>
       <c r="J683" s="23" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
       <c r="K683" s="1"/>
       <c r="L683" s="1">
@@ -39783,10 +39774,10 @@
         <v>1090</v>
       </c>
       <c r="J684" s="23" t="s">
-        <v>1584</v>
+        <v>1581</v>
       </c>
       <c r="K684" s="6" t="s">
-        <v>1585</v>
+        <v>1582</v>
       </c>
       <c r="L684" s="5" t="s">
         <v>1091</v>
@@ -39930,7 +39921,7 @@
         <v>72</v>
       </c>
       <c r="K687" s="6" t="s">
-        <v>1588</v>
+        <v>1585</v>
       </c>
       <c r="L687" s="5" t="s">
         <v>49</v>
@@ -39975,7 +39966,7 @@
         <v>72</v>
       </c>
       <c r="K688" s="6" t="s">
-        <v>1588</v>
+        <v>1585</v>
       </c>
       <c r="L688" s="5" t="s">
         <v>56</v>
@@ -40116,10 +40107,10 @@
         <v>147</v>
       </c>
       <c r="J691" s="6" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
       <c r="K691" s="6" t="s">
-        <v>1583</v>
+        <v>1580</v>
       </c>
       <c r="L691" s="5" t="s">
         <v>148</v>
@@ -40206,10 +40197,10 @@
         <v>1181</v>
       </c>
       <c r="J693" s="23" t="s">
-        <v>1597</v>
+        <v>1594</v>
       </c>
       <c r="K693" s="6" t="s">
-        <v>1598</v>
+        <v>1595</v>
       </c>
       <c r="L693" s="5" t="s">
         <v>1182</v>
@@ -40227,7 +40218,7 @@
     </row>
     <row r="694" spans="1:16">
       <c r="A694" s="2" t="s">
-        <v>1551</v>
+        <v>1548</v>
       </c>
       <c r="B694" s="19" t="s">
         <v>736</v>
@@ -40302,10 +40293,10 @@
         <v>147</v>
       </c>
       <c r="J695" s="6" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
       <c r="K695" s="6" t="s">
-        <v>1583</v>
+        <v>1580</v>
       </c>
       <c r="L695" s="5" t="s">
         <v>148</v>
@@ -40392,10 +40383,10 @@
         <v>1086</v>
       </c>
       <c r="J697" s="23" t="s">
-        <v>1586</v>
+        <v>1583</v>
       </c>
       <c r="K697" s="6" t="s">
-        <v>1587</v>
+        <v>1584</v>
       </c>
       <c r="L697" s="5" t="s">
         <v>1087</v>
@@ -40440,10 +40431,10 @@
         <v>123</v>
       </c>
       <c r="J698" s="6" t="s">
-        <v>1599</v>
+        <v>1596</v>
       </c>
       <c r="K698" s="6" t="s">
-        <v>1601</v>
+        <v>1598</v>
       </c>
       <c r="L698" s="5" t="s">
         <v>124</v>
@@ -40488,10 +40479,10 @@
         <v>123</v>
       </c>
       <c r="J699" s="6" t="s">
-        <v>1599</v>
+        <v>1596</v>
       </c>
       <c r="K699" s="6" t="s">
-        <v>1601</v>
+        <v>1598</v>
       </c>
       <c r="L699" s="5" t="s">
         <v>124</v>
@@ -40536,10 +40527,10 @@
         <v>123</v>
       </c>
       <c r="J700" s="6" t="s">
-        <v>1599</v>
+        <v>1596</v>
       </c>
       <c r="K700" s="6" t="s">
-        <v>1601</v>
+        <v>1598</v>
       </c>
       <c r="L700" s="5" t="s">
         <v>124</v>
@@ -40584,10 +40575,10 @@
         <v>123</v>
       </c>
       <c r="J701" s="6" t="s">
-        <v>1599</v>
+        <v>1596</v>
       </c>
       <c r="K701" s="6" t="s">
-        <v>1601</v>
+        <v>1598</v>
       </c>
       <c r="L701" s="5" t="s">
         <v>124</v>
@@ -40632,10 +40623,10 @@
         <v>265</v>
       </c>
       <c r="J702" s="6" t="s">
-        <v>1580</v>
+        <v>1577</v>
       </c>
       <c r="K702" s="6" t="s">
-        <v>1581</v>
+        <v>1578</v>
       </c>
       <c r="L702" s="5" t="s">
         <v>266</v>
@@ -40728,10 +40719,10 @@
         <v>147</v>
       </c>
       <c r="J704" s="6" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
       <c r="K704" s="6" t="s">
-        <v>1583</v>
+        <v>1580</v>
       </c>
       <c r="L704" s="5" t="s">
         <v>148</v>
@@ -41160,7 +41151,7 @@
         <v>72</v>
       </c>
       <c r="K713" s="6" t="s">
-        <v>1588</v>
+        <v>1585</v>
       </c>
       <c r="L713" s="5" t="s">
         <v>49</v>
@@ -41253,7 +41244,7 @@
         <v>153</v>
       </c>
       <c r="J715" s="6" t="s">
-        <v>1589</v>
+        <v>1586</v>
       </c>
       <c r="K715" s="6" t="s">
         <v>154</v>
@@ -41349,10 +41340,10 @@
         <v>147</v>
       </c>
       <c r="J717" s="6" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
       <c r="K717" s="6" t="s">
-        <v>1583</v>
+        <v>1580</v>
       </c>
       <c r="L717" s="5" t="s">
         <v>148</v>
@@ -41397,7 +41388,7 @@
         <v>174</v>
       </c>
       <c r="J718" s="23" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
       <c r="K718" s="1"/>
       <c r="L718" s="1">
@@ -41443,7 +41434,7 @@
         <v>174</v>
       </c>
       <c r="J719" s="23" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
       <c r="K719" s="1"/>
       <c r="L719" s="1">
@@ -41489,7 +41480,7 @@
         <v>174</v>
       </c>
       <c r="J720" s="23" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
       <c r="K720" s="1"/>
       <c r="L720" s="1">
@@ -41721,10 +41712,10 @@
         <v>1086</v>
       </c>
       <c r="J725" s="23" t="s">
-        <v>1586</v>
+        <v>1583</v>
       </c>
       <c r="K725" s="6" t="s">
-        <v>1587</v>
+        <v>1584</v>
       </c>
       <c r="L725" s="5" t="s">
         <v>1087</v>
@@ -41814,10 +41805,10 @@
         <v>147</v>
       </c>
       <c r="J727" s="6" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
       <c r="K727" s="6" t="s">
-        <v>1583</v>
+        <v>1580</v>
       </c>
       <c r="L727" s="5" t="s">
         <v>148</v>
@@ -42054,10 +42045,10 @@
         <v>1382</v>
       </c>
       <c r="J732" s="6" t="s">
-        <v>1592</v>
+        <v>1589</v>
       </c>
       <c r="K732" s="6" t="s">
-        <v>1593</v>
+        <v>1590</v>
       </c>
       <c r="L732" s="5" t="s">
         <v>1431</v>
@@ -42105,7 +42096,7 @@
         <v>72</v>
       </c>
       <c r="K733" s="6" t="s">
-        <v>1588</v>
+        <v>1585</v>
       </c>
       <c r="L733" s="5" t="s">
         <v>49</v>
@@ -42216,7 +42207,7 @@
     </row>
     <row r="736" spans="1:16">
       <c r="A736" s="19" t="s">
-        <v>1552</v>
+        <v>1549</v>
       </c>
       <c r="B736" s="27" t="s">
         <v>794</v>
@@ -42264,7 +42255,7 @@
     </row>
     <row r="737" spans="1:16">
       <c r="A737" s="2" t="s">
-        <v>1553</v>
+        <v>1550</v>
       </c>
       <c r="B737" s="2" t="s">
         <v>448</v>
@@ -42312,7 +42303,7 @@
     </row>
     <row r="738" spans="1:16">
       <c r="A738" s="2" t="s">
-        <v>1553</v>
+        <v>1550</v>
       </c>
       <c r="B738" s="2" t="s">
         <v>448</v>
@@ -42360,7 +42351,7 @@
     </row>
     <row r="739" spans="1:16">
       <c r="A739" s="2" t="s">
-        <v>1553</v>
+        <v>1550</v>
       </c>
       <c r="B739" s="2" t="s">
         <v>448</v>
@@ -42408,7 +42399,7 @@
     </row>
     <row r="740" spans="1:16">
       <c r="A740" s="2" t="s">
-        <v>1553</v>
+        <v>1550</v>
       </c>
       <c r="B740" s="2" t="s">
         <v>448</v>
@@ -42531,10 +42522,10 @@
         <v>1090</v>
       </c>
       <c r="J742" s="23" t="s">
-        <v>1584</v>
+        <v>1581</v>
       </c>
       <c r="K742" s="6" t="s">
-        <v>1585</v>
+        <v>1582</v>
       </c>
       <c r="L742" s="5" t="s">
         <v>1091</v>
@@ -42579,10 +42570,10 @@
         <v>691</v>
       </c>
       <c r="J743" s="23" t="s">
-        <v>1590</v>
+        <v>1587</v>
       </c>
       <c r="K743" s="6" t="s">
-        <v>1591</v>
+        <v>1588</v>
       </c>
       <c r="L743" s="5" t="s">
         <v>692</v>
@@ -42768,10 +42759,10 @@
         <v>1382</v>
       </c>
       <c r="J747" s="6" t="s">
-        <v>1592</v>
+        <v>1589</v>
       </c>
       <c r="K747" s="6" t="s">
-        <v>1593</v>
+        <v>1590</v>
       </c>
       <c r="L747" s="5" t="s">
         <v>1424</v>
@@ -42861,7 +42852,7 @@
         <v>174</v>
       </c>
       <c r="J749" s="23" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
       <c r="K749" s="1"/>
       <c r="L749" s="1">
@@ -43195,10 +43186,10 @@
         <v>265</v>
       </c>
       <c r="J756" s="6" t="s">
-        <v>1580</v>
+        <v>1577</v>
       </c>
       <c r="K756" s="6" t="s">
-        <v>1581</v>
+        <v>1578</v>
       </c>
       <c r="L756" s="5" t="s">
         <v>266</v>
@@ -43700,10 +43691,10 @@
         <v>688</v>
       </c>
       <c r="J767" s="6" t="s">
-        <v>1594</v>
+        <v>1591</v>
       </c>
       <c r="K767" s="6" t="s">
-        <v>1595</v>
+        <v>1592</v>
       </c>
       <c r="L767" s="5" t="s">
         <v>689</v>
@@ -43769,7 +43760,7 @@
     </row>
     <row r="769" spans="1:16">
       <c r="A769" s="2" t="s">
-        <v>1554</v>
+        <v>1551</v>
       </c>
       <c r="C769" s="29" t="s">
         <v>1449</v>
@@ -43833,7 +43824,7 @@
         <v>174</v>
       </c>
       <c r="J770" s="23" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
       <c r="K770" s="1"/>
       <c r="L770" s="1">
@@ -44119,10 +44110,10 @@
         <v>147</v>
       </c>
       <c r="J776" s="6" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
       <c r="K776" s="6" t="s">
-        <v>1583</v>
+        <v>1580</v>
       </c>
       <c r="L776" s="5" t="s">
         <v>148</v>
@@ -44263,7 +44254,7 @@
         <v>174</v>
       </c>
       <c r="J779" s="23" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
       <c r="K779" s="1"/>
       <c r="L779" s="1">
@@ -44291,7 +44282,7 @@
         <v>1450</v>
       </c>
       <c r="D780" s="7" t="s">
-        <v>1602</v>
+        <v>1599</v>
       </c>
       <c r="E780" s="1" t="s">
         <v>1134</v>
@@ -44312,7 +44303,7 @@
         <v>72</v>
       </c>
       <c r="K780" s="6" t="s">
-        <v>1588</v>
+        <v>1585</v>
       </c>
       <c r="L780" s="5" t="s">
         <v>49</v>
@@ -44444,10 +44435,10 @@
         <v>1086</v>
       </c>
       <c r="J783" s="23" t="s">
-        <v>1586</v>
+        <v>1583</v>
       </c>
       <c r="K783" s="6" t="s">
-        <v>1587</v>
+        <v>1584</v>
       </c>
       <c r="L783" s="5" t="s">
         <v>1087</v>
@@ -44588,10 +44579,10 @@
         <v>265</v>
       </c>
       <c r="J786" s="6" t="s">
-        <v>1580</v>
+        <v>1577</v>
       </c>
       <c r="K786" s="6" t="s">
-        <v>1581</v>
+        <v>1578</v>
       </c>
       <c r="L786" s="5" t="s">
         <v>266</v>
@@ -44771,7 +44762,7 @@
         <v>174</v>
       </c>
       <c r="J790" s="23" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
       <c r="K790" s="1"/>
       <c r="L790" s="1">
@@ -44817,7 +44808,7 @@
         <v>174</v>
       </c>
       <c r="J791" s="23" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
       <c r="K791" s="1"/>
       <c r="L791" s="1">
@@ -44911,10 +44902,10 @@
         <v>147</v>
       </c>
       <c r="J793" s="6" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
       <c r="K793" s="6" t="s">
-        <v>1583</v>
+        <v>1580</v>
       </c>
       <c r="L793" s="5" t="s">
         <v>148</v>
@@ -45196,10 +45187,10 @@
         <v>688</v>
       </c>
       <c r="J799" s="6" t="s">
-        <v>1594</v>
+        <v>1591</v>
       </c>
       <c r="K799" s="6" t="s">
-        <v>1595</v>
+        <v>1592</v>
       </c>
       <c r="L799" s="5" t="s">
         <v>689</v>
@@ -45265,7 +45256,7 @@
     </row>
     <row r="801" spans="1:16">
       <c r="A801" s="19" t="s">
-        <v>1555</v>
+        <v>1552</v>
       </c>
       <c r="B801" s="19" t="s">
         <v>769</v>
@@ -45334,10 +45325,10 @@
         <v>1181</v>
       </c>
       <c r="J802" s="23" t="s">
-        <v>1597</v>
+        <v>1594</v>
       </c>
       <c r="K802" s="6" t="s">
-        <v>1598</v>
+        <v>1595</v>
       </c>
       <c r="L802" s="5" t="s">
         <v>1182</v>
@@ -45499,7 +45490,7 @@
         <v>397</v>
       </c>
       <c r="B806" s="2" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="C806" s="29" t="s">
         <v>1450</v>
@@ -45523,7 +45514,7 @@
         <v>174</v>
       </c>
       <c r="J806" s="23" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
       <c r="K806" s="1"/>
       <c r="L806" s="1">
@@ -45641,7 +45632,7 @@
         <v>397</v>
       </c>
       <c r="B809" s="24" t="s">
-        <v>1556</v>
+        <v>1553</v>
       </c>
       <c r="C809" s="1" t="s">
         <v>1450</v>
@@ -45854,7 +45845,7 @@
         <v>72</v>
       </c>
       <c r="K813" s="6" t="s">
-        <v>1588</v>
+        <v>1585</v>
       </c>
       <c r="L813" s="5" t="s">
         <v>49</v>
@@ -45869,7 +45860,7 @@
         <v>452</v>
       </c>
       <c r="P813" s="21" t="s">
-        <v>1603</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="814" spans="1:16">
@@ -45997,10 +45988,10 @@
         <v>1382</v>
       </c>
       <c r="J816" s="6" t="s">
-        <v>1592</v>
+        <v>1589</v>
       </c>
       <c r="K816" s="6" t="s">
-        <v>1593</v>
+        <v>1590</v>
       </c>
       <c r="L816" s="5" t="s">
         <v>1425</v>
@@ -46015,7 +46006,7 @@
         <v>452</v>
       </c>
       <c r="P816" s="47" t="s">
-        <v>1604</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="817" spans="1:16">
@@ -46050,7 +46041,7 @@
         <v>72</v>
       </c>
       <c r="K817" s="6" t="s">
-        <v>1588</v>
+        <v>1585</v>
       </c>
       <c r="L817" s="5" t="s">
         <v>49</v>
@@ -46095,10 +46086,10 @@
         <v>147</v>
       </c>
       <c r="J818" s="6" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
       <c r="K818" s="6" t="s">
-        <v>1583</v>
+        <v>1580</v>
       </c>
       <c r="L818" s="5" t="s">
         <v>148</v>
@@ -46278,7 +46269,7 @@
         <v>174</v>
       </c>
       <c r="J822" s="23" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
       <c r="K822" s="1"/>
       <c r="L822" s="1">
@@ -46468,7 +46459,7 @@
         <v>153</v>
       </c>
       <c r="J826" s="6" t="s">
-        <v>1589</v>
+        <v>1586</v>
       </c>
       <c r="K826" s="6" t="s">
         <v>154</v>
@@ -46846,10 +46837,10 @@
         <v>688</v>
       </c>
       <c r="J834" s="6" t="s">
-        <v>1594</v>
+        <v>1591</v>
       </c>
       <c r="K834" s="6" t="s">
-        <v>1595</v>
+        <v>1592</v>
       </c>
       <c r="L834" s="5" t="s">
         <v>689</v>
@@ -46870,7 +46861,7 @@
         <v>6</v>
       </c>
       <c r="B835" s="2" t="s">
-        <v>1558</v>
+        <v>1555</v>
       </c>
       <c r="C835" s="7" t="s">
         <v>1450</v>
@@ -46894,10 +46885,10 @@
         <v>265</v>
       </c>
       <c r="J835" s="6" t="s">
-        <v>1580</v>
+        <v>1577</v>
       </c>
       <c r="K835" s="6" t="s">
-        <v>1581</v>
+        <v>1578</v>
       </c>
       <c r="L835" s="5" t="s">
         <v>266</v>
@@ -46912,7 +46903,7 @@
         <v>452</v>
       </c>
       <c r="P835" s="47" t="s">
-        <v>1605</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="836" spans="1:16">
@@ -46944,10 +46935,10 @@
         <v>265</v>
       </c>
       <c r="J836" s="6" t="s">
-        <v>1580</v>
+        <v>1577</v>
       </c>
       <c r="K836" s="6" t="s">
-        <v>1581</v>
+        <v>1578</v>
       </c>
       <c r="L836" s="5" t="s">
         <v>266</v>
@@ -46968,7 +46959,7 @@
         <v>580</v>
       </c>
       <c r="B837" s="2" t="s">
-        <v>1559</v>
+        <v>1556</v>
       </c>
       <c r="C837" s="29" t="s">
         <v>1450</v>
@@ -46992,10 +46983,10 @@
         <v>1090</v>
       </c>
       <c r="J837" s="23" t="s">
-        <v>1584</v>
+        <v>1581</v>
       </c>
       <c r="K837" s="6" t="s">
-        <v>1585</v>
+        <v>1582</v>
       </c>
       <c r="L837" s="5" t="s">
         <v>1091</v>
@@ -47010,7 +47001,7 @@
         <v>452</v>
       </c>
       <c r="P837" s="8" t="s">
-        <v>1606</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="838" spans="1:16">
@@ -47186,10 +47177,10 @@
         <v>1382</v>
       </c>
       <c r="J841" s="6" t="s">
-        <v>1592</v>
+        <v>1589</v>
       </c>
       <c r="K841" s="6" t="s">
-        <v>1593</v>
+        <v>1590</v>
       </c>
       <c r="L841" s="5" t="s">
         <v>1426</v>
@@ -47426,10 +47417,10 @@
         <v>1382</v>
       </c>
       <c r="J846" s="6" t="s">
-        <v>1592</v>
+        <v>1589</v>
       </c>
       <c r="K846" s="6" t="s">
-        <v>1593</v>
+        <v>1590</v>
       </c>
       <c r="L846" s="5" t="s">
         <v>1427</v>
@@ -47522,10 +47513,10 @@
         <v>147</v>
       </c>
       <c r="J848" s="6" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
       <c r="K848" s="6" t="s">
-        <v>1583</v>
+        <v>1580</v>
       </c>
       <c r="L848" s="5" t="s">
         <v>148</v>
@@ -47618,7 +47609,7 @@
         <v>153</v>
       </c>
       <c r="J850" s="6" t="s">
-        <v>1589</v>
+        <v>1586</v>
       </c>
       <c r="K850" s="6" t="s">
         <v>154</v>
@@ -47714,7 +47705,7 @@
         <v>153</v>
       </c>
       <c r="J852" s="6" t="s">
-        <v>1589</v>
+        <v>1586</v>
       </c>
       <c r="K852" s="6" t="s">
         <v>154</v>
@@ -47810,10 +47801,10 @@
         <v>1090</v>
       </c>
       <c r="J854" s="23" t="s">
-        <v>1584</v>
+        <v>1581</v>
       </c>
       <c r="K854" s="6" t="s">
-        <v>1585</v>
+        <v>1582</v>
       </c>
       <c r="L854" s="5" t="s">
         <v>1091</v>
@@ -47831,7 +47822,7 @@
     </row>
     <row r="855" spans="1:16">
       <c r="A855" s="19" t="s">
-        <v>1560</v>
+        <v>1557</v>
       </c>
       <c r="B855" s="19" t="s">
         <v>770</v>
@@ -47879,7 +47870,7 @@
     </row>
     <row r="856" spans="1:16">
       <c r="A856" s="19" t="s">
-        <v>1561</v>
+        <v>1558</v>
       </c>
       <c r="B856" s="19" t="s">
         <v>771</v>
@@ -47927,7 +47918,7 @@
     </row>
     <row r="857" spans="1:16" ht="31">
       <c r="A857" s="24" t="s">
-        <v>1562</v>
+        <v>1559</v>
       </c>
       <c r="B857" s="11" t="s">
         <v>884</v>
@@ -48092,10 +48083,10 @@
         <v>1086</v>
       </c>
       <c r="J860" s="23" t="s">
-        <v>1586</v>
+        <v>1583</v>
       </c>
       <c r="K860" s="6" t="s">
-        <v>1587</v>
+        <v>1584</v>
       </c>
       <c r="L860" s="5" t="s">
         <v>1087</v>
@@ -48284,7 +48275,7 @@
         <v>174</v>
       </c>
       <c r="J864" s="23" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
       <c r="K864" s="1"/>
       <c r="L864" s="1">
@@ -48378,10 +48369,10 @@
         <v>691</v>
       </c>
       <c r="J866" s="23" t="s">
-        <v>1590</v>
+        <v>1587</v>
       </c>
       <c r="K866" s="6" t="s">
-        <v>1591</v>
+        <v>1588</v>
       </c>
       <c r="L866" s="5" t="s">
         <v>692</v>
@@ -48525,7 +48516,7 @@
         <v>72</v>
       </c>
       <c r="K869" s="6" t="s">
-        <v>1588</v>
+        <v>1585</v>
       </c>
       <c r="L869" s="5" t="s">
         <v>49</v>
@@ -48945,10 +48936,10 @@
         <v>1382</v>
       </c>
       <c r="J878" s="6" t="s">
-        <v>1592</v>
+        <v>1589</v>
       </c>
       <c r="K878" s="6" t="s">
-        <v>1593</v>
+        <v>1590</v>
       </c>
       <c r="L878" s="5" t="s">
         <v>1418</v>
@@ -49035,10 +49026,10 @@
         <v>1086</v>
       </c>
       <c r="J880" s="23" t="s">
-        <v>1586</v>
+        <v>1583</v>
       </c>
       <c r="K880" s="6" t="s">
-        <v>1587</v>
+        <v>1584</v>
       </c>
       <c r="L880" s="5" t="s">
         <v>1087</v>
@@ -49083,7 +49074,7 @@
         <v>174</v>
       </c>
       <c r="J881" s="23" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
       <c r="K881" s="1"/>
       <c r="L881" s="1">
@@ -49129,7 +49120,7 @@
         <v>174</v>
       </c>
       <c r="J882" s="23" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
       <c r="K882" s="1"/>
       <c r="L882" s="1">
@@ -49220,10 +49211,10 @@
         <v>1090</v>
       </c>
       <c r="J884" s="23" t="s">
-        <v>1584</v>
+        <v>1581</v>
       </c>
       <c r="K884" s="6" t="s">
-        <v>1585</v>
+        <v>1582</v>
       </c>
       <c r="L884" s="5" t="s">
         <v>1091</v>
@@ -49316,10 +49307,10 @@
         <v>147</v>
       </c>
       <c r="J886" s="6" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
       <c r="K886" s="6" t="s">
-        <v>1583</v>
+        <v>1580</v>
       </c>
       <c r="L886" s="5" t="s">
         <v>148</v>
@@ -49739,10 +49730,10 @@
         <v>147</v>
       </c>
       <c r="J895" s="6" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
       <c r="K895" s="6" t="s">
-        <v>1583</v>
+        <v>1580</v>
       </c>
       <c r="L895" s="5" t="s">
         <v>148</v>
@@ -49763,7 +49754,7 @@
         <v>506</v>
       </c>
       <c r="B896" s="42" t="s">
-        <v>1563</v>
+        <v>1560</v>
       </c>
       <c r="C896" s="32" t="s">
         <v>1450</v>
@@ -49883,10 +49874,10 @@
         <v>147</v>
       </c>
       <c r="J898" s="6" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
       <c r="K898" s="6" t="s">
-        <v>1583</v>
+        <v>1580</v>
       </c>
       <c r="L898" s="5" t="s">
         <v>148</v>
@@ -49973,10 +49964,10 @@
         <v>688</v>
       </c>
       <c r="J900" s="6" t="s">
-        <v>1594</v>
+        <v>1591</v>
       </c>
       <c r="K900" s="6" t="s">
-        <v>1595</v>
+        <v>1592</v>
       </c>
       <c r="L900" s="5" t="s">
         <v>689</v>
@@ -50111,10 +50102,10 @@
         <v>1086</v>
       </c>
       <c r="J903" s="23" t="s">
-        <v>1586</v>
+        <v>1583</v>
       </c>
       <c r="K903" s="6" t="s">
-        <v>1587</v>
+        <v>1584</v>
       </c>
       <c r="L903" s="5" t="s">
         <v>1087</v>
@@ -50351,10 +50342,10 @@
         <v>147</v>
       </c>
       <c r="J908" s="6" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
       <c r="K908" s="6" t="s">
-        <v>1583</v>
+        <v>1580</v>
       </c>
       <c r="L908" s="5" t="s">
         <v>148</v>
@@ -50375,7 +50366,7 @@
         <v>847</v>
       </c>
       <c r="B909" s="24" t="s">
-        <v>1565</v>
+        <v>1562</v>
       </c>
       <c r="C909" s="1" t="s">
         <v>1450</v>
@@ -50420,7 +50411,7 @@
     </row>
     <row r="910" spans="1:16">
       <c r="A910" s="19" t="s">
-        <v>1564</v>
+        <v>1561</v>
       </c>
       <c r="B910" s="19" t="s">
         <v>751</v>
@@ -50498,7 +50489,7 @@
         <v>72</v>
       </c>
       <c r="K911" s="6" t="s">
-        <v>1588</v>
+        <v>1585</v>
       </c>
       <c r="L911" s="5" t="s">
         <v>49</v>
@@ -50516,7 +50507,7 @@
     </row>
     <row r="912" spans="1:16" ht="17.5" customHeight="1">
       <c r="A912" s="12" t="s">
-        <v>1568</v>
+        <v>1565</v>
       </c>
       <c r="B912" s="12" t="s">
         <v>739</v>
@@ -50543,10 +50534,10 @@
         <v>1382</v>
       </c>
       <c r="J912" s="6" t="s">
-        <v>1592</v>
+        <v>1589</v>
       </c>
       <c r="K912" s="6" t="s">
-        <v>1593</v>
+        <v>1590</v>
       </c>
       <c r="L912" s="5" t="s">
         <v>1421</v>
@@ -50561,12 +50552,12 @@
         <v>452</v>
       </c>
       <c r="P912" s="8" t="s">
-        <v>1567</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="913" spans="1:16">
       <c r="A913" s="12" t="s">
-        <v>1568</v>
+        <v>1565</v>
       </c>
       <c r="B913" s="19" t="s">
         <v>739</v>
@@ -50614,7 +50605,7 @@
     </row>
     <row r="914" spans="1:16" ht="18.5" customHeight="1">
       <c r="A914" s="12" t="s">
-        <v>1568</v>
+        <v>1565</v>
       </c>
       <c r="B914" s="11" t="s">
         <v>739</v>
@@ -50665,7 +50656,7 @@
         <v>645</v>
       </c>
       <c r="B915" s="18" t="s">
-        <v>1566</v>
+        <v>1563</v>
       </c>
       <c r="C915" s="29" t="s">
         <v>1450</v>
@@ -50713,7 +50704,7 @@
         <v>645</v>
       </c>
       <c r="B916" s="18" t="s">
-        <v>1566</v>
+        <v>1563</v>
       </c>
       <c r="C916" s="29" t="s">
         <v>1450</v>
@@ -50779,10 +50770,10 @@
         <v>1086</v>
       </c>
       <c r="J917" s="23" t="s">
-        <v>1586</v>
+        <v>1583</v>
       </c>
       <c r="K917" s="6" t="s">
-        <v>1587</v>
+        <v>1584</v>
       </c>
       <c r="L917" s="5" t="s">
         <v>1087</v>
@@ -50923,10 +50914,10 @@
         <v>265</v>
       </c>
       <c r="J920" s="6" t="s">
-        <v>1580</v>
+        <v>1577</v>
       </c>
       <c r="K920" s="6" t="s">
-        <v>1581</v>
+        <v>1578</v>
       </c>
       <c r="L920" s="5" t="s">
         <v>266</v>
@@ -51067,7 +51058,7 @@
         <v>174</v>
       </c>
       <c r="J923" s="23" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
       <c r="K923" s="1"/>
       <c r="L923" s="1">
@@ -51089,7 +51080,7 @@
         <v>547</v>
       </c>
       <c r="B924" s="18" t="s">
-        <v>1569</v>
+        <v>1566</v>
       </c>
       <c r="C924" s="29" t="s">
         <v>1450</v>
@@ -51182,10 +51173,10 @@
     </row>
     <row r="926" spans="1:16">
       <c r="A926" s="42" t="s">
-        <v>1570</v>
+        <v>1567</v>
       </c>
       <c r="B926" s="42" t="s">
-        <v>1571</v>
+        <v>1568</v>
       </c>
       <c r="C926" s="32" t="s">
         <v>1450</v>
@@ -51230,10 +51221,10 @@
     </row>
     <row r="927" spans="1:16">
       <c r="A927" s="42" t="s">
-        <v>1570</v>
+        <v>1567</v>
       </c>
       <c r="B927" s="42" t="s">
-        <v>1571</v>
+        <v>1568</v>
       </c>
       <c r="C927" s="32" t="s">
         <v>1450</v>
@@ -51278,10 +51269,10 @@
     </row>
     <row r="928" spans="1:16">
       <c r="A928" s="42" t="s">
-        <v>1570</v>
+        <v>1567</v>
       </c>
       <c r="B928" s="42" t="s">
-        <v>1571</v>
+        <v>1568</v>
       </c>
       <c r="C928" s="32" t="s">
         <v>1452</v>
@@ -51326,10 +51317,10 @@
     </row>
     <row r="929" spans="1:16">
       <c r="A929" s="42" t="s">
-        <v>1570</v>
+        <v>1567</v>
       </c>
       <c r="B929" s="42" t="s">
-        <v>1571</v>
+        <v>1568</v>
       </c>
       <c r="C929" s="32" t="s">
         <v>1453</v>
@@ -51374,10 +51365,10 @@
     </row>
     <row r="930" spans="1:16">
       <c r="A930" s="42" t="s">
-        <v>1570</v>
+        <v>1567</v>
       </c>
       <c r="B930" s="42" t="s">
-        <v>1571</v>
+        <v>1568</v>
       </c>
       <c r="C930" s="32" t="s">
         <v>1454</v>
@@ -51449,10 +51440,10 @@
         <v>1382</v>
       </c>
       <c r="J931" s="6" t="s">
-        <v>1592</v>
+        <v>1589</v>
       </c>
       <c r="K931" s="6" t="s">
-        <v>1593</v>
+        <v>1590</v>
       </c>
       <c r="L931" s="5" t="s">
         <v>1428</v>
@@ -51569,7 +51560,7 @@
         <v>754</v>
       </c>
       <c r="B934" s="49" t="s">
-        <v>1572</v>
+        <v>1569</v>
       </c>
       <c r="C934" s="29" t="s">
         <v>1450</v>
@@ -51611,7 +51602,7 @@
         <v>452</v>
       </c>
       <c r="P934" s="48" t="s">
-        <v>1607</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="935" spans="1:16">
@@ -51787,10 +51778,10 @@
         <v>1382</v>
       </c>
       <c r="J938" s="6" t="s">
-        <v>1592</v>
+        <v>1589</v>
       </c>
       <c r="K938" s="6" t="s">
-        <v>1593</v>
+        <v>1590</v>
       </c>
       <c r="L938" s="5" t="s">
         <v>1437</v>
@@ -51989,7 +51980,7 @@
     </row>
     <row r="943" spans="1:16">
       <c r="A943" s="19" t="s">
-        <v>1573</v>
+        <v>1570</v>
       </c>
       <c r="B943" s="19" t="s">
         <v>735</v>
@@ -52685,7 +52676,7 @@
         <v>174</v>
       </c>
       <c r="J957" s="23" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
       <c r="K957" s="1"/>
       <c r="L957" s="1">
@@ -52851,7 +52842,7 @@
         <v>46</v>
       </c>
       <c r="B961" s="2" t="s">
-        <v>1574</v>
+        <v>1571</v>
       </c>
       <c r="C961" s="29" t="s">
         <v>1450</v>
@@ -52893,7 +52884,7 @@
         <v>452</v>
       </c>
       <c r="P961" s="8" t="s">
-        <v>1575</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="962" spans="1:16">
@@ -52925,10 +52916,10 @@
         <v>147</v>
       </c>
       <c r="J962" s="6" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
       <c r="K962" s="6" t="s">
-        <v>1583</v>
+        <v>1580</v>
       </c>
       <c r="L962" s="5" t="s">
         <v>148</v>
@@ -52973,10 +52964,10 @@
         <v>1382</v>
       </c>
       <c r="J963" s="6" t="s">
-        <v>1592</v>
+        <v>1589</v>
       </c>
       <c r="K963" s="6" t="s">
-        <v>1593</v>
+        <v>1590</v>
       </c>
       <c r="L963" s="5" t="s">
         <v>1417</v>
@@ -53024,7 +53015,7 @@
         <v>72</v>
       </c>
       <c r="K964" s="6" t="s">
-        <v>1588</v>
+        <v>1585</v>
       </c>
       <c r="L964" s="5" t="s">
         <v>49</v>
@@ -53213,7 +53204,7 @@
         <v>153</v>
       </c>
       <c r="J968" s="6" t="s">
-        <v>1589</v>
+        <v>1586</v>
       </c>
       <c r="K968" s="6" t="s">
         <v>154</v>
@@ -53261,7 +53252,7 @@
         <v>174</v>
       </c>
       <c r="J969" s="23" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
       <c r="K969" s="1"/>
       <c r="L969" s="1">
@@ -53283,7 +53274,7 @@
         <v>46</v>
       </c>
       <c r="B970" s="42" t="s">
-        <v>1576</v>
+        <v>1573</v>
       </c>
       <c r="C970" s="32" t="s">
         <v>1450</v>
@@ -53400,10 +53391,10 @@
         <v>1090</v>
       </c>
       <c r="J972" s="23" t="s">
-        <v>1584</v>
+        <v>1581</v>
       </c>
       <c r="K972" s="6" t="s">
-        <v>1585</v>
+        <v>1582</v>
       </c>
       <c r="L972" s="5" t="s">
         <v>1091</v>
@@ -53448,7 +53439,7 @@
         <v>174</v>
       </c>
       <c r="J973" s="23" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
       <c r="K973" s="1"/>
       <c r="L973" s="1">
@@ -53590,10 +53581,10 @@
         <v>265</v>
       </c>
       <c r="J976" s="6" t="s">
-        <v>1580</v>
+        <v>1577</v>
       </c>
       <c r="K976" s="6" t="s">
-        <v>1581</v>
+        <v>1578</v>
       </c>
       <c r="L976" s="5" t="s">
         <v>266</v>
@@ -53614,7 +53605,7 @@
         <v>396</v>
       </c>
       <c r="B977" s="42" t="s">
-        <v>1577</v>
+        <v>1574</v>
       </c>
       <c r="C977" s="32" t="s">
         <v>1450</v>
@@ -53662,7 +53653,7 @@
         <v>396</v>
       </c>
       <c r="B978" s="42" t="s">
-        <v>1577</v>
+        <v>1574</v>
       </c>
       <c r="C978" s="32" t="s">
         <v>1451</v>
@@ -53710,7 +53701,7 @@
         <v>396</v>
       </c>
       <c r="B979" s="42" t="s">
-        <v>1577</v>
+        <v>1574</v>
       </c>
       <c r="C979" s="32" t="s">
         <v>1449</v>
@@ -53758,7 +53749,7 @@
         <v>396</v>
       </c>
       <c r="B980" s="42" t="s">
-        <v>1577</v>
+        <v>1574</v>
       </c>
       <c r="C980" s="32" t="s">
         <v>1452</v>
@@ -53806,7 +53797,7 @@
         <v>396</v>
       </c>
       <c r="B981" s="42" t="s">
-        <v>1577</v>
+        <v>1574</v>
       </c>
       <c r="C981" s="32" t="s">
         <v>1454</v>
@@ -53854,7 +53845,7 @@
         <v>396</v>
       </c>
       <c r="B982" s="42" t="s">
-        <v>1577</v>
+        <v>1574</v>
       </c>
       <c r="C982" s="32" t="s">
         <v>1453</v>
@@ -53902,7 +53893,7 @@
         <v>396</v>
       </c>
       <c r="B983" s="42" t="s">
-        <v>1577</v>
+        <v>1574</v>
       </c>
       <c r="C983" s="32" t="s">
         <v>1455</v>
@@ -54106,10 +54097,10 @@
         <v>688</v>
       </c>
       <c r="J987" s="6" t="s">
-        <v>1594</v>
+        <v>1591</v>
       </c>
       <c r="K987" s="6" t="s">
-        <v>1595</v>
+        <v>1592</v>
       </c>
       <c r="L987" s="5" t="s">
         <v>689</v>
@@ -54151,10 +54142,10 @@
         <v>688</v>
       </c>
       <c r="J988" s="6" t="s">
-        <v>1594</v>
+        <v>1591</v>
       </c>
       <c r="K988" s="6" t="s">
-        <v>1595</v>
+        <v>1592</v>
       </c>
       <c r="L988" s="5" t="s">
         <v>689</v>
@@ -54428,10 +54419,10 @@
         <v>265</v>
       </c>
       <c r="J994" s="6" t="s">
-        <v>1580</v>
+        <v>1577</v>
       </c>
       <c r="K994" s="6" t="s">
-        <v>1581</v>
+        <v>1578</v>
       </c>
       <c r="L994" s="5" t="s">
         <v>266</v>
@@ -54476,10 +54467,10 @@
         <v>265</v>
       </c>
       <c r="J995" s="6" t="s">
-        <v>1580</v>
+        <v>1577</v>
       </c>
       <c r="K995" s="6" t="s">
-        <v>1581</v>
+        <v>1578</v>
       </c>
       <c r="L995" s="5" t="s">
         <v>266</v>
@@ -54620,10 +54611,10 @@
         <v>147</v>
       </c>
       <c r="J998" s="6" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
       <c r="K998" s="6" t="s">
-        <v>1583</v>
+        <v>1580</v>
       </c>
       <c r="L998" s="5" t="s">
         <v>148</v>
@@ -55327,7 +55318,7 @@
         <v>174</v>
       </c>
       <c r="J1013" s="23" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
       <c r="L1013" s="1">
         <v>2017</v>
@@ -55371,7 +55362,7 @@
         <v>174</v>
       </c>
       <c r="J1014" s="23" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
       <c r="L1014" s="1">
         <v>2017</v>
@@ -55579,7 +55570,7 @@
         <v>393</v>
       </c>
       <c r="B1019" s="42" t="s">
-        <v>1578</v>
+        <v>1575</v>
       </c>
       <c r="C1019" s="32" t="s">
         <v>1455</v>
@@ -56022,10 +56013,10 @@
         <v>265</v>
       </c>
       <c r="J1028" s="6" t="s">
-        <v>1580</v>
+        <v>1577</v>
       </c>
       <c r="K1028" s="6" t="s">
-        <v>1581</v>
+        <v>1578</v>
       </c>
       <c r="L1028" s="5" t="s">
         <v>266</v>
@@ -56116,10 +56107,10 @@
         <v>691</v>
       </c>
       <c r="J1030" s="23" t="s">
-        <v>1590</v>
+        <v>1587</v>
       </c>
       <c r="K1030" s="6" t="s">
-        <v>1591</v>
+        <v>1588</v>
       </c>
       <c r="L1030" s="5" t="s">
         <v>692</v>
@@ -56186,21 +56177,12 @@
       <c r="I1032" s="5"/>
     </row>
     <row r="1033" spans="1:15">
-      <c r="D1033" s="1" t="s">
-        <v>1502</v>
-      </c>
       <c r="I1033" s="5"/>
     </row>
     <row r="1034" spans="1:15">
-      <c r="D1034" s="1" t="s">
-        <v>1503</v>
-      </c>
       <c r="I1034" s="5"/>
     </row>
     <row r="1035" spans="1:15">
-      <c r="D1035" s="1" t="s">
-        <v>1504</v>
-      </c>
       <c r="I1035" s="5"/>
     </row>
     <row r="1036" spans="1:15">

--- a/Ghana.plants.uses.category.new.xlsx
+++ b/Ghana.plants.uses.category.new.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saray\Sarah\MASTERS PROJECT\GhanaEcoServices\GhanaEcoServices\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saray\Sarah\MASTERS PROJECT\GhanaEcoServices1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{15DCE0D0-BC75-488A-82F9-A57A53E3CAF9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D38BF210-BE6D-42FA-9905-1838DC0BC3A2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12531" uniqueCount="1585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12531" uniqueCount="1586">
   <si>
     <t>Species</t>
   </si>
@@ -4405,9 +4405,6 @@
     <t>Thalia geniculata L.</t>
   </si>
   <si>
-    <t>treating skin</t>
-  </si>
-  <si>
     <t>Thaumatococcus daniellii</t>
   </si>
   <si>
@@ -4770,9 +4767,6 @@
     <t>Medicine: Gastrointestinal disorders</t>
   </si>
   <si>
-    <t>Medicine: Somatic pains</t>
-  </si>
-  <si>
     <t>Medicine: Menstrual disorders</t>
   </si>
   <si>
@@ -4801,6 +4795,15 @@
   </si>
   <si>
     <t>Medicine: Malaria</t>
+  </si>
+  <si>
+    <t>Medicine: Skin disorders</t>
+  </si>
+  <si>
+    <t>used with other medicinal plants</t>
+  </si>
+  <si>
+    <t>Medicine: Pains</t>
   </si>
 </sst>
 </file>
@@ -5684,8 +5687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q1030"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1015" workbookViewId="0">
-      <selection activeCell="F1026" sqref="F1026"/>
+    <sheetView tabSelected="1" topLeftCell="C1012" workbookViewId="0">
+      <selection activeCell="F1024" sqref="F1024"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5879,7 +5882,7 @@
         <v>42</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>1576</v>
+        <v>1583</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>43</v>
@@ -6132,7 +6135,7 @@
         <v>68</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>33</v>
@@ -6183,7 +6186,7 @@
         <v>75</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>1574</v>
+        <v>1585</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>33</v>
@@ -6232,7 +6235,7 @@
         <v>76</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>33</v>
@@ -6283,7 +6286,7 @@
         <v>84</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>1576</v>
+        <v>1583</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>56</v>
@@ -6332,7 +6335,7 @@
         <v>91</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>33</v>
@@ -6638,7 +6641,7 @@
         <v>76</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>33</v>
@@ -6687,7 +6690,7 @@
         <v>76</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>33</v>
@@ -6837,10 +6840,10 @@
         <v>19</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>1580</v>
+        <v>1578</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>1581</v>
+        <v>1579</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>123</v>
@@ -6989,7 +6992,7 @@
         <v>76</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>22</v>
@@ -7040,7 +7043,7 @@
         <v>76</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>22</v>
@@ -7089,7 +7092,7 @@
         <v>145</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>131</v>
@@ -7446,7 +7449,7 @@
         <v>159</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>1576</v>
+        <v>1572</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>43</v>
@@ -7497,7 +7500,7 @@
         <v>160</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>43</v>
@@ -7548,7 +7551,7 @@
         <v>76</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>33</v>
@@ -7597,7 +7600,7 @@
         <v>162</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>43</v>
@@ -7650,7 +7653,7 @@
         <v>76</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>22</v>
@@ -7803,7 +7806,7 @@
         <v>177</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>56</v>
@@ -7852,7 +7855,7 @@
         <v>180</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>43</v>
@@ -8003,7 +8006,7 @@
         <v>186</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>1576</v>
+        <v>1583</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>187</v>
@@ -8054,7 +8057,7 @@
         <v>193</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>1576</v>
+        <v>1583</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>187</v>
@@ -8254,7 +8257,7 @@
         <v>162</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>43</v>
@@ -8354,7 +8357,7 @@
         <v>199</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>200</v>
@@ -8456,7 +8459,7 @@
         <v>76</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>200</v>
@@ -8558,7 +8561,7 @@
         <v>159</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>200</v>
@@ -8609,7 +8612,7 @@
         <v>76</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>22</v>
@@ -8813,7 +8816,7 @@
         <v>219</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>220</v>
@@ -8864,7 +8867,7 @@
         <v>76</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>22</v>
@@ -8966,7 +8969,7 @@
         <v>228</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>33</v>
@@ -9017,7 +9020,7 @@
         <v>219</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>220</v>
@@ -9068,7 +9071,7 @@
         <v>76</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>22</v>
@@ -9119,7 +9122,7 @@
         <v>231</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>1576</v>
+        <v>1583</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>56</v>
@@ -9319,7 +9322,7 @@
         <v>235</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>56</v>
@@ -9368,7 +9371,7 @@
         <v>76</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>22</v>
@@ -9419,7 +9422,7 @@
         <v>219</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>220</v>
@@ -9470,7 +9473,7 @@
         <v>239</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>56</v>
@@ -9521,7 +9524,7 @@
         <v>42</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>1576</v>
+        <v>1583</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>56</v>
@@ -9572,7 +9575,7 @@
         <v>76</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G77" s="1" t="s">
         <v>22</v>
@@ -9674,7 +9677,7 @@
         <v>76</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G79" s="1" t="s">
         <v>200</v>
@@ -9725,7 +9728,7 @@
         <v>246</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>1576</v>
+        <v>1583</v>
       </c>
       <c r="G80" s="1" t="s">
         <v>200</v>
@@ -9776,7 +9779,7 @@
         <v>42</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>1576</v>
+        <v>1583</v>
       </c>
       <c r="G81" s="1" t="s">
         <v>200</v>
@@ -9976,7 +9979,7 @@
         <v>76</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G85" s="1" t="s">
         <v>22</v>
@@ -10229,7 +10232,7 @@
         <v>76</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G90" s="1" t="s">
         <v>22</v>
@@ -10280,7 +10283,7 @@
         <v>76</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G91" s="1" t="s">
         <v>22</v>
@@ -10433,7 +10436,7 @@
         <v>271</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>1574</v>
+        <v>1585</v>
       </c>
       <c r="G94" s="1" t="s">
         <v>56</v>
@@ -10535,7 +10538,7 @@
         <v>76</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G96" s="1" t="s">
         <v>22</v>
@@ -10688,7 +10691,7 @@
         <v>76</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G99" s="1" t="s">
         <v>22</v>
@@ -10788,7 +10791,7 @@
         <v>76</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G101" s="1" t="s">
         <v>22</v>
@@ -11043,7 +11046,7 @@
         <v>239</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>1576</v>
+        <v>1583</v>
       </c>
       <c r="G106" s="1" t="s">
         <v>33</v>
@@ -11196,7 +11199,7 @@
         <v>297</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>1576</v>
+        <v>1577</v>
       </c>
       <c r="G109" s="1" t="s">
         <v>33</v>
@@ -11298,7 +11301,7 @@
         <v>76</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G111" s="1" t="s">
         <v>33</v>
@@ -11400,7 +11403,7 @@
         <v>76</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G113" s="1" t="s">
         <v>33</v>
@@ -11551,7 +11554,7 @@
         <v>162</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="G116" s="1" t="s">
         <v>43</v>
@@ -11602,7 +11605,7 @@
         <v>76</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G117" s="1" t="s">
         <v>22</v>
@@ -11653,7 +11656,7 @@
         <v>180</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="G118" s="1" t="s">
         <v>43</v>
@@ -11704,7 +11707,7 @@
         <v>311</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
       <c r="G119" s="1" t="s">
         <v>43</v>
@@ -11806,7 +11809,7 @@
         <v>315</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>1576</v>
+        <v>1583</v>
       </c>
       <c r="G121" s="1" t="s">
         <v>43</v>
@@ -12004,7 +12007,7 @@
         <v>76</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G125" s="1" t="s">
         <v>22</v>
@@ -12055,7 +12058,7 @@
         <v>219</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="G126" s="1" t="s">
         <v>33</v>
@@ -12361,7 +12364,7 @@
         <v>76</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G132" s="1" t="s">
         <v>33</v>
@@ -12614,7 +12617,7 @@
         <v>76</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G137" s="1" t="s">
         <v>33</v>
@@ -12665,7 +12668,7 @@
         <v>76</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G138" s="1" t="s">
         <v>200</v>
@@ -12767,7 +12770,7 @@
         <v>76</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G140" s="1" t="s">
         <v>22</v>
@@ -12818,7 +12821,7 @@
         <v>345</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G141" s="1" t="s">
         <v>56</v>
@@ -12969,7 +12972,7 @@
         <v>219</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="G144" s="1" t="s">
         <v>220</v>
@@ -13020,7 +13023,7 @@
         <v>76</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G145" s="1" t="s">
         <v>22</v>
@@ -13167,7 +13170,7 @@
         <v>76</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G148" s="1" t="s">
         <v>33</v>
@@ -13318,7 +13321,7 @@
         <v>363</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>1576</v>
+        <v>1583</v>
       </c>
       <c r="G151" s="1" t="s">
         <v>187</v>
@@ -13420,7 +13423,7 @@
         <v>76</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G153" s="1" t="s">
         <v>22</v>
@@ -13471,7 +13474,7 @@
         <v>76</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G154" s="1" t="s">
         <v>22</v>
@@ -13573,7 +13576,7 @@
         <v>76</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G156" s="1" t="s">
         <v>56</v>
@@ -13624,7 +13627,7 @@
         <v>371</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
       <c r="G157" s="1" t="s">
         <v>56</v>
@@ -13826,7 +13829,7 @@
         <v>378</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>1575</v>
+        <v>1573</v>
       </c>
       <c r="G161" s="1" t="s">
         <v>43</v>
@@ -13875,7 +13878,7 @@
         <v>380</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>1574</v>
+        <v>1585</v>
       </c>
       <c r="G162" s="1" t="s">
         <v>56</v>
@@ -13969,7 +13972,7 @@
         <v>381</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="G164" s="1" t="s">
         <v>56</v>
@@ -14120,7 +14123,7 @@
         <v>219</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="G167" s="1" t="s">
         <v>220</v>
@@ -14171,7 +14174,7 @@
         <v>76</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G168" s="1" t="s">
         <v>22</v>
@@ -14222,7 +14225,7 @@
         <v>390</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="G169" s="1" t="s">
         <v>33</v>
@@ -14375,7 +14378,7 @@
         <v>180</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="G172" s="1" t="s">
         <v>43</v>
@@ -14477,7 +14480,7 @@
         <v>42</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>1576</v>
+        <v>1583</v>
       </c>
       <c r="G174" s="1" t="s">
         <v>43</v>
@@ -14677,7 +14680,7 @@
         <v>409</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="G178" s="1" t="s">
         <v>43</v>
@@ -14728,7 +14731,7 @@
         <v>76</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G179" s="1" t="s">
         <v>22</v>
@@ -14866,10 +14869,10 @@
     </row>
     <row r="182" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A182" s="4" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="C182" s="4"/>
       <c r="D182" s="1" t="s">
@@ -14879,7 +14882,7 @@
         <v>162</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="G182" s="1" t="s">
         <v>43</v>
@@ -14932,7 +14935,7 @@
         <v>418</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>1576</v>
+        <v>1583</v>
       </c>
       <c r="G183" s="1" t="s">
         <v>33</v>
@@ -15034,7 +15037,7 @@
         <v>162</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="G185" s="1" t="s">
         <v>56</v>
@@ -15083,7 +15086,7 @@
         <v>76</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G186" s="1" t="s">
         <v>33</v>
@@ -15589,7 +15592,7 @@
         <v>441</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="G196" s="1" t="s">
         <v>131</v>
@@ -15638,7 +15641,7 @@
         <v>442</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
       <c r="G197" s="1" t="s">
         <v>131</v>
@@ -15687,7 +15690,7 @@
         <v>443</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="G198" s="1" t="s">
         <v>131</v>
@@ -15738,7 +15741,7 @@
         <v>446</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="G199" s="1" t="s">
         <v>56</v>
@@ -15787,7 +15790,7 @@
         <v>84</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>1576</v>
+        <v>1583</v>
       </c>
       <c r="G200" s="1" t="s">
         <v>33</v>
@@ -16085,7 +16088,7 @@
         <v>199</v>
       </c>
       <c r="F206" s="1" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="G206" s="1" t="s">
         <v>56</v>
@@ -16136,7 +16139,7 @@
         <v>457</v>
       </c>
       <c r="F207" s="1" t="s">
-        <v>1574</v>
+        <v>1585</v>
       </c>
       <c r="G207" s="1" t="s">
         <v>56</v>
@@ -16187,7 +16190,7 @@
         <v>76</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G208" s="1" t="s">
         <v>56</v>
@@ -16238,7 +16241,7 @@
         <v>162</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="G209" s="1" t="s">
         <v>56</v>
@@ -16289,7 +16292,7 @@
         <v>84</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>1576</v>
+        <v>1583</v>
       </c>
       <c r="G210" s="1" t="s">
         <v>56</v>
@@ -16340,7 +16343,7 @@
         <v>460</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>1574</v>
+        <v>1585</v>
       </c>
       <c r="G211" s="1" t="s">
         <v>43</v>
@@ -16442,7 +16445,7 @@
         <v>76</v>
       </c>
       <c r="F213" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G213" s="1" t="s">
         <v>33</v>
@@ -16493,7 +16496,7 @@
         <v>76</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G214" s="1" t="s">
         <v>33</v>
@@ -16595,7 +16598,7 @@
         <v>76</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G216" s="1" t="s">
         <v>200</v>
@@ -16646,7 +16649,7 @@
         <v>463</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="G217" s="1" t="s">
         <v>200</v>
@@ -16697,7 +16700,7 @@
         <v>76</v>
       </c>
       <c r="F218" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G218" s="1" t="s">
         <v>22</v>
@@ -16748,7 +16751,7 @@
         <v>466</v>
       </c>
       <c r="F219" s="1" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="G219" s="1" t="s">
         <v>56</v>
@@ -16799,7 +16802,7 @@
         <v>278</v>
       </c>
       <c r="F220" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G220" s="1" t="s">
         <v>56</v>
@@ -16850,7 +16853,7 @@
         <v>467</v>
       </c>
       <c r="F221" s="1" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="G221" s="1" t="s">
         <v>56</v>
@@ -16901,7 +16904,7 @@
         <v>76</v>
       </c>
       <c r="F222" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G222" s="1" t="s">
         <v>22</v>
@@ -17003,7 +17006,7 @@
         <v>472</v>
       </c>
       <c r="F224" s="1" t="s">
-        <v>1576</v>
+        <v>1583</v>
       </c>
       <c r="G224" s="1" t="s">
         <v>187</v>
@@ -17054,7 +17057,7 @@
         <v>473</v>
       </c>
       <c r="F225" s="1" t="s">
-        <v>1575</v>
+        <v>1573</v>
       </c>
       <c r="G225" s="1" t="s">
         <v>56</v>
@@ -17303,7 +17306,7 @@
         <v>485</v>
       </c>
       <c r="F230" s="1" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="G230" s="1" t="s">
         <v>187</v>
@@ -17556,7 +17559,7 @@
         <v>76</v>
       </c>
       <c r="F235" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G235" s="1" t="s">
         <v>33</v>
@@ -17607,7 +17610,7 @@
         <v>495</v>
       </c>
       <c r="F236" s="1" t="s">
-        <v>1574</v>
+        <v>1585</v>
       </c>
       <c r="G236" s="1" t="s">
         <v>33</v>
@@ -17858,7 +17861,7 @@
         <v>75</v>
       </c>
       <c r="F241" s="1" t="s">
-        <v>1574</v>
+        <v>1585</v>
       </c>
       <c r="G241" s="1" t="s">
         <v>33</v>
@@ -18005,7 +18008,7 @@
         <v>75</v>
       </c>
       <c r="F244" s="1" t="s">
-        <v>1574</v>
+        <v>1585</v>
       </c>
       <c r="G244" s="1" t="s">
         <v>33</v>
@@ -18056,7 +18059,7 @@
         <v>513</v>
       </c>
       <c r="F245" s="1" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="G245" s="1" t="s">
         <v>43</v>
@@ -18158,7 +18161,7 @@
         <v>517</v>
       </c>
       <c r="F247" s="1" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="G247" s="1" t="s">
         <v>43</v>
@@ -18209,7 +18212,7 @@
         <v>160</v>
       </c>
       <c r="F248" s="1" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="G248" s="1" t="s">
         <v>43</v>
@@ -18260,7 +18263,7 @@
         <v>520</v>
       </c>
       <c r="F249" s="1" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="G249" s="1" t="s">
         <v>43</v>
@@ -18409,7 +18412,7 @@
         <v>526</v>
       </c>
       <c r="F252" s="1" t="s">
-        <v>1576</v>
+        <v>1583</v>
       </c>
       <c r="G252" s="1" t="s">
         <v>187</v>
@@ -18511,7 +18514,7 @@
         <v>219</v>
       </c>
       <c r="F254" s="1" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="G254" s="1" t="s">
         <v>220</v>
@@ -18613,7 +18616,7 @@
         <v>76</v>
       </c>
       <c r="F256" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G256" s="1" t="s">
         <v>22</v>
@@ -18860,7 +18863,7 @@
         <v>162</v>
       </c>
       <c r="F261" s="1" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="G261" s="1" t="s">
         <v>43</v>
@@ -19107,7 +19110,7 @@
         <v>76</v>
       </c>
       <c r="F266" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G266" s="1" t="s">
         <v>22</v>
@@ -19209,7 +19212,7 @@
         <v>199</v>
       </c>
       <c r="F268" s="1" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="G268" s="1" t="s">
         <v>56</v>
@@ -19260,7 +19263,7 @@
         <v>84</v>
       </c>
       <c r="F269" s="1" t="s">
-        <v>1576</v>
+        <v>1583</v>
       </c>
       <c r="G269" s="1" t="s">
         <v>56</v>
@@ -19311,7 +19314,7 @@
         <v>315</v>
       </c>
       <c r="F270" s="1" t="s">
-        <v>1576</v>
+        <v>1583</v>
       </c>
       <c r="G270" s="1" t="s">
         <v>56</v>
@@ -19464,7 +19467,7 @@
         <v>76</v>
       </c>
       <c r="F273" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G273" s="1" t="s">
         <v>22</v>
@@ -19611,7 +19614,7 @@
         <v>76</v>
       </c>
       <c r="F276" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G276" s="1" t="s">
         <v>22</v>
@@ -19762,7 +19765,7 @@
         <v>560</v>
       </c>
       <c r="F279" s="1" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="G279" s="1" t="s">
         <v>56</v>
@@ -19856,7 +19859,7 @@
         <v>76</v>
       </c>
       <c r="F281" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G281" s="1" t="s">
         <v>22</v>
@@ -19954,7 +19957,7 @@
         <v>76</v>
       </c>
       <c r="F283" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G283" s="1" t="s">
         <v>200</v>
@@ -20005,7 +20008,7 @@
         <v>513</v>
       </c>
       <c r="F284" s="1" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="G284" s="1" t="s">
         <v>200</v>
@@ -20056,7 +20059,7 @@
         <v>566</v>
       </c>
       <c r="F285" s="1" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
       <c r="G285" s="1" t="s">
         <v>43</v>
@@ -20107,7 +20110,7 @@
         <v>76</v>
       </c>
       <c r="F286" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G286" s="1" t="s">
         <v>22</v>
@@ -20158,7 +20161,7 @@
         <v>76</v>
       </c>
       <c r="F287" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G287" s="1" t="s">
         <v>22</v>
@@ -20260,7 +20263,7 @@
         <v>574</v>
       </c>
       <c r="F289" s="1" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="G289" s="1" t="s">
         <v>43</v>
@@ -20309,7 +20312,7 @@
         <v>162</v>
       </c>
       <c r="F290" s="1" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="G290" s="1" t="s">
         <v>43</v>
@@ -20462,7 +20465,7 @@
         <v>76</v>
       </c>
       <c r="F293" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G293" s="1" t="s">
         <v>33</v>
@@ -20513,7 +20516,7 @@
         <v>278</v>
       </c>
       <c r="F294" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G294" s="1" t="s">
         <v>33</v>
@@ -20615,7 +20618,7 @@
         <v>228</v>
       </c>
       <c r="F296" s="1" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="G296" s="1" t="s">
         <v>33</v>
@@ -20668,7 +20671,7 @@
         <v>76</v>
       </c>
       <c r="F297" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G297" s="1" t="s">
         <v>22</v>
@@ -20719,7 +20722,7 @@
         <v>219</v>
       </c>
       <c r="F298" s="1" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="G298" s="1" t="s">
         <v>220</v>
@@ -20866,7 +20869,7 @@
         <v>219</v>
       </c>
       <c r="F301" s="1" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="G301" s="1" t="s">
         <v>220</v>
@@ -20917,7 +20920,7 @@
         <v>594</v>
       </c>
       <c r="F302" s="1" t="s">
-        <v>1574</v>
+        <v>1585</v>
       </c>
       <c r="G302" s="1" t="s">
         <v>43</v>
@@ -21019,7 +21022,7 @@
         <v>76</v>
       </c>
       <c r="F304" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G304" s="1" t="s">
         <v>22</v>
@@ -21121,7 +21124,7 @@
         <v>76</v>
       </c>
       <c r="F306" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G306" s="1" t="s">
         <v>22</v>
@@ -21274,7 +21277,7 @@
         <v>495</v>
       </c>
       <c r="F309" s="1" t="s">
-        <v>1574</v>
+        <v>1585</v>
       </c>
       <c r="G309" s="1" t="s">
         <v>33</v>
@@ -21478,7 +21481,7 @@
         <v>76</v>
       </c>
       <c r="F313" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G313" s="1" t="s">
         <v>22</v>
@@ -21529,7 +21532,7 @@
         <v>76</v>
       </c>
       <c r="F314" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G314" s="1" t="s">
         <v>33</v>
@@ -21631,7 +21634,7 @@
         <v>613</v>
       </c>
       <c r="F316" s="1" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="G316" s="1" t="s">
         <v>187</v>
@@ -21784,7 +21787,7 @@
         <v>76</v>
       </c>
       <c r="F319" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G319" s="1" t="s">
         <v>22</v>
@@ -22086,7 +22089,7 @@
         <v>159</v>
       </c>
       <c r="F325" s="1" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="G325" s="1" t="s">
         <v>56</v>
@@ -22186,7 +22189,7 @@
         <v>594</v>
       </c>
       <c r="F327" s="1" t="s">
-        <v>1574</v>
+        <v>1585</v>
       </c>
       <c r="G327" s="1" t="s">
         <v>634</v>
@@ -22237,7 +22240,7 @@
         <v>495</v>
       </c>
       <c r="F328" s="1" t="s">
-        <v>1574</v>
+        <v>1585</v>
       </c>
       <c r="G328" s="1" t="s">
         <v>634</v>
@@ -22594,7 +22597,7 @@
         <v>653</v>
       </c>
       <c r="F335" s="1" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="G335" s="1" t="s">
         <v>187</v>
@@ -22645,7 +22648,7 @@
         <v>654</v>
       </c>
       <c r="F336" s="1" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="G336" s="1" t="s">
         <v>187</v>
@@ -22794,7 +22797,7 @@
         <v>76</v>
       </c>
       <c r="F339" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G339" s="1" t="s">
         <v>33</v>
@@ -22998,7 +23001,7 @@
         <v>160</v>
       </c>
       <c r="F343" s="1" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="G343" s="1" t="s">
         <v>33</v>
@@ -23100,7 +23103,7 @@
         <v>76</v>
       </c>
       <c r="F345" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G345" s="1" t="s">
         <v>187</v>
@@ -23200,7 +23203,7 @@
         <v>76</v>
       </c>
       <c r="F347" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G347" s="1" t="s">
         <v>22</v>
@@ -23353,7 +23356,7 @@
         <v>159</v>
       </c>
       <c r="F350" s="1" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="G350" s="1" t="s">
         <v>33</v>
@@ -23404,7 +23407,7 @@
         <v>76</v>
       </c>
       <c r="F351" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G351" s="1" t="s">
         <v>22</v>
@@ -23455,7 +23458,7 @@
         <v>76</v>
       </c>
       <c r="F352" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G352" s="1" t="s">
         <v>22</v>
@@ -23506,7 +23509,7 @@
         <v>76</v>
       </c>
       <c r="F353" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G353" s="1" t="s">
         <v>22</v>
@@ -23608,7 +23611,7 @@
         <v>686</v>
       </c>
       <c r="F355" s="1" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
       <c r="G355" s="1" t="s">
         <v>33</v>
@@ -23659,7 +23662,7 @@
         <v>76</v>
       </c>
       <c r="F356" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G356" s="1" t="s">
         <v>22</v>
@@ -23710,7 +23713,7 @@
         <v>219</v>
       </c>
       <c r="F357" s="1" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="G357" s="1" t="s">
         <v>220</v>
@@ -23810,7 +23813,7 @@
         <v>219</v>
       </c>
       <c r="F359" s="1" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="G359" s="1" t="s">
         <v>220</v>
@@ -24210,7 +24213,7 @@
         <v>706</v>
       </c>
       <c r="F367" s="1" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
       <c r="G367" s="1" t="s">
         <v>43</v>
@@ -24312,7 +24315,7 @@
         <v>76</v>
       </c>
       <c r="F369" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G369" s="1" t="s">
         <v>33</v>
@@ -24924,7 +24927,7 @@
         <v>76</v>
       </c>
       <c r="F381" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G381" s="1" t="s">
         <v>22</v>
@@ -25026,7 +25029,7 @@
         <v>75</v>
       </c>
       <c r="F383" s="1" t="s">
-        <v>1574</v>
+        <v>1585</v>
       </c>
       <c r="G383" s="1" t="s">
         <v>33</v>
@@ -25077,7 +25080,7 @@
         <v>495</v>
       </c>
       <c r="F384" s="1" t="s">
-        <v>1574</v>
+        <v>1585</v>
       </c>
       <c r="G384" s="1" t="s">
         <v>33</v>
@@ -25532,7 +25535,7 @@
         <v>219</v>
       </c>
       <c r="F393" s="1" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="G393" s="1" t="s">
         <v>220</v>
@@ -25674,7 +25677,7 @@
         <v>748</v>
       </c>
       <c r="C396" s="4" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="D396" s="1" t="s">
         <v>19</v>
@@ -25683,7 +25686,7 @@
         <v>749</v>
       </c>
       <c r="F396" s="1" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
       <c r="G396" s="1" t="s">
         <v>56</v>
@@ -25834,7 +25837,7 @@
         <v>199</v>
       </c>
       <c r="F399" s="1" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="G399" s="1" t="s">
         <v>200</v>
@@ -25936,7 +25939,7 @@
         <v>84</v>
       </c>
       <c r="F401" s="1" t="s">
-        <v>1576</v>
+        <v>1583</v>
       </c>
       <c r="G401" s="1" t="s">
         <v>43</v>
@@ -26089,7 +26092,7 @@
         <v>76</v>
       </c>
       <c r="F404" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G404" s="1" t="s">
         <v>22</v>
@@ -26185,7 +26188,7 @@
         <v>761</v>
       </c>
       <c r="F406" s="1" t="s">
-        <v>1576</v>
+        <v>1583</v>
       </c>
       <c r="G406" s="1" t="s">
         <v>187</v>
@@ -26336,7 +26339,7 @@
         <v>76</v>
       </c>
       <c r="F409" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G409" s="1" t="s">
         <v>22</v>
@@ -26531,7 +26534,7 @@
         <v>774</v>
       </c>
       <c r="C413" s="4" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="D413" s="1" t="s">
         <v>19</v>
@@ -26742,7 +26745,7 @@
         <v>162</v>
       </c>
       <c r="F417" s="1" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="G417" s="1" t="s">
         <v>56</v>
@@ -26946,7 +26949,7 @@
         <v>76</v>
       </c>
       <c r="F421" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G421" s="1" t="s">
         <v>22</v>
@@ -27252,7 +27255,7 @@
         <v>706</v>
       </c>
       <c r="F427" s="1" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
       <c r="G427" s="1" t="s">
         <v>43</v>
@@ -27403,7 +27406,7 @@
         <v>76</v>
       </c>
       <c r="F430" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G430" s="1" t="s">
         <v>22</v>
@@ -27556,7 +27559,7 @@
         <v>76</v>
       </c>
       <c r="F433" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G433" s="1" t="s">
         <v>33</v>
@@ -27658,7 +27661,7 @@
         <v>76</v>
       </c>
       <c r="F435" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G435" s="1" t="s">
         <v>33</v>
@@ -27709,7 +27712,7 @@
         <v>819</v>
       </c>
       <c r="F436" s="1" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
       <c r="G436" s="1" t="s">
         <v>43</v>
@@ -27760,7 +27763,7 @@
         <v>76</v>
       </c>
       <c r="F437" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G437" s="1" t="s">
         <v>22</v>
@@ -27811,7 +27814,7 @@
         <v>76</v>
       </c>
       <c r="F438" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G438" s="1" t="s">
         <v>22</v>
@@ -28015,7 +28018,7 @@
         <v>831</v>
       </c>
       <c r="F442" s="1" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="G442" s="1" t="s">
         <v>187</v>
@@ -28066,7 +28069,7 @@
         <v>832</v>
       </c>
       <c r="F443" s="1" t="s">
-        <v>1576</v>
+        <v>1583</v>
       </c>
       <c r="G443" s="1" t="s">
         <v>187</v>
@@ -28166,7 +28169,7 @@
         <v>76</v>
       </c>
       <c r="F445" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G445" s="1" t="s">
         <v>33</v>
@@ -28217,7 +28220,7 @@
         <v>76</v>
       </c>
       <c r="F446" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G446" s="1" t="s">
         <v>33</v>
@@ -28370,7 +28373,7 @@
         <v>76</v>
       </c>
       <c r="F449" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G449" s="1" t="s">
         <v>22</v>
@@ -28421,7 +28424,7 @@
         <v>844</v>
       </c>
       <c r="F450" s="1" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="G450" s="1" t="s">
         <v>43</v>
@@ -28472,7 +28475,7 @@
         <v>845</v>
       </c>
       <c r="F451" s="1" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
       <c r="G451" s="1" t="s">
         <v>43</v>
@@ -28674,7 +28677,7 @@
         <v>852</v>
       </c>
       <c r="F455" s="1" t="s">
-        <v>1574</v>
+        <v>1585</v>
       </c>
       <c r="G455" s="1" t="s">
         <v>56</v>
@@ -28772,7 +28775,7 @@
         <v>75</v>
       </c>
       <c r="F457" s="1" t="s">
-        <v>1574</v>
+        <v>1585</v>
       </c>
       <c r="G457" s="1" t="s">
         <v>33</v>
@@ -29078,7 +29081,7 @@
         <v>864</v>
       </c>
       <c r="F463" s="1" t="s">
-        <v>1574</v>
+        <v>1585</v>
       </c>
       <c r="G463" s="1" t="s">
         <v>43</v>
@@ -29174,7 +29177,7 @@
         <v>76</v>
       </c>
       <c r="F465" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G465" s="1" t="s">
         <v>22</v>
@@ -29225,7 +29228,7 @@
         <v>76</v>
       </c>
       <c r="F466" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G466" s="1" t="s">
         <v>22</v>
@@ -29276,7 +29279,7 @@
         <v>76</v>
       </c>
       <c r="F467" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G467" s="1" t="s">
         <v>33</v>
@@ -29378,7 +29381,7 @@
         <v>76</v>
       </c>
       <c r="F469" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G469" s="1" t="s">
         <v>33</v>
@@ -29429,7 +29432,7 @@
         <v>84</v>
       </c>
       <c r="F470" s="1" t="s">
-        <v>1576</v>
+        <v>1583</v>
       </c>
       <c r="G470" s="1" t="s">
         <v>33</v>
@@ -29480,7 +29483,7 @@
         <v>878</v>
       </c>
       <c r="F471" s="1" t="s">
-        <v>1576</v>
+        <v>1583</v>
       </c>
       <c r="G471" s="1" t="s">
         <v>187</v>
@@ -29531,7 +29534,7 @@
         <v>76</v>
       </c>
       <c r="F472" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G472" s="1" t="s">
         <v>22</v>
@@ -29633,7 +29636,7 @@
         <v>880</v>
       </c>
       <c r="F474" s="1" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="G474" s="1" t="s">
         <v>56</v>
@@ -29733,7 +29736,7 @@
         <v>885</v>
       </c>
       <c r="F476" s="1" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
       <c r="G476" s="1" t="s">
         <v>43</v>
@@ -30039,7 +30042,7 @@
         <v>898</v>
       </c>
       <c r="F482" s="1" t="s">
-        <v>1576</v>
+        <v>1583</v>
       </c>
       <c r="G482" s="1" t="s">
         <v>187</v>
@@ -30090,7 +30093,7 @@
         <v>219</v>
       </c>
       <c r="F483" s="1" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="G483" s="1" t="s">
         <v>220</v>
@@ -30192,7 +30195,7 @@
         <v>76</v>
       </c>
       <c r="F485" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G485" s="1" t="s">
         <v>33</v>
@@ -30243,7 +30246,7 @@
         <v>76</v>
       </c>
       <c r="F486" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G486" s="1" t="s">
         <v>33</v>
@@ -30294,7 +30297,7 @@
         <v>76</v>
       </c>
       <c r="F487" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G487" s="1" t="s">
         <v>33</v>
@@ -30345,7 +30348,7 @@
         <v>76</v>
       </c>
       <c r="F488" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G488" s="1" t="s">
         <v>33</v>
@@ -30396,7 +30399,7 @@
         <v>378</v>
       </c>
       <c r="F489" s="1" t="s">
-        <v>1575</v>
+        <v>1573</v>
       </c>
       <c r="G489" s="1" t="s">
         <v>33</v>
@@ -30447,7 +30450,7 @@
         <v>84</v>
       </c>
       <c r="F490" s="1" t="s">
-        <v>1576</v>
+        <v>1583</v>
       </c>
       <c r="G490" s="1" t="s">
         <v>33</v>
@@ -30600,7 +30603,7 @@
         <v>76</v>
       </c>
       <c r="F493" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G493" s="1" t="s">
         <v>33</v>
@@ -30651,7 +30654,7 @@
         <v>517</v>
       </c>
       <c r="F494" s="1" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="G494" s="1" t="s">
         <v>56</v>
@@ -30751,7 +30754,7 @@
         <v>76</v>
       </c>
       <c r="F496" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G496" s="1" t="s">
         <v>22</v>
@@ -30904,7 +30907,7 @@
         <v>76</v>
       </c>
       <c r="F499" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G499" s="1" t="s">
         <v>33</v>
@@ -30955,7 +30958,7 @@
         <v>76</v>
       </c>
       <c r="F500" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G500" s="1" t="s">
         <v>33</v>
@@ -31057,7 +31060,7 @@
         <v>76</v>
       </c>
       <c r="F502" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G502" s="1" t="s">
         <v>22</v>
@@ -31210,7 +31213,7 @@
         <v>76</v>
       </c>
       <c r="F505" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G505" s="1" t="s">
         <v>22</v>
@@ -31312,7 +31315,7 @@
         <v>239</v>
       </c>
       <c r="F507" s="1" t="s">
-        <v>1576</v>
+        <v>1583</v>
       </c>
       <c r="G507" s="1" t="s">
         <v>56</v>
@@ -31516,7 +31519,7 @@
         <v>76</v>
       </c>
       <c r="F511" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G511" s="1" t="s">
         <v>56</v>
@@ -31618,7 +31621,7 @@
         <v>947</v>
       </c>
       <c r="F513" s="1" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="G513" s="1" t="s">
         <v>33</v>
@@ -31669,7 +31672,7 @@
         <v>311</v>
       </c>
       <c r="F514" s="1" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
       <c r="G514" s="1" t="s">
         <v>33</v>
@@ -31871,7 +31874,7 @@
         <v>76</v>
       </c>
       <c r="F518" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G518" s="1" t="s">
         <v>33</v>
@@ -31971,7 +31974,7 @@
         <v>954</v>
       </c>
       <c r="F520" s="1" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
       <c r="G520" s="1" t="s">
         <v>131</v>
@@ -32169,7 +32172,7 @@
         <v>76</v>
       </c>
       <c r="F524" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G524" s="1" t="s">
         <v>22</v>
@@ -32367,7 +32370,7 @@
         <v>159</v>
       </c>
       <c r="F528" s="1" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="G528" s="1" t="s">
         <v>56</v>
@@ -32416,7 +32419,7 @@
         <v>76</v>
       </c>
       <c r="F529" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G529" s="1" t="s">
         <v>43</v>
@@ -32467,7 +32470,7 @@
         <v>520</v>
       </c>
       <c r="F530" s="1" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="G530" s="1" t="s">
         <v>43</v>
@@ -32671,7 +32674,7 @@
         <v>76</v>
       </c>
       <c r="F534" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G534" s="1" t="s">
         <v>33</v>
@@ -32875,7 +32878,7 @@
         <v>76</v>
       </c>
       <c r="F538" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G538" s="1" t="s">
         <v>22</v>
@@ -32926,7 +32929,7 @@
         <v>76</v>
       </c>
       <c r="F539" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G539" s="1" t="s">
         <v>22</v>
@@ -33077,7 +33080,7 @@
         <v>76</v>
       </c>
       <c r="F542" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G542" s="1" t="s">
         <v>22</v>
@@ -33128,7 +33131,7 @@
         <v>749</v>
       </c>
       <c r="F543" s="1" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
       <c r="G543" s="1" t="s">
         <v>56</v>
@@ -33226,7 +33229,7 @@
         <v>76</v>
       </c>
       <c r="F545" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G545" s="1" t="s">
         <v>33</v>
@@ -33375,7 +33378,7 @@
         <v>228</v>
       </c>
       <c r="F548" s="1" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="G548" s="1" t="s">
         <v>33</v>
@@ -33477,7 +33480,7 @@
         <v>990</v>
       </c>
       <c r="F550" s="1" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="G550" s="1" t="s">
         <v>56</v>
@@ -33526,7 +33529,7 @@
         <v>749</v>
       </c>
       <c r="F551" s="1" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
       <c r="G551" s="1" t="s">
         <v>56</v>
@@ -33779,7 +33782,7 @@
         <v>495</v>
       </c>
       <c r="F556" s="1" t="s">
-        <v>1574</v>
+        <v>1585</v>
       </c>
       <c r="G556" s="1" t="s">
         <v>33</v>
@@ -33881,7 +33884,7 @@
         <v>76</v>
       </c>
       <c r="F558" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G558" s="1" t="s">
         <v>33</v>
@@ -33932,7 +33935,7 @@
         <v>162</v>
       </c>
       <c r="F559" s="1" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="G559" s="1" t="s">
         <v>200</v>
@@ -34034,7 +34037,7 @@
         <v>1003</v>
       </c>
       <c r="F561" s="1" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
       <c r="G561" s="1" t="s">
         <v>200</v>
@@ -34187,7 +34190,7 @@
         <v>76</v>
       </c>
       <c r="F564" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G564" s="1" t="s">
         <v>22</v>
@@ -34238,7 +34241,7 @@
         <v>76</v>
       </c>
       <c r="F565" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G565" s="1" t="s">
         <v>22</v>
@@ -34391,7 +34394,7 @@
         <v>76</v>
       </c>
       <c r="F568" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G568" s="1" t="s">
         <v>22</v>
@@ -34491,7 +34494,7 @@
         <v>162</v>
       </c>
       <c r="F570" s="1" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="G570" s="1" t="s">
         <v>43</v>
@@ -34595,7 +34598,7 @@
         <v>460</v>
       </c>
       <c r="F572" s="1" t="s">
-        <v>1574</v>
+        <v>1585</v>
       </c>
       <c r="G572" s="1" t="s">
         <v>43</v>
@@ -34646,7 +34649,7 @@
         <v>1019</v>
       </c>
       <c r="F573" s="1" t="s">
-        <v>1574</v>
+        <v>1585</v>
       </c>
       <c r="G573" s="1" t="s">
         <v>56</v>
@@ -34695,7 +34698,7 @@
         <v>84</v>
       </c>
       <c r="F574" s="1" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="G574" s="1" t="s">
         <v>43</v>
@@ -34746,7 +34749,7 @@
         <v>76</v>
       </c>
       <c r="F575" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G575" s="1" t="s">
         <v>22</v>
@@ -34797,7 +34800,7 @@
         <v>76</v>
       </c>
       <c r="F576" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G576" s="1" t="s">
         <v>22</v>
@@ -35052,7 +35055,7 @@
         <v>76</v>
       </c>
       <c r="F581" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G581" s="1" t="s">
         <v>22</v>
@@ -35103,7 +35106,7 @@
         <v>864</v>
       </c>
       <c r="F582" s="1" t="s">
-        <v>1574</v>
+        <v>1585</v>
       </c>
       <c r="G582" s="1" t="s">
         <v>43</v>
@@ -35358,7 +35361,7 @@
         <v>898</v>
       </c>
       <c r="F587" s="1" t="s">
-        <v>1576</v>
+        <v>1583</v>
       </c>
       <c r="G587" s="1" t="s">
         <v>187</v>
@@ -35511,7 +35514,7 @@
         <v>76</v>
       </c>
       <c r="F590" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G590" s="1" t="s">
         <v>33</v>
@@ -35562,7 +35565,7 @@
         <v>76</v>
       </c>
       <c r="F591" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G591" s="1" t="s">
         <v>33</v>
@@ -36017,7 +36020,7 @@
         <v>76</v>
       </c>
       <c r="F600" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G600" s="1" t="s">
         <v>22</v>
@@ -36068,7 +36071,7 @@
         <v>76</v>
       </c>
       <c r="F601" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G601" s="1" t="s">
         <v>22</v>
@@ -36119,7 +36122,7 @@
         <v>1058</v>
       </c>
       <c r="F602" s="1" t="s">
-        <v>1576</v>
+        <v>1583</v>
       </c>
       <c r="G602" s="1" t="s">
         <v>187</v>
@@ -36270,7 +36273,7 @@
         <v>947</v>
       </c>
       <c r="F605" s="1" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="G605" s="1" t="s">
         <v>56</v>
@@ -36415,7 +36418,7 @@
         <v>1060</v>
       </c>
       <c r="F608" s="1" t="s">
-        <v>1576</v>
+        <v>1583</v>
       </c>
       <c r="G608" s="1" t="s">
         <v>131</v>
@@ -36464,7 +36467,7 @@
         <v>1061</v>
       </c>
       <c r="F609" s="1" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
       <c r="G609" s="1" t="s">
         <v>131</v>
@@ -36566,7 +36569,7 @@
         <v>495</v>
       </c>
       <c r="F611" s="1" t="s">
-        <v>1574</v>
+        <v>1585</v>
       </c>
       <c r="G611" s="1" t="s">
         <v>43</v>
@@ -36617,7 +36620,7 @@
         <v>409</v>
       </c>
       <c r="F612" s="1" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="G612" s="1" t="s">
         <v>43</v>
@@ -36716,10 +36719,10 @@
         <v>19</v>
       </c>
       <c r="E614" s="1" t="s">
-        <v>127</v>
+        <v>1584</v>
       </c>
       <c r="F614" s="1" t="s">
-        <v>128</v>
+        <v>1579</v>
       </c>
       <c r="G614" s="1" t="s">
         <v>123</v>
@@ -36817,7 +36820,7 @@
         <v>1067</v>
       </c>
       <c r="F616" s="1" t="s">
-        <v>1575</v>
+        <v>1573</v>
       </c>
       <c r="G616" s="1" t="s">
         <v>131</v>
@@ -36970,7 +36973,7 @@
         <v>76</v>
       </c>
       <c r="F619" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G619" s="1" t="s">
         <v>43</v>
@@ -37072,7 +37075,7 @@
         <v>409</v>
       </c>
       <c r="F621" s="1" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="G621" s="1" t="s">
         <v>43</v>
@@ -37123,7 +37126,7 @@
         <v>84</v>
       </c>
       <c r="F622" s="1" t="s">
-        <v>1576</v>
+        <v>1583</v>
       </c>
       <c r="G622" s="1" t="s">
         <v>56</v>
@@ -37174,7 +37177,7 @@
         <v>76</v>
       </c>
       <c r="F623" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G623" s="1" t="s">
         <v>22</v>
@@ -37225,7 +37228,7 @@
         <v>76</v>
       </c>
       <c r="F624" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G624" s="1" t="s">
         <v>22</v>
@@ -37372,7 +37375,7 @@
         <v>1074</v>
       </c>
       <c r="F627" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G627" s="1" t="s">
         <v>131</v>
@@ -37470,7 +37473,7 @@
         <v>162</v>
       </c>
       <c r="F629" s="1" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="G629" s="1" t="s">
         <v>43</v>
@@ -37521,7 +37524,7 @@
         <v>1078</v>
       </c>
       <c r="F630" s="1" t="s">
-        <v>1576</v>
+        <v>1583</v>
       </c>
       <c r="G630" s="1" t="s">
         <v>56</v>
@@ -37619,7 +37622,7 @@
         <v>1080</v>
       </c>
       <c r="F632" s="1" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
       <c r="G632" s="1" t="s">
         <v>56</v>
@@ -37719,7 +37722,7 @@
         <v>76</v>
       </c>
       <c r="F634" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G634" s="1" t="s">
         <v>22</v>
@@ -38070,7 +38073,7 @@
         <v>864</v>
       </c>
       <c r="F641" s="1" t="s">
-        <v>1574</v>
+        <v>1585</v>
       </c>
       <c r="G641" s="1" t="s">
         <v>200</v>
@@ -38121,7 +38124,7 @@
         <v>76</v>
       </c>
       <c r="F642" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G642" s="1" t="s">
         <v>22</v>
@@ -38172,7 +38175,7 @@
         <v>76</v>
       </c>
       <c r="F643" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G643" s="1" t="s">
         <v>22</v>
@@ -38274,7 +38277,7 @@
         <v>76</v>
       </c>
       <c r="F645" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G645" s="1" t="s">
         <v>56</v>
@@ -38325,7 +38328,7 @@
         <v>162</v>
       </c>
       <c r="F646" s="1" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="G646" s="1" t="s">
         <v>56</v>
@@ -38427,7 +38430,7 @@
         <v>409</v>
       </c>
       <c r="F648" s="1" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="G648" s="1" t="s">
         <v>56</v>
@@ -38478,7 +38481,7 @@
         <v>76</v>
       </c>
       <c r="F649" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G649" s="1" t="s">
         <v>22</v>
@@ -38578,7 +38581,7 @@
         <v>162</v>
       </c>
       <c r="F651" s="1" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="G651" s="1" t="s">
         <v>43</v>
@@ -38629,7 +38632,7 @@
         <v>76</v>
       </c>
       <c r="F652" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G652" s="1" t="s">
         <v>33</v>
@@ -38731,7 +38734,7 @@
         <v>76</v>
       </c>
       <c r="F654" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G654" s="1" t="s">
         <v>33</v>
@@ -38884,7 +38887,7 @@
         <v>76</v>
       </c>
       <c r="F657" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G657" s="1" t="s">
         <v>33</v>
@@ -38935,7 +38938,7 @@
         <v>1097</v>
       </c>
       <c r="F658" s="1" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="G658" s="1" t="s">
         <v>200</v>
@@ -38986,7 +38989,7 @@
         <v>1003</v>
       </c>
       <c r="F659" s="1" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
       <c r="G659" s="1" t="s">
         <v>200</v>
@@ -39037,7 +39040,7 @@
         <v>76</v>
       </c>
       <c r="F660" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G660" s="1" t="s">
         <v>22</v>
@@ -39190,7 +39193,7 @@
         <v>75</v>
       </c>
       <c r="F663" s="1" t="s">
-        <v>1574</v>
+        <v>1585</v>
       </c>
       <c r="G663" s="1" t="s">
         <v>33</v>
@@ -39286,7 +39289,7 @@
         <v>75</v>
       </c>
       <c r="F665" s="1" t="s">
-        <v>1574</v>
+        <v>1585</v>
       </c>
       <c r="G665" s="1" t="s">
         <v>33</v>
@@ -39484,7 +39487,7 @@
         <v>76</v>
       </c>
       <c r="F669" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G669" s="1" t="s">
         <v>22</v>
@@ -39535,7 +39538,7 @@
         <v>76</v>
       </c>
       <c r="F670" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G670" s="1" t="s">
         <v>33</v>
@@ -39586,7 +39589,7 @@
         <v>76</v>
       </c>
       <c r="F671" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G671" s="1" t="s">
         <v>22</v>
@@ -39637,7 +39640,7 @@
         <v>76</v>
       </c>
       <c r="F672" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G672" s="1" t="s">
         <v>33</v>
@@ -39688,7 +39691,7 @@
         <v>162</v>
       </c>
       <c r="F673" s="1" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="G673" s="1" t="s">
         <v>200</v>
@@ -39739,7 +39742,7 @@
         <v>76</v>
       </c>
       <c r="F674" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G674" s="1" t="s">
         <v>200</v>
@@ -39790,7 +39793,7 @@
         <v>228</v>
       </c>
       <c r="F675" s="1" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="G675" s="1" t="s">
         <v>200</v>
@@ -39943,7 +39946,7 @@
         <v>76</v>
       </c>
       <c r="F678" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G678" s="1" t="s">
         <v>22</v>
@@ -40147,7 +40150,7 @@
         <v>1120</v>
       </c>
       <c r="F682" s="1" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="G682" s="1" t="s">
         <v>56</v>
@@ -40247,7 +40250,7 @@
         <v>76</v>
       </c>
       <c r="F684" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G684" s="1" t="s">
         <v>22</v>
@@ -40349,7 +40352,7 @@
         <v>1125</v>
       </c>
       <c r="F686" s="1" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="G686" s="1" t="s">
         <v>187</v>
@@ -40500,7 +40503,7 @@
         <v>76</v>
       </c>
       <c r="F689" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G689" s="1" t="s">
         <v>33</v>
@@ -40551,7 +40554,7 @@
         <v>76</v>
       </c>
       <c r="F690" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G690" s="1" t="s">
         <v>33</v>
@@ -40602,7 +40605,7 @@
         <v>76</v>
       </c>
       <c r="F691" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G691" s="1" t="s">
         <v>33</v>
@@ -40702,7 +40705,7 @@
         <v>76</v>
       </c>
       <c r="F693" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G693" s="1" t="s">
         <v>22</v>
@@ -40753,7 +40756,7 @@
         <v>76</v>
       </c>
       <c r="F694" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G694" s="1" t="s">
         <v>33</v>
@@ -40853,7 +40856,7 @@
         <v>162</v>
       </c>
       <c r="F696" s="1" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="G696" s="1" t="s">
         <v>43</v>
@@ -40904,7 +40907,7 @@
         <v>1146</v>
       </c>
       <c r="F697" s="1" t="s">
-        <v>1574</v>
+        <v>1585</v>
       </c>
       <c r="G697" s="1" t="s">
         <v>1147</v>
@@ -41108,7 +41111,7 @@
         <v>75</v>
       </c>
       <c r="F701" s="1" t="s">
-        <v>1574</v>
+        <v>1585</v>
       </c>
       <c r="G701" s="1" t="s">
         <v>33</v>
@@ -41210,7 +41213,7 @@
         <v>76</v>
       </c>
       <c r="F703" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G703" s="1" t="s">
         <v>33</v>
@@ -41361,7 +41364,7 @@
         <v>864</v>
       </c>
       <c r="F706" s="1" t="s">
-        <v>1574</v>
+        <v>1585</v>
       </c>
       <c r="G706" s="1" t="s">
         <v>33</v>
@@ -41667,7 +41670,7 @@
         <v>409</v>
       </c>
       <c r="F712" s="1" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="G712" s="1" t="s">
         <v>187</v>
@@ -41718,7 +41721,7 @@
         <v>84</v>
       </c>
       <c r="F713" s="1" t="s">
-        <v>1576</v>
+        <v>1583</v>
       </c>
       <c r="G713" s="1" t="s">
         <v>43</v>
@@ -41820,7 +41823,7 @@
         <v>76</v>
       </c>
       <c r="F715" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G715" s="1" t="s">
         <v>33</v>
@@ -41871,7 +41874,7 @@
         <v>76</v>
       </c>
       <c r="F716" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G716" s="1" t="s">
         <v>33</v>
@@ -41971,7 +41974,7 @@
         <v>1177</v>
       </c>
       <c r="F718" s="1" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="G718" s="1" t="s">
         <v>56</v>
@@ -42069,7 +42072,7 @@
         <v>76</v>
       </c>
       <c r="F720" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G720" s="1" t="s">
         <v>22</v>
@@ -42171,7 +42174,7 @@
         <v>380</v>
       </c>
       <c r="F722" s="1" t="s">
-        <v>1574</v>
+        <v>1585</v>
       </c>
       <c r="G722" s="1" t="s">
         <v>43</v>
@@ -42271,7 +42274,7 @@
         <v>162</v>
       </c>
       <c r="F724" s="1" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="G724" s="1" t="s">
         <v>43</v>
@@ -42371,7 +42374,7 @@
         <v>76</v>
       </c>
       <c r="F726" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G726" s="1" t="s">
         <v>33</v>
@@ -42422,7 +42425,7 @@
         <v>76</v>
       </c>
       <c r="F727" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G727" s="1" t="s">
         <v>33</v>
@@ -42473,7 +42476,7 @@
         <v>76</v>
       </c>
       <c r="F728" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G728" s="1" t="s">
         <v>22</v>
@@ -42575,7 +42578,7 @@
         <v>76</v>
       </c>
       <c r="F730" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G730" s="1" t="s">
         <v>22</v>
@@ -42626,7 +42629,7 @@
         <v>76</v>
       </c>
       <c r="F731" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G731" s="1" t="s">
         <v>22</v>
@@ -42728,7 +42731,7 @@
         <v>239</v>
       </c>
       <c r="F733" s="1" t="s">
-        <v>1576</v>
+        <v>1583</v>
       </c>
       <c r="G733" s="1" t="s">
         <v>56</v>
@@ -42828,7 +42831,7 @@
         <v>76</v>
       </c>
       <c r="F735" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G735" s="1" t="s">
         <v>22</v>
@@ -42879,7 +42882,7 @@
         <v>42</v>
       </c>
       <c r="F736" s="1" t="s">
-        <v>1576</v>
+        <v>1583</v>
       </c>
       <c r="G736" s="1" t="s">
         <v>56</v>
@@ -42930,7 +42933,7 @@
         <v>1200</v>
       </c>
       <c r="F737" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G737" s="1" t="s">
         <v>56</v>
@@ -42981,7 +42984,7 @@
         <v>162</v>
       </c>
       <c r="F738" s="1" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="G738" s="1" t="s">
         <v>56</v>
@@ -43032,7 +43035,7 @@
         <v>84</v>
       </c>
       <c r="F739" s="1" t="s">
-        <v>1576</v>
+        <v>1583</v>
       </c>
       <c r="G739" s="1" t="s">
         <v>56</v>
@@ -43185,7 +43188,7 @@
         <v>219</v>
       </c>
       <c r="F742" s="1" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="G742" s="1" t="s">
         <v>220</v>
@@ -43236,7 +43239,7 @@
         <v>76</v>
       </c>
       <c r="F743" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G743" s="1" t="s">
         <v>22</v>
@@ -43387,7 +43390,7 @@
         <v>76</v>
       </c>
       <c r="F746" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G746" s="1" t="s">
         <v>22</v>
@@ -43846,7 +43849,7 @@
         <v>1226</v>
       </c>
       <c r="F755" s="1" t="s">
-        <v>1574</v>
+        <v>1585</v>
       </c>
       <c r="G755" s="1" t="s">
         <v>33</v>
@@ -43897,7 +43900,7 @@
         <v>84</v>
       </c>
       <c r="F756" s="1" t="s">
-        <v>1576</v>
+        <v>1583</v>
       </c>
       <c r="G756" s="1" t="s">
         <v>56</v>
@@ -43999,7 +44002,7 @@
         <v>127</v>
       </c>
       <c r="F758" s="1" t="s">
-        <v>1581</v>
+        <v>1579</v>
       </c>
       <c r="G758" s="1" t="s">
         <v>123</v>
@@ -44097,7 +44100,7 @@
         <v>706</v>
       </c>
       <c r="F760" s="1" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
       <c r="G760" s="1" t="s">
         <v>131</v>
@@ -44146,7 +44149,7 @@
         <v>1231</v>
       </c>
       <c r="F761" s="1" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="G761" s="1" t="s">
         <v>131</v>
@@ -44197,7 +44200,7 @@
         <v>76</v>
       </c>
       <c r="F762" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G762" s="1" t="s">
         <v>22</v>
@@ -44589,7 +44592,7 @@
         <v>76</v>
       </c>
       <c r="F770" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G770" s="1" t="s">
         <v>22</v>
@@ -44844,7 +44847,7 @@
         <v>76</v>
       </c>
       <c r="F775" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G775" s="1" t="s">
         <v>33</v>
@@ -44895,7 +44898,7 @@
         <v>76</v>
       </c>
       <c r="F776" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G776" s="1" t="s">
         <v>33</v>
@@ -44997,7 +45000,7 @@
         <v>177</v>
       </c>
       <c r="F778" s="1" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="G778" s="1" t="s">
         <v>56</v>
@@ -45046,7 +45049,7 @@
         <v>1258</v>
       </c>
       <c r="F779" s="1" t="s">
-        <v>1576</v>
+        <v>1583</v>
       </c>
       <c r="G779" s="1" t="s">
         <v>187</v>
@@ -45097,7 +45100,7 @@
         <v>76</v>
       </c>
       <c r="F780" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G780" s="1" t="s">
         <v>22</v>
@@ -45195,7 +45198,7 @@
         <v>162</v>
       </c>
       <c r="F782" s="1" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="G782" s="1" t="s">
         <v>43</v>
@@ -45246,7 +45249,7 @@
         <v>315</v>
       </c>
       <c r="F783" s="1" t="s">
-        <v>1576</v>
+        <v>1583</v>
       </c>
       <c r="G783" s="1" t="s">
         <v>56</v>
@@ -45348,7 +45351,7 @@
         <v>1262</v>
       </c>
       <c r="F785" s="1" t="s">
-        <v>1574</v>
+        <v>1585</v>
       </c>
       <c r="G785" s="1" t="s">
         <v>33</v>
@@ -45397,7 +45400,7 @@
         <v>1265</v>
       </c>
       <c r="F786" s="1" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="G786" s="1" t="s">
         <v>131</v>
@@ -45446,7 +45449,7 @@
         <v>1265</v>
       </c>
       <c r="F787" s="1" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="G787" s="1" t="s">
         <v>131</v>
@@ -45495,7 +45498,7 @@
         <v>1266</v>
       </c>
       <c r="F788" s="1" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
       <c r="G788" s="1" t="s">
         <v>131</v>
@@ -45595,7 +45598,7 @@
         <v>1272</v>
       </c>
       <c r="F790" s="1" t="s">
-        <v>1575</v>
+        <v>1573</v>
       </c>
       <c r="G790" s="1" t="s">
         <v>56</v>
@@ -45695,7 +45698,7 @@
         <v>76</v>
       </c>
       <c r="F792" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G792" s="1" t="s">
         <v>33</v>
@@ -46101,7 +46104,7 @@
         <v>76</v>
       </c>
       <c r="F800" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G800" s="1" t="s">
         <v>22</v>
@@ -46201,7 +46204,7 @@
         <v>76</v>
       </c>
       <c r="F802" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G802" s="1" t="s">
         <v>22</v>
@@ -46352,7 +46355,7 @@
         <v>1292</v>
       </c>
       <c r="F805" s="1" t="s">
-        <v>1574</v>
+        <v>1585</v>
       </c>
       <c r="G805" s="1" t="s">
         <v>56</v>
@@ -46652,7 +46655,7 @@
         <v>76</v>
       </c>
       <c r="F811" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G811" s="1" t="s">
         <v>22</v>
@@ -46703,7 +46706,7 @@
         <v>1298</v>
       </c>
       <c r="F812" s="1" t="s">
-        <v>1576</v>
+        <v>1583</v>
       </c>
       <c r="G812" s="1" t="s">
         <v>187</v>
@@ -46807,7 +46810,7 @@
         <v>311</v>
       </c>
       <c r="F814" s="1" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
       <c r="G814" s="1" t="s">
         <v>43</v>
@@ -46858,7 +46861,7 @@
         <v>76</v>
       </c>
       <c r="F815" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G815" s="1" t="s">
         <v>22</v>
@@ -46911,7 +46914,7 @@
         <v>1307</v>
       </c>
       <c r="F816" s="1" t="s">
-        <v>1576</v>
+        <v>1583</v>
       </c>
       <c r="G816" s="1" t="s">
         <v>187</v>
@@ -46962,7 +46965,7 @@
         <v>76</v>
       </c>
       <c r="F817" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G817" s="1" t="s">
         <v>33</v>
@@ -47064,7 +47067,7 @@
         <v>76</v>
       </c>
       <c r="F819" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G819" s="1" t="s">
         <v>33</v>
@@ -47413,7 +47416,7 @@
         <v>76</v>
       </c>
       <c r="F826" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G826" s="1" t="s">
         <v>22</v>
@@ -47566,7 +47569,7 @@
         <v>76</v>
       </c>
       <c r="F829" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G829" s="1" t="s">
         <v>56</v>
@@ -47668,7 +47671,7 @@
         <v>76</v>
       </c>
       <c r="F831" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G831" s="1" t="s">
         <v>22</v>
@@ -47974,7 +47977,7 @@
         <v>1337</v>
       </c>
       <c r="F837" s="1" t="s">
-        <v>1576</v>
+        <v>1583</v>
       </c>
       <c r="G837" s="1" t="s">
         <v>200</v>
@@ -48025,7 +48028,7 @@
         <v>1338</v>
       </c>
       <c r="F838" s="1" t="s">
-        <v>1576</v>
+        <v>1583</v>
       </c>
       <c r="G838" s="1" t="s">
         <v>200</v>
@@ -48076,7 +48079,7 @@
         <v>495</v>
       </c>
       <c r="F839" s="1" t="s">
-        <v>1574</v>
+        <v>1585</v>
       </c>
       <c r="G839" s="1" t="s">
         <v>200</v>
@@ -48127,7 +48130,7 @@
         <v>76</v>
       </c>
       <c r="F840" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G840" s="1" t="s">
         <v>22</v>
@@ -48229,7 +48232,7 @@
         <v>162</v>
       </c>
       <c r="F842" s="1" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="G842" s="1" t="s">
         <v>200</v>
@@ -48280,7 +48283,7 @@
         <v>1003</v>
       </c>
       <c r="F843" s="1" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
       <c r="G843" s="1" t="s">
         <v>200</v>
@@ -48331,7 +48334,7 @@
         <v>76</v>
       </c>
       <c r="F844" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G844" s="1" t="s">
         <v>200</v>
@@ -48382,7 +48385,7 @@
         <v>76</v>
       </c>
       <c r="F845" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G845" s="1" t="s">
         <v>22</v>
@@ -48433,7 +48436,7 @@
         <v>76</v>
       </c>
       <c r="F846" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G846" s="1" t="s">
         <v>33</v>
@@ -48484,7 +48487,7 @@
         <v>76</v>
       </c>
       <c r="F847" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G847" s="1" t="s">
         <v>33</v>
@@ -48535,7 +48538,7 @@
         <v>76</v>
       </c>
       <c r="F848" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G848" s="1" t="s">
         <v>22</v>
@@ -48637,7 +48640,7 @@
         <v>76</v>
       </c>
       <c r="F850" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G850" s="1" t="s">
         <v>22</v>
@@ -48841,7 +48844,7 @@
         <v>76</v>
       </c>
       <c r="F854" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G854" s="1" t="s">
         <v>22</v>
@@ -48892,7 +48895,7 @@
         <v>76</v>
       </c>
       <c r="F855" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G855" s="1" t="s">
         <v>22</v>
@@ -49045,7 +49048,7 @@
         <v>159</v>
       </c>
       <c r="F858" s="1" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="G858" s="1" t="s">
         <v>43</v>
@@ -49145,7 +49148,7 @@
         <v>457</v>
       </c>
       <c r="F860" s="1" t="s">
-        <v>1574</v>
+        <v>1585</v>
       </c>
       <c r="G860" s="1" t="s">
         <v>56</v>
@@ -49196,7 +49199,7 @@
         <v>76</v>
       </c>
       <c r="F861" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G861" s="1" t="s">
         <v>56</v>
@@ -49247,7 +49250,7 @@
         <v>84</v>
       </c>
       <c r="F862" s="1" t="s">
-        <v>1576</v>
+        <v>1583</v>
       </c>
       <c r="G862" s="1" t="s">
         <v>56</v>
@@ -49298,7 +49301,7 @@
         <v>311</v>
       </c>
       <c r="F863" s="1" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
       <c r="G863" s="1" t="s">
         <v>56</v>
@@ -49398,7 +49401,7 @@
         <v>219</v>
       </c>
       <c r="F865" s="1" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="G865" s="1" t="s">
         <v>220</v>
@@ -49449,7 +49452,7 @@
         <v>76</v>
       </c>
       <c r="F866" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G866" s="1" t="s">
         <v>22</v>
@@ -49500,7 +49503,7 @@
         <v>76</v>
       </c>
       <c r="F867" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G867" s="1" t="s">
         <v>22</v>
@@ -49551,7 +49554,7 @@
         <v>898</v>
       </c>
       <c r="F868" s="1" t="s">
-        <v>1576</v>
+        <v>1583</v>
       </c>
       <c r="G868" s="1" t="s">
         <v>187</v>
@@ -49700,7 +49703,7 @@
         <v>1378</v>
       </c>
       <c r="F871" s="1" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
       <c r="G871" s="1" t="s">
         <v>131</v>
@@ -49749,7 +49752,7 @@
         <v>1379</v>
       </c>
       <c r="F872" s="1" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
       <c r="G872" s="1" t="s">
         <v>131</v>
@@ -49851,7 +49854,7 @@
         <v>76</v>
       </c>
       <c r="F874" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G874" s="1" t="s">
         <v>200</v>
@@ -49953,7 +49956,7 @@
         <v>76</v>
       </c>
       <c r="F876" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G876" s="1" t="s">
         <v>22</v>
@@ -50004,7 +50007,7 @@
         <v>76</v>
       </c>
       <c r="F877" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G877" s="1" t="s">
         <v>22</v>
@@ -50408,7 +50411,7 @@
         <v>76</v>
       </c>
       <c r="F885" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G885" s="1" t="s">
         <v>33</v>
@@ -50459,7 +50462,7 @@
         <v>76</v>
       </c>
       <c r="F886" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G886" s="1" t="s">
         <v>33</v>
@@ -50654,7 +50657,7 @@
         <v>1401</v>
       </c>
       <c r="C890" s="6" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="D890" s="1" t="s">
         <v>65</v>
@@ -50712,7 +50715,7 @@
         <v>1265</v>
       </c>
       <c r="F891" s="1" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="G891" s="1" t="s">
         <v>131</v>
@@ -50810,7 +50813,7 @@
         <v>460</v>
       </c>
       <c r="F893" s="1" t="s">
-        <v>1574</v>
+        <v>1585</v>
       </c>
       <c r="G893" s="1" t="s">
         <v>131</v>
@@ -50861,7 +50864,7 @@
         <v>76</v>
       </c>
       <c r="F894" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G894" s="1" t="s">
         <v>33</v>
@@ -50912,7 +50915,7 @@
         <v>76</v>
       </c>
       <c r="F895" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G895" s="1" t="s">
         <v>33</v>
@@ -50963,7 +50966,7 @@
         <v>76</v>
       </c>
       <c r="F896" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G896" s="1" t="s">
         <v>33</v>
@@ -51014,7 +51017,7 @@
         <v>76</v>
       </c>
       <c r="F897" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G897" s="1" t="s">
         <v>33</v>
@@ -51263,7 +51266,7 @@
         <v>162</v>
       </c>
       <c r="F902" s="1" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="G902" s="1" t="s">
         <v>43</v>
@@ -51518,7 +51521,7 @@
         <v>76</v>
       </c>
       <c r="F907" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G907" s="1" t="s">
         <v>33</v>
@@ -51620,7 +51623,7 @@
         <v>76</v>
       </c>
       <c r="F909" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G909" s="1" t="s">
         <v>22</v>
@@ -51671,7 +51674,7 @@
         <v>84</v>
       </c>
       <c r="F910" s="1" t="s">
-        <v>1576</v>
+        <v>1583</v>
       </c>
       <c r="G910" s="1" t="s">
         <v>187</v>
@@ -51722,7 +51725,7 @@
         <v>76</v>
       </c>
       <c r="F911" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G911" s="1" t="s">
         <v>22</v>
@@ -51775,7 +51778,7 @@
         <v>76</v>
       </c>
       <c r="F912" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G912" s="1" t="s">
         <v>22</v>
@@ -51928,7 +51931,7 @@
         <v>180</v>
       </c>
       <c r="F915" s="1" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="G915" s="1" t="s">
         <v>43</v>
@@ -51977,7 +51980,7 @@
         <v>162</v>
       </c>
       <c r="F916" s="1" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="G916" s="1" t="s">
         <v>43</v>
@@ -52028,7 +52031,7 @@
         <v>76</v>
       </c>
       <c r="F917" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G917" s="1" t="s">
         <v>22</v>
@@ -52130,7 +52133,7 @@
         <v>159</v>
       </c>
       <c r="F919" s="1" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="G919" s="1" t="s">
         <v>33</v>
@@ -52283,7 +52286,7 @@
         <v>880</v>
       </c>
       <c r="F922" s="1" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="G922" s="1" t="s">
         <v>56</v>
@@ -52434,7 +52437,7 @@
         <v>1446</v>
       </c>
       <c r="F925" s="1" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
       <c r="G925" s="1" t="s">
         <v>33</v>
@@ -52689,7 +52692,7 @@
         <v>76</v>
       </c>
       <c r="F930" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G930" s="1" t="s">
         <v>22</v>
@@ -52740,7 +52743,7 @@
         <v>76</v>
       </c>
       <c r="F931" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G931" s="1" t="s">
         <v>22</v>
@@ -52788,7 +52791,7 @@
         <v>19</v>
       </c>
       <c r="E932" s="1" t="s">
-        <v>1453</v>
+        <v>20</v>
       </c>
       <c r="F932" s="1" t="s">
         <v>21</v>
@@ -52827,22 +52830,22 @@
     </row>
     <row r="933" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A933" s="4" t="s">
+        <v>1453</v>
+      </c>
+      <c r="B933" s="4" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C933" s="4" t="s">
         <v>1454</v>
       </c>
-      <c r="B933" s="4" t="s">
-        <v>1454</v>
-      </c>
-      <c r="C933" s="4" t="s">
+      <c r="D933" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E933" s="1" t="s">
         <v>1455</v>
       </c>
-      <c r="D933" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E933" s="1" t="s">
-        <v>1456</v>
-      </c>
       <c r="F933" s="1" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="G933" s="1" t="s">
         <v>43</v>
@@ -52875,18 +52878,18 @@
         <v>38</v>
       </c>
       <c r="Q933" s="1" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="934" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A934" s="4" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="B934" s="4" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="C934" s="4" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="D934" s="1" t="s">
         <v>19</v>
@@ -52895,7 +52898,7 @@
         <v>76</v>
       </c>
       <c r="F934" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G934" s="1" t="s">
         <v>22</v>
@@ -52931,13 +52934,13 @@
     </row>
     <row r="935" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A935" s="4" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B935" s="4" t="s">
+        <v>1458</v>
+      </c>
+      <c r="C935" s="4" t="s">
         <v>1459</v>
-      </c>
-      <c r="B935" s="4" t="s">
-        <v>1459</v>
-      </c>
-      <c r="C935" s="4" t="s">
-        <v>1460</v>
       </c>
       <c r="D935" s="1" t="s">
         <v>19</v>
@@ -52946,7 +52949,7 @@
         <v>845</v>
       </c>
       <c r="F935" s="1" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
       <c r="G935" s="1" t="s">
         <v>43</v>
@@ -52982,22 +52985,22 @@
     </row>
     <row r="936" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A936" s="4" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B936" s="4" t="s">
+        <v>1458</v>
+      </c>
+      <c r="C936" s="4" t="s">
         <v>1459</v>
       </c>
-      <c r="B936" s="4" t="s">
-        <v>1459</v>
-      </c>
-      <c r="C936" s="4" t="s">
+      <c r="D936" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E936" s="1" t="s">
         <v>1460</v>
       </c>
-      <c r="D936" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E936" s="1" t="s">
-        <v>1461</v>
-      </c>
       <c r="F936" s="1" t="s">
-        <v>1574</v>
+        <v>1585</v>
       </c>
       <c r="G936" s="1" t="s">
         <v>43</v>
@@ -53033,13 +53036,13 @@
     </row>
     <row r="937" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A937" s="4" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B937" s="4" t="s">
+        <v>1458</v>
+      </c>
+      <c r="C937" s="4" t="s">
         <v>1459</v>
-      </c>
-      <c r="B937" s="4" t="s">
-        <v>1459</v>
-      </c>
-      <c r="C937" s="4" t="s">
-        <v>1460</v>
       </c>
       <c r="D937" s="1" t="s">
         <v>19</v>
@@ -53048,7 +53051,7 @@
         <v>76</v>
       </c>
       <c r="F937" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G937" s="1" t="s">
         <v>22</v>
@@ -53069,7 +53072,7 @@
         <v>243</v>
       </c>
       <c r="M937" s="1" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="N937" s="1">
         <v>1996</v>
@@ -53084,13 +53087,13 @@
     </row>
     <row r="938" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A938" s="4" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B938" s="4" t="s">
+        <v>1458</v>
+      </c>
+      <c r="C938" s="4" t="s">
         <v>1459</v>
-      </c>
-      <c r="B938" s="4" t="s">
-        <v>1459</v>
-      </c>
-      <c r="C938" s="4" t="s">
-        <v>1460</v>
       </c>
       <c r="D938" s="1" t="s">
         <v>19</v>
@@ -53099,7 +53102,7 @@
         <v>76</v>
       </c>
       <c r="F938" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G938" s="1" t="s">
         <v>22</v>
@@ -53135,10 +53138,10 @@
     </row>
     <row r="939" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A939" s="4" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B939" s="4" t="s">
         <v>1463</v>
-      </c>
-      <c r="B939" s="4" t="s">
-        <v>1464</v>
       </c>
       <c r="C939" s="4"/>
       <c r="D939" s="1" t="s">
@@ -53180,13 +53183,13 @@
     </row>
     <row r="940" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A940" s="4" t="s">
+        <v>1464</v>
+      </c>
+      <c r="B940" s="4" t="s">
+        <v>1464</v>
+      </c>
+      <c r="C940" s="4" t="s">
         <v>1465</v>
-      </c>
-      <c r="B940" s="4" t="s">
-        <v>1465</v>
-      </c>
-      <c r="C940" s="4" t="s">
-        <v>1466</v>
       </c>
       <c r="D940" s="1" t="s">
         <v>19</v>
@@ -53231,13 +53234,13 @@
     </row>
     <row r="941" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A941" s="4" t="s">
+        <v>1466</v>
+      </c>
+      <c r="B941" s="4" t="s">
+        <v>1466</v>
+      </c>
+      <c r="C941" s="4" t="s">
         <v>1467</v>
-      </c>
-      <c r="B941" s="4" t="s">
-        <v>1467</v>
-      </c>
-      <c r="C941" s="4" t="s">
-        <v>1468</v>
       </c>
       <c r="D941" s="1" t="s">
         <v>19</v>
@@ -53282,13 +53285,13 @@
     </row>
     <row r="942" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A942" s="4" t="s">
+        <v>1468</v>
+      </c>
+      <c r="B942" s="4" t="s">
+        <v>1468</v>
+      </c>
+      <c r="C942" s="4" t="s">
         <v>1469</v>
-      </c>
-      <c r="B942" s="4" t="s">
-        <v>1469</v>
-      </c>
-      <c r="C942" s="4" t="s">
-        <v>1470</v>
       </c>
       <c r="D942" s="1" t="s">
         <v>19</v>
@@ -53297,7 +53300,7 @@
         <v>76</v>
       </c>
       <c r="F942" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G942" s="1" t="s">
         <v>22</v>
@@ -53333,13 +53336,13 @@
     </row>
     <row r="943" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A943" s="4" t="s">
+        <v>1470</v>
+      </c>
+      <c r="B943" s="4" t="s">
+        <v>1470</v>
+      </c>
+      <c r="C943" s="4" t="s">
         <v>1471</v>
-      </c>
-      <c r="B943" s="4" t="s">
-        <v>1471</v>
-      </c>
-      <c r="C943" s="4" t="s">
-        <v>1472</v>
       </c>
       <c r="D943" s="1" t="s">
         <v>19</v>
@@ -53348,7 +53351,7 @@
         <v>409</v>
       </c>
       <c r="F943" s="1" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="G943" s="1" t="s">
         <v>43</v>
@@ -53384,13 +53387,13 @@
     </row>
     <row r="944" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A944" s="4" t="s">
+        <v>1472</v>
+      </c>
+      <c r="B944" s="4" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C944" s="4" t="s">
         <v>1473</v>
-      </c>
-      <c r="B944" s="4" t="s">
-        <v>1473</v>
-      </c>
-      <c r="C944" s="4" t="s">
-        <v>1474</v>
       </c>
       <c r="D944" s="1" t="s">
         <v>19</v>
@@ -53399,7 +53402,7 @@
         <v>1262</v>
       </c>
       <c r="F944" s="1" t="s">
-        <v>1574</v>
+        <v>1585</v>
       </c>
       <c r="G944" s="1" t="s">
         <v>43</v>
@@ -53435,13 +53438,13 @@
     </row>
     <row r="945" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A945" s="4" t="s">
+        <v>1472</v>
+      </c>
+      <c r="B945" s="4" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C945" s="4" t="s">
         <v>1473</v>
-      </c>
-      <c r="B945" s="4" t="s">
-        <v>1473</v>
-      </c>
-      <c r="C945" s="4" t="s">
-        <v>1474</v>
       </c>
       <c r="D945" s="1" t="s">
         <v>19</v>
@@ -53450,7 +53453,7 @@
         <v>409</v>
       </c>
       <c r="F945" s="1" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="G945" s="1" t="s">
         <v>43</v>
@@ -53486,10 +53489,10 @@
     </row>
     <row r="946" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A946" s="4" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="B946" s="4" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="C946" s="4"/>
       <c r="D946" s="1" t="s">
@@ -53535,19 +53538,19 @@
     </row>
     <row r="947" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A947" s="4" t="s">
+        <v>1474</v>
+      </c>
+      <c r="B947" s="4" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C947" s="4" t="s">
         <v>1475</v>
-      </c>
-      <c r="B947" s="4" t="s">
-        <v>1475</v>
-      </c>
-      <c r="C947" s="4" t="s">
-        <v>1476</v>
       </c>
       <c r="D947" s="1" t="s">
         <v>92</v>
       </c>
       <c r="E947" s="1" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="F947" s="1" t="s">
         <v>94</v>
@@ -53586,13 +53589,13 @@
     </row>
     <row r="948" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A948" s="4" t="s">
+        <v>1474</v>
+      </c>
+      <c r="B948" s="4" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C948" s="4" t="s">
         <v>1475</v>
-      </c>
-      <c r="B948" s="4" t="s">
-        <v>1475</v>
-      </c>
-      <c r="C948" s="4" t="s">
-        <v>1476</v>
       </c>
       <c r="D948" s="1" t="s">
         <v>65</v>
@@ -53637,13 +53640,13 @@
     </row>
     <row r="949" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A949" s="4" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="B949" s="4" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="C949" s="4" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="D949" s="1" t="s">
         <v>19</v>
@@ -53688,13 +53691,13 @@
     </row>
     <row r="950" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A950" s="4" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="B950" s="4" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C950" s="4" t="s">
         <v>1475</v>
-      </c>
-      <c r="C950" s="4" t="s">
-        <v>1476</v>
       </c>
       <c r="D950" s="1" t="s">
         <v>19</v>
@@ -53703,7 +53706,7 @@
         <v>76</v>
       </c>
       <c r="F950" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G950" s="1" t="s">
         <v>22</v>
@@ -53739,13 +53742,13 @@
     </row>
     <row r="951" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A951" s="4" t="s">
+        <v>1479</v>
+      </c>
+      <c r="B951" s="4" t="s">
+        <v>1479</v>
+      </c>
+      <c r="C951" s="4" t="s">
         <v>1480</v>
-      </c>
-      <c r="B951" s="4" t="s">
-        <v>1480</v>
-      </c>
-      <c r="C951" s="4" t="s">
-        <v>1481</v>
       </c>
       <c r="D951" s="1" t="s">
         <v>19</v>
@@ -53754,7 +53757,7 @@
         <v>409</v>
       </c>
       <c r="F951" s="1" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="G951" s="1" t="s">
         <v>43</v>
@@ -53790,13 +53793,13 @@
     </row>
     <row r="952" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A952" s="4" t="s">
+        <v>1481</v>
+      </c>
+      <c r="B952" s="4" t="s">
+        <v>1481</v>
+      </c>
+      <c r="C952" s="4" t="s">
         <v>1482</v>
-      </c>
-      <c r="B952" s="4" t="s">
-        <v>1482</v>
-      </c>
-      <c r="C952" s="4" t="s">
-        <v>1483</v>
       </c>
       <c r="D952" s="1" t="s">
         <v>19</v>
@@ -53841,22 +53844,22 @@
     </row>
     <row r="953" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A953" s="4" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="B953" s="4" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="C953" s="4" t="s">
+        <v>1483</v>
+      </c>
+      <c r="D953" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E953" s="1" t="s">
         <v>1484</v>
       </c>
-      <c r="D953" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E953" s="1" t="s">
-        <v>1485</v>
-      </c>
       <c r="F953" s="1" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
       <c r="G953" s="1" t="s">
         <v>43</v>
@@ -53892,13 +53895,13 @@
     </row>
     <row r="954" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A954" s="4" t="s">
+        <v>1485</v>
+      </c>
+      <c r="B954" s="4" t="s">
+        <v>1485</v>
+      </c>
+      <c r="C954" s="4" t="s">
         <v>1486</v>
-      </c>
-      <c r="B954" s="4" t="s">
-        <v>1486</v>
-      </c>
-      <c r="C954" s="4" t="s">
-        <v>1487</v>
       </c>
       <c r="D954" s="1" t="s">
         <v>19</v>
@@ -53943,19 +53946,19 @@
     </row>
     <row r="955" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A955" s="4" t="s">
+        <v>1487</v>
+      </c>
+      <c r="B955" s="4" t="s">
         <v>1488</v>
       </c>
-      <c r="B955" s="4" t="s">
+      <c r="C955" s="4" t="s">
         <v>1489</v>
       </c>
-      <c r="C955" s="4" t="s">
+      <c r="D955" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E955" s="1" t="s">
         <v>1490</v>
-      </c>
-      <c r="D955" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E955" s="1" t="s">
-        <v>1491</v>
       </c>
       <c r="F955" s="1" t="s">
         <v>21</v>
@@ -53994,13 +53997,13 @@
     </row>
     <row r="956" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A956" s="4" t="s">
+        <v>1491</v>
+      </c>
+      <c r="B956" s="4" t="s">
+        <v>1491</v>
+      </c>
+      <c r="C956" s="4" t="s">
         <v>1492</v>
-      </c>
-      <c r="B956" s="4" t="s">
-        <v>1492</v>
-      </c>
-      <c r="C956" s="4" t="s">
-        <v>1493</v>
       </c>
       <c r="D956" s="1" t="s">
         <v>19</v>
@@ -54043,13 +54046,13 @@
     </row>
     <row r="957" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A957" s="4" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="B957" s="4" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="C957" s="4" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="D957" s="1" t="s">
         <v>19</v>
@@ -54058,7 +54061,7 @@
         <v>76</v>
       </c>
       <c r="F957" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G957" s="1" t="s">
         <v>22</v>
@@ -54094,13 +54097,13 @@
     </row>
     <row r="958" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A958" s="4" t="s">
+        <v>1494</v>
+      </c>
+      <c r="B958" s="4" t="s">
         <v>1495</v>
       </c>
-      <c r="B958" s="4" t="s">
+      <c r="C958" s="4" t="s">
         <v>1496</v>
-      </c>
-      <c r="C958" s="4" t="s">
-        <v>1497</v>
       </c>
       <c r="D958" s="1" t="s">
         <v>19</v>
@@ -54145,19 +54148,19 @@
     </row>
     <row r="959" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A959" s="4" t="s">
+        <v>1494</v>
+      </c>
+      <c r="B959" s="4" t="s">
         <v>1495</v>
       </c>
-      <c r="B959" s="4" t="s">
+      <c r="C959" s="4" t="s">
         <v>1496</v>
       </c>
-      <c r="C959" s="4" t="s">
+      <c r="D959" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E959" s="1" t="s">
         <v>1497</v>
-      </c>
-      <c r="D959" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E959" s="1" t="s">
-        <v>1498</v>
       </c>
       <c r="F959" s="1" t="s">
         <v>208</v>
@@ -54196,13 +54199,13 @@
     </row>
     <row r="960" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A960" s="4" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="B960" s="4" t="s">
         <v>867</v>
       </c>
       <c r="C960" s="4" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="D960" s="1" t="s">
         <v>19</v>
@@ -54244,18 +54247,18 @@
         <v>38</v>
       </c>
       <c r="Q960" s="1" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="961" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A961" s="4" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="B961" s="4" t="s">
         <v>867</v>
       </c>
       <c r="C961" s="4" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="D961" s="1" t="s">
         <v>19</v>
@@ -54264,7 +54267,7 @@
         <v>76</v>
       </c>
       <c r="F961" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G961" s="1" t="s">
         <v>33</v>
@@ -54300,13 +54303,13 @@
     </row>
     <row r="962" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A962" s="4" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="B962" s="4" t="s">
         <v>867</v>
       </c>
       <c r="C962" s="4" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="D962" s="1" t="s">
         <v>19</v>
@@ -54315,7 +54318,7 @@
         <v>76</v>
       </c>
       <c r="F962" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G962" s="1" t="s">
         <v>22</v>
@@ -54336,7 +54339,7 @@
         <v>243</v>
       </c>
       <c r="M962" s="1" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="N962" s="1" t="s">
         <v>38</v>
@@ -54351,22 +54354,22 @@
     </row>
     <row r="963" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A963" s="4" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="B963" s="4" t="s">
         <v>867</v>
       </c>
       <c r="C963" s="4" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="D963" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E963" s="1" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="F963" s="1" t="s">
-        <v>1576</v>
+        <v>1583</v>
       </c>
       <c r="G963" s="1" t="s">
         <v>187</v>
@@ -54402,13 +54405,13 @@
     </row>
     <row r="964" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A964" s="4" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="B964" s="4" t="s">
         <v>867</v>
       </c>
       <c r="C964" s="4" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="D964" s="1" t="s">
         <v>19</v>
@@ -54417,7 +54420,7 @@
         <v>162</v>
       </c>
       <c r="F964" s="1" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="G964" s="1" t="s">
         <v>200</v>
@@ -54453,13 +54456,13 @@
     </row>
     <row r="965" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A965" s="4" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="B965" s="4" t="s">
         <v>867</v>
       </c>
       <c r="C965" s="4" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="D965" s="1" t="s">
         <v>19</v>
@@ -54468,7 +54471,7 @@
         <v>76</v>
       </c>
       <c r="F965" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G965" s="1" t="s">
         <v>200</v>
@@ -54504,13 +54507,13 @@
     </row>
     <row r="966" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A966" s="4" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="B966" s="4" t="s">
         <v>867</v>
       </c>
       <c r="C966" s="4" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="D966" s="1" t="s">
         <v>19</v>
@@ -54519,7 +54522,7 @@
         <v>76</v>
       </c>
       <c r="F966" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G966" s="1" t="s">
         <v>22</v>
@@ -54555,13 +54558,13 @@
     </row>
     <row r="967" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A967" s="4" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="B967" s="4" t="s">
         <v>867</v>
       </c>
       <c r="C967" s="4" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="D967" s="1" t="s">
         <v>19</v>
@@ -54606,13 +54609,13 @@
     </row>
     <row r="968" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A968" s="4" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="B968" s="4" t="s">
         <v>867</v>
       </c>
       <c r="C968" s="4" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="D968" s="1" t="s">
         <v>19</v>
@@ -54621,7 +54624,7 @@
         <v>76</v>
       </c>
       <c r="F968" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G968" s="1" t="s">
         <v>56</v>
@@ -54655,13 +54658,13 @@
     </row>
     <row r="969" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A969" s="4" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="B969" s="4" t="s">
         <v>867</v>
       </c>
       <c r="C969" s="4" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="D969" s="1" t="s">
         <v>19</v>
@@ -54670,7 +54673,7 @@
         <v>76</v>
       </c>
       <c r="F969" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G969" s="1" t="s">
         <v>33</v>
@@ -54706,7 +54709,7 @@
     </row>
     <row r="970" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A970" s="4" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="B970" s="4" t="s">
         <v>867</v>
@@ -54740,7 +54743,7 @@
         <v>197</v>
       </c>
       <c r="M970" s="1" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="N970" s="1" t="s">
         <v>38</v>
@@ -54755,19 +54758,19 @@
     </row>
     <row r="971" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A971" s="4" t="s">
+        <v>1504</v>
+      </c>
+      <c r="B971" s="4" t="s">
         <v>1505</v>
       </c>
-      <c r="B971" s="4" t="s">
+      <c r="C971" s="4" t="s">
         <v>1506</v>
       </c>
-      <c r="C971" s="4" t="s">
+      <c r="D971" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E971" s="1" t="s">
         <v>1507</v>
-      </c>
-      <c r="D971" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E971" s="1" t="s">
-        <v>1508</v>
       </c>
       <c r="F971" s="1" t="s">
         <v>108</v>
@@ -54806,13 +54809,13 @@
     </row>
     <row r="972" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A972" s="4" t="s">
+        <v>1508</v>
+      </c>
+      <c r="B972" s="4" t="s">
         <v>1509</v>
       </c>
-      <c r="B972" s="4" t="s">
+      <c r="C972" s="4" t="s">
         <v>1510</v>
-      </c>
-      <c r="C972" s="4" t="s">
-        <v>1511</v>
       </c>
       <c r="D972" s="1" t="s">
         <v>19</v>
@@ -54855,13 +54858,13 @@
     </row>
     <row r="973" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A973" s="4" t="s">
+        <v>1511</v>
+      </c>
+      <c r="B973" s="4" t="s">
+        <v>1511</v>
+      </c>
+      <c r="C973" s="4" t="s">
         <v>1512</v>
-      </c>
-      <c r="B973" s="4" t="s">
-        <v>1512</v>
-      </c>
-      <c r="C973" s="4" t="s">
-        <v>1513</v>
       </c>
       <c r="D973" s="1" t="s">
         <v>19</v>
@@ -54870,7 +54873,7 @@
         <v>162</v>
       </c>
       <c r="F973" s="1" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="G973" s="1" t="s">
         <v>56</v>
@@ -54906,13 +54909,13 @@
     </row>
     <row r="974" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A974" s="4" t="s">
+        <v>1511</v>
+      </c>
+      <c r="B974" s="4" t="s">
+        <v>1511</v>
+      </c>
+      <c r="C974" s="4" t="s">
         <v>1512</v>
-      </c>
-      <c r="B974" s="4" t="s">
-        <v>1512</v>
-      </c>
-      <c r="C974" s="4" t="s">
-        <v>1513</v>
       </c>
       <c r="D974" s="1" t="s">
         <v>19</v>
@@ -54921,7 +54924,7 @@
         <v>409</v>
       </c>
       <c r="F974" s="1" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="G974" s="1" t="s">
         <v>56</v>
@@ -54957,13 +54960,13 @@
     </row>
     <row r="975" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A975" s="4" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="B975" s="4" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="C975" s="4" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="D975" s="1" t="s">
         <v>19</v>
@@ -54972,7 +54975,7 @@
         <v>1262</v>
       </c>
       <c r="F975" s="1" t="s">
-        <v>1574</v>
+        <v>1585</v>
       </c>
       <c r="G975" s="1" t="s">
         <v>33</v>
@@ -55008,13 +55011,13 @@
     </row>
     <row r="976" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A976" s="4" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="B976" s="4" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="C976" s="6" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="D976" s="1" t="s">
         <v>19</v>
@@ -55023,7 +55026,7 @@
         <v>84</v>
       </c>
       <c r="F976" s="1" t="s">
-        <v>1576</v>
+        <v>1583</v>
       </c>
       <c r="G976" s="1" t="s">
         <v>33</v>
@@ -55059,19 +55062,19 @@
     </row>
     <row r="977" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A977" s="4" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="B977" s="4" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="C977" s="6" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="D977" s="1" t="s">
         <v>92</v>
       </c>
       <c r="E977" s="1" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="F977" s="1" t="s">
         <v>94</v>
@@ -55110,19 +55113,19 @@
     </row>
     <row r="978" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A978" s="4" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="B978" s="4" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="C978" s="6" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="D978" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E978" s="1" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="F978" s="1" t="s">
         <v>67</v>
@@ -55161,13 +55164,13 @@
     </row>
     <row r="979" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A979" s="4" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="B979" s="4" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="C979" s="6" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="D979" s="1" t="s">
         <v>30</v>
@@ -55212,19 +55215,19 @@
     </row>
     <row r="980" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A980" s="4" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="B980" s="4" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="C980" s="6" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="D980" s="1" t="s">
         <v>152</v>
       </c>
       <c r="E980" s="1" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="F980" s="1" t="s">
         <v>359</v>
@@ -55263,13 +55266,13 @@
     </row>
     <row r="981" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A981" s="4" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="B981" s="4" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="C981" s="6" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="D981" s="1" t="s">
         <v>149</v>
@@ -55314,19 +55317,19 @@
     </row>
     <row r="982" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A982" s="4" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="B982" s="4" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="C982" s="6" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="D982" s="1" t="s">
         <v>155</v>
       </c>
       <c r="E982" s="1" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="F982" s="1" t="s">
         <v>157</v>
@@ -55365,10 +55368,10 @@
     </row>
     <row r="983" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A983" s="4" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="B983" s="4" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="C983" s="4"/>
       <c r="D983" s="1" t="s">
@@ -55414,20 +55417,20 @@
     </row>
     <row r="984" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A984" s="4" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="B984" s="4" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="C984" s="4"/>
       <c r="D984" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E984" s="1" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="F984" s="1" t="s">
-        <v>1576</v>
+        <v>1583</v>
       </c>
       <c r="G984" s="1" t="s">
         <v>131</v>
@@ -55463,20 +55466,20 @@
     </row>
     <row r="985" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A985" s="4" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="B985" s="4" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="C985" s="4"/>
       <c r="D985" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E985" s="1" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="F985" s="1" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
       <c r="G985" s="1" t="s">
         <v>131</v>
@@ -55512,10 +55515,10 @@
     </row>
     <row r="986" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A986" s="4" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="B986" s="4" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="C986" s="4"/>
       <c r="D986" s="1" t="s">
@@ -55561,17 +55564,17 @@
     </row>
     <row r="987" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A987" s="4" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="B987" s="4" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="C987" s="4"/>
       <c r="D987" s="1" t="s">
         <v>92</v>
       </c>
       <c r="E987" s="1" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="F987" s="1" t="s">
         <v>94</v>
@@ -55610,10 +55613,10 @@
     </row>
     <row r="988" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A988" s="4" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="B988" s="4" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="C988" s="4"/>
       <c r="D988" s="1" t="s">
@@ -55655,13 +55658,13 @@
     </row>
     <row r="989" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A989" s="4" t="s">
+        <v>1522</v>
+      </c>
+      <c r="B989" s="4" t="s">
+        <v>1522</v>
+      </c>
+      <c r="C989" s="4" t="s">
         <v>1523</v>
-      </c>
-      <c r="B989" s="4" t="s">
-        <v>1523</v>
-      </c>
-      <c r="C989" s="4" t="s">
-        <v>1524</v>
       </c>
       <c r="D989" s="1" t="s">
         <v>19</v>
@@ -55670,7 +55673,7 @@
         <v>311</v>
       </c>
       <c r="F989" s="1" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
       <c r="G989" s="1" t="s">
         <v>33</v>
@@ -55679,19 +55682,19 @@
         <v>64</v>
       </c>
       <c r="I989" s="1" t="s">
+        <v>1524</v>
+      </c>
+      <c r="J989" s="1" t="s">
         <v>1525</v>
       </c>
-      <c r="J989" s="1" t="s">
+      <c r="K989" s="4" t="s">
         <v>1526</v>
-      </c>
-      <c r="K989" s="4" t="s">
-        <v>1527</v>
       </c>
       <c r="L989" s="1">
         <v>979</v>
       </c>
       <c r="M989" s="1" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="N989" s="1">
         <v>1956</v>
@@ -55706,13 +55709,13 @@
     </row>
     <row r="990" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A990" s="4" t="s">
+        <v>1522</v>
+      </c>
+      <c r="B990" s="4" t="s">
+        <v>1522</v>
+      </c>
+      <c r="C990" s="4" t="s">
         <v>1523</v>
-      </c>
-      <c r="B990" s="4" t="s">
-        <v>1523</v>
-      </c>
-      <c r="C990" s="4" t="s">
-        <v>1524</v>
       </c>
       <c r="D990" s="1" t="s">
         <v>19</v>
@@ -55730,19 +55733,19 @@
         <v>64</v>
       </c>
       <c r="I990" s="1" t="s">
+        <v>1524</v>
+      </c>
+      <c r="J990" s="1" t="s">
         <v>1525</v>
       </c>
-      <c r="J990" s="1" t="s">
+      <c r="K990" s="4" t="s">
         <v>1526</v>
-      </c>
-      <c r="K990" s="4" t="s">
-        <v>1527</v>
       </c>
       <c r="L990" s="1">
         <v>979</v>
       </c>
       <c r="M990" s="1" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="N990" s="1">
         <v>1956</v>
@@ -55757,13 +55760,13 @@
     </row>
     <row r="991" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A991" s="4" t="s">
+        <v>1522</v>
+      </c>
+      <c r="B991" s="4" t="s">
+        <v>1522</v>
+      </c>
+      <c r="C991" s="4" t="s">
         <v>1523</v>
-      </c>
-      <c r="B991" s="4" t="s">
-        <v>1523</v>
-      </c>
-      <c r="C991" s="4" t="s">
-        <v>1524</v>
       </c>
       <c r="D991" s="1" t="s">
         <v>19</v>
@@ -55772,7 +55775,7 @@
         <v>574</v>
       </c>
       <c r="F991" s="1" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="G991" s="1" t="s">
         <v>33</v>
@@ -55781,19 +55784,19 @@
         <v>64</v>
       </c>
       <c r="I991" s="1" t="s">
+        <v>1524</v>
+      </c>
+      <c r="J991" s="1" t="s">
         <v>1525</v>
       </c>
-      <c r="J991" s="1" t="s">
+      <c r="K991" s="4" t="s">
         <v>1526</v>
-      </c>
-      <c r="K991" s="4" t="s">
-        <v>1527</v>
       </c>
       <c r="L991" s="1">
         <v>979</v>
       </c>
       <c r="M991" s="1" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="N991" s="1">
         <v>1956</v>
@@ -55808,19 +55811,19 @@
     </row>
     <row r="992" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A992" s="4" t="s">
+        <v>1522</v>
+      </c>
+      <c r="B992" s="4" t="s">
+        <v>1522</v>
+      </c>
+      <c r="C992" s="4" t="s">
         <v>1523</v>
-      </c>
-      <c r="B992" s="4" t="s">
-        <v>1523</v>
-      </c>
-      <c r="C992" s="4" t="s">
-        <v>1524</v>
       </c>
       <c r="D992" s="1" t="s">
         <v>92</v>
       </c>
       <c r="E992" s="1" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="F992" s="1" t="s">
         <v>94</v>
@@ -55832,19 +55835,19 @@
         <v>64</v>
       </c>
       <c r="I992" s="1" t="s">
+        <v>1524</v>
+      </c>
+      <c r="J992" s="1" t="s">
         <v>1525</v>
       </c>
-      <c r="J992" s="1" t="s">
+      <c r="K992" s="4" t="s">
         <v>1526</v>
-      </c>
-      <c r="K992" s="4" t="s">
-        <v>1527</v>
       </c>
       <c r="L992" s="1">
         <v>979</v>
       </c>
       <c r="M992" s="1" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="N992" s="1">
         <v>1956</v>
@@ -55859,13 +55862,13 @@
     </row>
     <row r="993" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A993" s="4" t="s">
+        <v>1529</v>
+      </c>
+      <c r="B993" s="4" t="s">
+        <v>1529</v>
+      </c>
+      <c r="C993" s="4" t="s">
         <v>1530</v>
-      </c>
-      <c r="B993" s="4" t="s">
-        <v>1530</v>
-      </c>
-      <c r="C993" s="4" t="s">
-        <v>1531</v>
       </c>
       <c r="D993" s="1" t="s">
         <v>19</v>
@@ -55910,13 +55913,13 @@
     </row>
     <row r="994" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A994" s="4" t="s">
+        <v>1531</v>
+      </c>
+      <c r="B994" s="4" t="s">
+        <v>1531</v>
+      </c>
+      <c r="C994" s="4" t="s">
         <v>1532</v>
-      </c>
-      <c r="B994" s="4" t="s">
-        <v>1532</v>
-      </c>
-      <c r="C994" s="4" t="s">
-        <v>1533</v>
       </c>
       <c r="D994" s="1" t="s">
         <v>19</v>
@@ -55961,19 +55964,19 @@
     </row>
     <row r="995" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A995" s="4" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="B995" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C995" s="4" t="s">
+        <v>1534</v>
+      </c>
+      <c r="D995" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E995" s="1" t="s">
         <v>1535</v>
-      </c>
-      <c r="D995" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E995" s="1" t="s">
-        <v>1536</v>
       </c>
       <c r="F995" s="1" t="s">
         <v>21</v>
@@ -56012,13 +56015,13 @@
     </row>
     <row r="996" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A996" s="4" t="s">
+        <v>1536</v>
+      </c>
+      <c r="B996" s="4" t="s">
+        <v>1536</v>
+      </c>
+      <c r="C996" s="4" t="s">
         <v>1537</v>
-      </c>
-      <c r="B996" s="4" t="s">
-        <v>1537</v>
-      </c>
-      <c r="C996" s="4" t="s">
-        <v>1538</v>
       </c>
       <c r="D996" s="1" t="s">
         <v>19</v>
@@ -56069,7 +56072,7 @@
         <v>1130</v>
       </c>
       <c r="C997" s="4" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="D997" s="1" t="s">
         <v>19</v>
@@ -56078,7 +56081,7 @@
         <v>76</v>
       </c>
       <c r="F997" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G997" s="1" t="s">
         <v>33</v>
@@ -56114,19 +56117,19 @@
     </row>
     <row r="998" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A998" s="4" t="s">
+        <v>1539</v>
+      </c>
+      <c r="B998" s="4" t="s">
+        <v>1539</v>
+      </c>
+      <c r="C998" s="4" t="s">
         <v>1540</v>
       </c>
-      <c r="B998" s="4" t="s">
-        <v>1540</v>
-      </c>
-      <c r="C998" s="4" t="s">
+      <c r="D998" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E998" s="1" t="s">
         <v>1541</v>
-      </c>
-      <c r="D998" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E998" s="1" t="s">
-        <v>1542</v>
       </c>
       <c r="F998" s="1" t="s">
         <v>108</v>
@@ -56165,22 +56168,22 @@
     </row>
     <row r="999" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A999" s="4" t="s">
+        <v>1539</v>
+      </c>
+      <c r="B999" s="4" t="s">
+        <v>1539</v>
+      </c>
+      <c r="C999" s="4" t="s">
         <v>1540</v>
       </c>
-      <c r="B999" s="4" t="s">
-        <v>1540</v>
-      </c>
-      <c r="C999" s="4" t="s">
-        <v>1541</v>
-      </c>
       <c r="D999" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E999" s="1" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="F999" s="1" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="G999" s="1" t="s">
         <v>33</v>
@@ -56216,13 +56219,13 @@
     </row>
     <row r="1000" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1000" s="4" t="s">
+        <v>1539</v>
+      </c>
+      <c r="B1000" s="4" t="s">
+        <v>1539</v>
+      </c>
+      <c r="C1000" s="4" t="s">
         <v>1540</v>
-      </c>
-      <c r="B1000" s="4" t="s">
-        <v>1540</v>
-      </c>
-      <c r="C1000" s="4" t="s">
-        <v>1541</v>
       </c>
       <c r="D1000" s="1" t="s">
         <v>19</v>
@@ -56267,19 +56270,19 @@
     </row>
     <row r="1001" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1001" s="4" t="s">
+        <v>1539</v>
+      </c>
+      <c r="B1001" s="4" t="s">
+        <v>1539</v>
+      </c>
+      <c r="C1001" s="4" t="s">
         <v>1540</v>
-      </c>
-      <c r="B1001" s="4" t="s">
-        <v>1540</v>
-      </c>
-      <c r="C1001" s="4" t="s">
-        <v>1541</v>
       </c>
       <c r="D1001" s="1" t="s">
         <v>92</v>
       </c>
       <c r="E1001" s="1" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="F1001" s="1" t="s">
         <v>94</v>
@@ -56318,19 +56321,19 @@
     </row>
     <row r="1002" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1002" s="4" t="s">
+        <v>1539</v>
+      </c>
+      <c r="B1002" s="4" t="s">
+        <v>1539</v>
+      </c>
+      <c r="C1002" s="4" t="s">
         <v>1540</v>
-      </c>
-      <c r="B1002" s="4" t="s">
-        <v>1540</v>
-      </c>
-      <c r="C1002" s="4" t="s">
-        <v>1541</v>
       </c>
       <c r="D1002" s="1" t="s">
         <v>152</v>
       </c>
       <c r="E1002" s="1" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="F1002" s="1" t="s">
         <v>359</v>
@@ -56369,13 +56372,13 @@
     </row>
     <row r="1003" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1003" s="4" t="s">
+        <v>1539</v>
+      </c>
+      <c r="B1003" s="4" t="s">
+        <v>1539</v>
+      </c>
+      <c r="C1003" s="4" t="s">
         <v>1540</v>
-      </c>
-      <c r="B1003" s="4" t="s">
-        <v>1540</v>
-      </c>
-      <c r="C1003" s="4" t="s">
-        <v>1541</v>
       </c>
       <c r="D1003" s="1" t="s">
         <v>30</v>
@@ -56420,13 +56423,13 @@
     </row>
     <row r="1004" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1004" s="4" t="s">
+        <v>1545</v>
+      </c>
+      <c r="B1004" s="4" t="s">
+        <v>1545</v>
+      </c>
+      <c r="C1004" s="4" t="s">
         <v>1546</v>
-      </c>
-      <c r="B1004" s="4" t="s">
-        <v>1546</v>
-      </c>
-      <c r="C1004" s="4" t="s">
-        <v>1547</v>
       </c>
       <c r="D1004" s="1" t="s">
         <v>19</v>
@@ -56471,20 +56474,20 @@
     </row>
     <row r="1005" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1005" s="4" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="B1005" s="4" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="C1005" s="4"/>
       <c r="D1005" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E1005" s="1" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="F1005" s="1" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="G1005" s="1" t="s">
         <v>131</v>
@@ -56520,10 +56523,10 @@
     </row>
     <row r="1006" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1006" s="4" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="B1006" s="4" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="C1006" s="4"/>
       <c r="D1006" s="1" t="s">
@@ -56569,10 +56572,10 @@
     </row>
     <row r="1007" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1007" s="4" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="B1007" s="4" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="C1007" s="4"/>
       <c r="D1007" s="1" t="s">
@@ -56618,13 +56621,13 @@
     </row>
     <row r="1008" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1008" s="4" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="B1008" s="4" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="C1008" s="4" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="D1008" s="1" t="s">
         <v>19</v>
@@ -56633,7 +56636,7 @@
         <v>76</v>
       </c>
       <c r="F1008" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G1008" s="1" t="s">
         <v>22</v>
@@ -56669,13 +56672,13 @@
     </row>
     <row r="1009" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1009" s="4" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="B1009" s="4" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="C1009" s="4" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="D1009" s="1" t="s">
         <v>92</v>
@@ -56720,22 +56723,22 @@
     </row>
     <row r="1010" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1010" s="4" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="B1010" s="4" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="C1010" s="4" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="D1010" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E1010" s="1" t="s">
-        <v>127</v>
+        <v>1584</v>
       </c>
       <c r="F1010" s="1" t="s">
-        <v>1581</v>
+        <v>1579</v>
       </c>
       <c r="G1010" s="1" t="s">
         <v>123</v>
@@ -56771,13 +56774,13 @@
     </row>
     <row r="1011" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1011" s="4" t="s">
+        <v>1550</v>
+      </c>
+      <c r="B1011" s="4" t="s">
+        <v>1550</v>
+      </c>
+      <c r="C1011" s="4" t="s">
         <v>1551</v>
-      </c>
-      <c r="B1011" s="4" t="s">
-        <v>1551</v>
-      </c>
-      <c r="C1011" s="4" t="s">
-        <v>1552</v>
       </c>
       <c r="D1011" s="1" t="s">
         <v>19</v>
@@ -56822,13 +56825,13 @@
     </row>
     <row r="1012" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1012" s="4" t="s">
+        <v>1552</v>
+      </c>
+      <c r="B1012" s="4" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C1012" s="4" t="s">
         <v>1553</v>
-      </c>
-      <c r="B1012" s="4" t="s">
-        <v>1553</v>
-      </c>
-      <c r="C1012" s="4" t="s">
-        <v>1554</v>
       </c>
       <c r="D1012" s="1" t="s">
         <v>19</v>
@@ -56871,13 +56874,13 @@
     </row>
     <row r="1013" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1013" s="4" t="s">
+        <v>1552</v>
+      </c>
+      <c r="B1013" s="4" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C1013" s="4" t="s">
         <v>1553</v>
-      </c>
-      <c r="B1013" s="4" t="s">
-        <v>1553</v>
-      </c>
-      <c r="C1013" s="4" t="s">
-        <v>1554</v>
       </c>
       <c r="D1013" s="1" t="s">
         <v>19</v>
@@ -56920,13 +56923,13 @@
     </row>
     <row r="1014" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1014" s="4" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="B1014" s="4" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="C1014" s="4" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="D1014" s="1" t="s">
         <v>19</v>
@@ -56935,7 +56938,7 @@
         <v>76</v>
       </c>
       <c r="F1014" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G1014" s="1" t="s">
         <v>22</v>
@@ -56971,13 +56974,13 @@
     </row>
     <row r="1015" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1015" s="4" t="s">
+        <v>1555</v>
+      </c>
+      <c r="B1015" s="4" t="s">
+        <v>1555</v>
+      </c>
+      <c r="C1015" s="4" t="s">
         <v>1556</v>
-      </c>
-      <c r="B1015" s="4" t="s">
-        <v>1556</v>
-      </c>
-      <c r="C1015" s="4" t="s">
-        <v>1557</v>
       </c>
       <c r="D1015" s="1" t="s">
         <v>19</v>
@@ -56986,7 +56989,7 @@
         <v>239</v>
       </c>
       <c r="F1015" s="1" t="s">
-        <v>1576</v>
+        <v>1583</v>
       </c>
       <c r="G1015" s="1" t="s">
         <v>56</v>
@@ -57022,13 +57025,13 @@
     </row>
     <row r="1016" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1016" s="4" t="s">
+        <v>1555</v>
+      </c>
+      <c r="B1016" s="4" t="s">
+        <v>1555</v>
+      </c>
+      <c r="C1016" s="4" t="s">
         <v>1556</v>
-      </c>
-      <c r="B1016" s="4" t="s">
-        <v>1556</v>
-      </c>
-      <c r="C1016" s="4" t="s">
-        <v>1557</v>
       </c>
       <c r="D1016" s="1" t="s">
         <v>19</v>
@@ -57073,19 +57076,19 @@
     </row>
     <row r="1017" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1017" s="4" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="B1017" s="4" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="C1017" s="4" t="s">
+        <v>1557</v>
+      </c>
+      <c r="D1017" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1017" s="1" t="s">
         <v>1558</v>
-      </c>
-      <c r="D1017" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1017" s="1" t="s">
-        <v>1559</v>
       </c>
       <c r="F1017" s="1" t="s">
         <v>21</v>
@@ -57124,19 +57127,19 @@
     </row>
     <row r="1018" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1018" s="4" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="B1018" s="4" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="C1018" s="4" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="D1018" s="1" t="s">
         <v>155</v>
       </c>
       <c r="E1018" s="1" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="F1018" s="1" t="s">
         <v>157</v>
@@ -57175,10 +57178,10 @@
     </row>
     <row r="1019" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1019" s="4" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="B1019" s="4" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="C1019" s="4"/>
       <c r="D1019" s="1" t="s">
@@ -57188,7 +57191,7 @@
         <v>1378</v>
       </c>
       <c r="F1019" s="1" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
       <c r="G1019" s="1" t="s">
         <v>131</v>
@@ -57224,10 +57227,10 @@
     </row>
     <row r="1020" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1020" s="4" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="B1020" s="4" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="C1020" s="4"/>
       <c r="D1020" s="1" t="s">
@@ -57273,13 +57276,13 @@
     </row>
     <row r="1021" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1021" s="4" t="s">
+        <v>1560</v>
+      </c>
+      <c r="B1021" s="4" t="s">
+        <v>1560</v>
+      </c>
+      <c r="C1021" s="4" t="s">
         <v>1561</v>
-      </c>
-      <c r="B1021" s="4" t="s">
-        <v>1561</v>
-      </c>
-      <c r="C1021" s="4" t="s">
-        <v>1562</v>
       </c>
       <c r="D1021" s="1" t="s">
         <v>19</v>
@@ -57324,13 +57327,13 @@
     </row>
     <row r="1022" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1022" s="4" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B1022" s="4" t="s">
+        <v>1562</v>
+      </c>
+      <c r="C1022" s="4" t="s">
         <v>1563</v>
-      </c>
-      <c r="B1022" s="4" t="s">
-        <v>1563</v>
-      </c>
-      <c r="C1022" s="4" t="s">
-        <v>1564</v>
       </c>
       <c r="D1022" s="1" t="s">
         <v>19</v>
@@ -57339,7 +57342,7 @@
         <v>457</v>
       </c>
       <c r="F1022" s="1" t="s">
-        <v>1574</v>
+        <v>1585</v>
       </c>
       <c r="G1022" s="1" t="s">
         <v>56</v>
@@ -57375,13 +57378,13 @@
     </row>
     <row r="1023" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1023" s="4" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B1023" s="4" t="s">
+        <v>1562</v>
+      </c>
+      <c r="C1023" s="4" t="s">
         <v>1563</v>
-      </c>
-      <c r="B1023" s="4" t="s">
-        <v>1563</v>
-      </c>
-      <c r="C1023" s="4" t="s">
-        <v>1564</v>
       </c>
       <c r="D1023" s="1" t="s">
         <v>19</v>
@@ -57390,7 +57393,7 @@
         <v>76</v>
       </c>
       <c r="F1023" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G1023" s="1" t="s">
         <v>56</v>
@@ -57426,13 +57429,13 @@
     </row>
     <row r="1024" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1024" s="4" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B1024" s="4" t="s">
+        <v>1562</v>
+      </c>
+      <c r="C1024" s="4" t="s">
         <v>1563</v>
-      </c>
-      <c r="B1024" s="4" t="s">
-        <v>1563</v>
-      </c>
-      <c r="C1024" s="4" t="s">
-        <v>1564</v>
       </c>
       <c r="D1024" s="1" t="s">
         <v>19</v>
@@ -57441,7 +57444,7 @@
         <v>84</v>
       </c>
       <c r="F1024" s="1" t="s">
-        <v>1576</v>
+        <v>1583</v>
       </c>
       <c r="G1024" s="1" t="s">
         <v>56</v>
@@ -57477,13 +57480,13 @@
     </row>
     <row r="1025" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1025" s="4" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B1025" s="4" t="s">
+        <v>1562</v>
+      </c>
+      <c r="C1025" s="4" t="s">
         <v>1563</v>
-      </c>
-      <c r="B1025" s="4" t="s">
-        <v>1563</v>
-      </c>
-      <c r="C1025" s="4" t="s">
-        <v>1564</v>
       </c>
       <c r="D1025" s="1" t="s">
         <v>19</v>
@@ -57528,13 +57531,13 @@
     </row>
     <row r="1026" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1026" s="4" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B1026" s="4" t="s">
+        <v>1562</v>
+      </c>
+      <c r="C1026" s="4" t="s">
         <v>1563</v>
-      </c>
-      <c r="B1026" s="4" t="s">
-        <v>1563</v>
-      </c>
-      <c r="C1026" s="4" t="s">
-        <v>1564</v>
       </c>
       <c r="D1026" s="1" t="s">
         <v>19</v>
@@ -57579,13 +57582,13 @@
     </row>
     <row r="1027" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1027" s="4" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="B1027" s="4" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="C1027" s="4" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="D1027" s="1" t="s">
         <v>19</v>
@@ -57630,19 +57633,19 @@
     </row>
     <row r="1028" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1028" s="4" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="B1028" s="4" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="C1028" s="4" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="D1028" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E1028" s="1" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
       <c r="F1028" s="1" t="s">
         <v>21</v>
@@ -57681,13 +57684,13 @@
     </row>
     <row r="1029" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1029" s="4" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="B1029" s="4" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="C1029" s="4" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="D1029" s="1" t="s">
         <v>19</v>
@@ -57696,7 +57699,7 @@
         <v>219</v>
       </c>
       <c r="F1029" s="1" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="G1029" s="1" t="s">
         <v>220</v>
@@ -57732,13 +57735,13 @@
     </row>
     <row r="1030" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1030" s="4" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="B1030" s="4" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="C1030" s="4" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="D1030" s="1" t="s">
         <v>19</v>
@@ -57747,7 +57750,7 @@
         <v>76</v>
       </c>
       <c r="F1030" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G1030" s="1" t="s">
         <v>22</v>
